--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K113" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L113" t="n">
         <v>10000</v>
       </c>
       <c r="M113" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3167</v>
+        <v>278</v>
       </c>
       <c r="Q113" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K114" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L114" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M114" t="n">
-        <v>9619</v>
+        <v>22759</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3206</v>
+        <v>7586</v>
       </c>
       <c r="Q114" t="n">
         <v>3</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,20 +8637,20 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="K115" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L115" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M115" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>222</v>
+        <v>3167</v>
       </c>
       <c r="Q115" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K116" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L116" t="n">
         <v>10000</v>
       </c>
-      <c r="L116" t="n">
-        <v>12000</v>
-      </c>
       <c r="M116" t="n">
-        <v>11111</v>
+        <v>9619</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3704</v>
+        <v>3206</v>
       </c>
       <c r="Q116" t="n">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M117" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q117" t="n">
         <v>36</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K118" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L118" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M118" t="n">
-        <v>15000</v>
+        <v>11111</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5000</v>
+        <v>3704</v>
       </c>
       <c r="Q118" t="n">
         <v>3</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K119" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L119" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M119" t="n">
-        <v>5250</v>
+        <v>10000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="Q119" t="n">
         <v>36</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9000,13 +9000,13 @@
         <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L120" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M120" t="n">
-        <v>10250</v>
+        <v>15000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3417</v>
+        <v>5000</v>
       </c>
       <c r="Q120" t="n">
         <v>3</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9072,17 +9072,17 @@
         <v>70</v>
       </c>
       <c r="K121" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L121" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M121" t="n">
-        <v>12500</v>
+        <v>5250</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4167</v>
+        <v>146</v>
       </c>
       <c r="Q121" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L122" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M122" t="n">
-        <v>6750</v>
+        <v>10250</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>188</v>
+        <v>3417</v>
       </c>
       <c r="Q122" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K123" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L123" t="n">
         <v>13000</v>
       </c>
-      <c r="L123" t="n">
-        <v>14000</v>
-      </c>
       <c r="M123" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q123" t="n">
         <v>3</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K124" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L124" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M124" t="n">
-        <v>9091</v>
+        <v>6750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3030</v>
+        <v>188</v>
       </c>
       <c r="Q124" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,20 +9357,20 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K125" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L125" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M125" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q125" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K126" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L126" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M126" t="n">
-        <v>13500</v>
+        <v>9091</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4500</v>
+        <v>3030</v>
       </c>
       <c r="Q126" t="n">
         <v>3</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M127" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q127" t="n">
         <v>36</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L128" t="n">
         <v>14000</v>
       </c>
-      <c r="L128" t="n">
-        <v>15000</v>
-      </c>
       <c r="M128" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="Q128" t="n">
         <v>3</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M129" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q129" t="n">
         <v>36</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q130" t="n">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K131" t="n">
         <v>6000</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M132" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3333</v>
+        <v>4500</v>
       </c>
       <c r="Q132" t="n">
         <v>3</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9936,13 +9936,13 @@
         <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L133" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M133" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q133" t="n">
         <v>36</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4667</v>
+        <v>3333</v>
       </c>
       <c r="Q134" t="n">
         <v>3</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K135" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L135" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M135" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q135" t="n">
         <v>36</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10152,13 +10152,13 @@
         <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L136" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>10250</v>
+        <v>14000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3417</v>
+        <v>4667</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,20 +10221,20 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="K137" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M137" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3167</v>
+        <v>139</v>
       </c>
       <c r="Q137" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M138" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q138" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="K139" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L139" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>8385</v>
+        <v>9500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2795</v>
+        <v>3167</v>
       </c>
       <c r="Q139" t="n">
         <v>3</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M140" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q140" t="n">
         <v>36</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="K141" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L141" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M141" t="n">
-        <v>20990</v>
+        <v>8385</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>6997</v>
+        <v>2795</v>
       </c>
       <c r="Q141" t="n">
         <v>3</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K142" t="n">
         <v>10000</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K143" t="n">
         <v>20000</v>
@@ -10662,7 +10662,7 @@
         <v>22000</v>
       </c>
       <c r="M143" t="n">
-        <v>21241</v>
+        <v>20990</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>7080</v>
+        <v>6997</v>
       </c>
       <c r="Q143" t="n">
         <v>3</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10728,13 +10728,13 @@
         <v>52</v>
       </c>
       <c r="K144" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M144" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q144" t="n">
         <v>36</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L145" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M145" t="n">
-        <v>10500</v>
+        <v>21241</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3500</v>
+        <v>7080</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K146" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L146" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M146" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q146" t="n">
         <v>36</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K147" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q147" t="n">
         <v>3</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K148" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L148" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M148" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2833</v>
+        <v>194</v>
       </c>
       <c r="Q148" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>10857</v>
+        <v>13000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3619</v>
+        <v>4333</v>
       </c>
       <c r="Q149" t="n">
         <v>3</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K150" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L150" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M150" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>139</v>
+        <v>2833</v>
       </c>
       <c r="Q150" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K151" t="n">
         <v>10000</v>
       </c>
       <c r="L151" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M151" t="n">
-        <v>10250</v>
+        <v>10857</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3417</v>
+        <v>3619</v>
       </c>
       <c r="Q151" t="n">
         <v>3</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K152" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L152" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M152" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q152" t="n">
         <v>36</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M153" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q153" t="n">
         <v>3</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M154" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q154" t="n">
         <v>36</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K155" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M155" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q155" t="n">
         <v>3</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11592,13 +11592,13 @@
         <v>50</v>
       </c>
       <c r="K156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M156" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q156" t="n">
         <v>36</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11664,13 +11664,13 @@
         <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L157" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M157" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q157" t="n">
         <v>3</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q159" t="n">
         <v>3</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K160" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L160" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M160" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q160" t="n">
         <v>36</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K161" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L161" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>10250</v>
+        <v>12000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3417</v>
+        <v>4000</v>
       </c>
       <c r="Q161" t="n">
         <v>3</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K162" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L162" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M162" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q162" t="n">
         <v>36</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L163" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="M163" t="n">
-        <v>17508</v>
+        <v>10250</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5836</v>
+        <v>3417</v>
       </c>
       <c r="Q163" t="n">
         <v>3</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,20 +12165,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K164" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L164" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M164" t="n">
-        <v>9091</v>
+        <v>9000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3030</v>
+        <v>250</v>
       </c>
       <c r="Q164" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K165" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L165" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M165" t="n">
-        <v>10000</v>
+        <v>17508</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>278</v>
+        <v>5836</v>
       </c>
       <c r="Q165" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L166" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M166" t="n">
-        <v>14000</v>
+        <v>9091</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4667</v>
+        <v>3030</v>
       </c>
       <c r="Q166" t="n">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K167" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L167" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q167" t="n">
         <v>36</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12456,13 +12456,13 @@
         <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L168" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M168" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3667</v>
+        <v>4667</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,20 +12525,20 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K169" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M169" t="n">
-        <v>8941</v>
+        <v>6000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2980</v>
+        <v>167</v>
       </c>
       <c r="Q169" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K170" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L170" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M170" t="n">
-        <v>16364</v>
+        <v>11000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>5455</v>
+        <v>3667</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,20 +12669,20 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K171" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>7000</v>
+        <v>8941</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>194</v>
+        <v>2980</v>
       </c>
       <c r="Q171" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K172" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L172" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M172" t="n">
-        <v>10000</v>
+        <v>16364</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3333</v>
+        <v>5455</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12816,13 +12816,13 @@
         <v>50</v>
       </c>
       <c r="K173" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M173" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12888,13 +12888,13 @@
         <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L174" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M174" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3750</v>
+        <v>3333</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L175" t="n">
         <v>6000</v>
       </c>
       <c r="M175" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13032,13 +13032,13 @@
         <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L176" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M176" t="n">
-        <v>13500</v>
+        <v>11250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L177" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q177" t="n">
         <v>36</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L178" t="n">
         <v>14000</v>
       </c>
-      <c r="L178" t="n">
-        <v>15000</v>
-      </c>
       <c r="M178" t="n">
-        <v>14625</v>
+        <v>13500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4875</v>
+        <v>4500</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K179" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L179" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M179" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q179" t="n">
         <v>36</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K180" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L180" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>10500</v>
+        <v>14625</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3500</v>
+        <v>4875</v>
       </c>
       <c r="Q180" t="n">
         <v>3</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K181" t="n">
         <v>5000</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L182" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M182" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3167</v>
+        <v>3500</v>
       </c>
       <c r="Q182" t="n">
         <v>3</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K183" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L183" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M183" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q183" t="n">
         <v>36</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K184" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L184" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M184" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="Q184" t="n">
         <v>3</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K185" t="n">
         <v>8000</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13824,13 +13824,13 @@
         <v>50</v>
       </c>
       <c r="K187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M187" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q187" t="n">
         <v>36</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13896,13 +13896,13 @@
         <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M188" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q188" t="n">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K189" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L189" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M189" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q189" t="n">
         <v>36</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14040,13 +14040,13 @@
         <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L190" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3167</v>
+        <v>4833</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K191" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L191" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M191" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q191" t="n">
         <v>36</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L192" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M192" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5500</v>
+        <v>3167</v>
       </c>
       <c r="Q192" t="n">
         <v>3</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K193" t="n">
         <v>7000</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L194" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M194" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="Q194" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,20 +14397,20 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L195" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M195" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q195" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L196" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M196" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4167</v>
+        <v>4833</v>
       </c>
       <c r="Q196" t="n">
         <v>3</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L197" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M197" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>194</v>
+        <v>4167</v>
       </c>
       <c r="Q197" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M199" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q199" t="n">
         <v>36</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L200" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M200" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>4667</v>
+        <v>4167</v>
       </c>
       <c r="Q200" t="n">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K201" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L201" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M201" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q201" t="n">
         <v>36</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K202" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L202" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M202" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>4333</v>
+        <v>4667</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K203" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L203" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M203" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>4500</v>
+        <v>194</v>
       </c>
       <c r="Q203" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44202</v>
+        <v>44294</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L204" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M204" t="n">
-        <v>13067</v>
+        <v>13000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4356</v>
+        <v>4333</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L205" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M205" t="n">
-        <v>10368</v>
+        <v>13500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3456</v>
+        <v>4500</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K206" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L206" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M206" t="n">
-        <v>6000</v>
+        <v>13067</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>167</v>
+        <v>4356</v>
       </c>
       <c r="Q206" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K207" t="n">
         <v>10000</v>
       </c>
       <c r="L207" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="M207" t="n">
-        <v>10250</v>
+        <v>10368</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3417</v>
+        <v>3456</v>
       </c>
       <c r="Q207" t="n">
         <v>3</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15336,13 +15336,13 @@
         <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L208" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M208" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q208" t="n">
         <v>36</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15408,13 +15408,13 @@
         <v>160</v>
       </c>
       <c r="K209" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M209" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q209" t="n">
         <v>3</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,20 +15477,20 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K210" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L210" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M210" t="n">
-        <v>10800</v>
+        <v>7000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3600</v>
+        <v>194</v>
       </c>
       <c r="Q210" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,20 +15549,20 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L211" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M211" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>222</v>
+        <v>4333</v>
       </c>
       <c r="Q211" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K212" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L212" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M212" t="n">
-        <v>14500</v>
+        <v>10800</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>4833</v>
+        <v>3600</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M213" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q213" t="n">
         <v>36</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K214" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L214" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M214" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K215" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L215" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M215" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q215" t="n">
         <v>36</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,17 +15909,17 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L216" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M216" t="n">
         <v>12000</v>
       </c>
-      <c r="M216" t="n">
-        <v>10870</v>
-      </c>
       <c r="N216" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3623</v>
+        <v>4000</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15984,13 +15984,13 @@
         <v>50</v>
       </c>
       <c r="K217" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M217" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q217" t="n">
         <v>36</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K218" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
         <v>12000</v>
       </c>
       <c r="M218" t="n">
-        <v>11500</v>
+        <v>10870</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3833</v>
+        <v>3623</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K219" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L219" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M219" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K220" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L220" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M220" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>5000</v>
+        <v>3833</v>
       </c>
       <c r="Q220" t="n">
         <v>3</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,20 +16269,20 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K221" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L221" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M221" t="n">
-        <v>7000</v>
+        <v>12947</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>194</v>
+        <v>4316</v>
       </c>
       <c r="Q221" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K222" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L222" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M222" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K223" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M223" t="n">
-        <v>9667</v>
+        <v>7000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="Q223" t="n">
         <v>36</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K224" t="n">
         <v>12000</v>
       </c>
       <c r="L224" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M224" t="n">
-        <v>12333</v>
+        <v>12000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4111</v>
+        <v>4000</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K225" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L225" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M225" t="n">
-        <v>5000</v>
+        <v>9667</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="Q225" t="n">
         <v>36</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K226" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L226" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M226" t="n">
-        <v>10500</v>
+        <v>12333</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3500</v>
+        <v>4111</v>
       </c>
       <c r="Q226" t="n">
         <v>3</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L227" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M227" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q227" t="n">
         <v>36</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16776,13 +16776,13 @@
         <v>120</v>
       </c>
       <c r="K228" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L228" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M228" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q228" t="n">
         <v>3</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L230" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M230" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q231" t="n">
         <v>36</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M232" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>4500</v>
+        <v>3667</v>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K234" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L234" t="n">
         <v>14000</v>
       </c>
-      <c r="L234" t="n">
-        <v>15000</v>
-      </c>
       <c r="M234" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="Q234" t="n">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M235" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q235" t="n">
         <v>36</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M236" t="n">
-        <v>10625</v>
+        <v>14500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3542</v>
+        <v>4833</v>
       </c>
       <c r="Q236" t="n">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K237" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>10750</v>
+        <v>8000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3583</v>
+        <v>222</v>
       </c>
       <c r="Q237" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L238" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>6000</v>
+        <v>10625</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>167</v>
+        <v>3542</v>
       </c>
       <c r="Q238" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K239" t="n">
         <v>10000</v>
       </c>
       <c r="L239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M239" t="n">
-        <v>10500</v>
+        <v>10750</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3500</v>
+        <v>3583</v>
       </c>
       <c r="Q239" t="n">
         <v>3</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17640,13 +17640,13 @@
         <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M240" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q240" t="n">
         <v>36</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L241" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M241" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q242" t="n">
         <v>36</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17856,13 +17856,13 @@
         <v>160</v>
       </c>
       <c r="K243" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L243" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L244" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M244" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q244" t="n">
         <v>36</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L245" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M245" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K246" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M246" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q246" t="n">
         <v>36</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M247" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q247" t="n">
         <v>3</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L248" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M248" t="n">
-        <v>16412</v>
+        <v>7000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>5471</v>
+        <v>194</v>
       </c>
       <c r="Q248" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K249" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L249" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M249" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>153</v>
+        <v>4000</v>
       </c>
       <c r="Q249" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K250" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L250" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M250" t="n">
-        <v>10750</v>
+        <v>16412</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3583</v>
+        <v>5471</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K251" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L251" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M251" t="n">
-        <v>13091</v>
+        <v>5500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>4364</v>
+        <v>153</v>
       </c>
       <c r="Q251" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L252" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M252" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>194</v>
+        <v>3583</v>
       </c>
       <c r="Q252" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K253" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L253" t="n">
         <v>14000</v>
       </c>
       <c r="M253" t="n">
-        <v>13500</v>
+        <v>13091</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>4500</v>
+        <v>4364</v>
       </c>
       <c r="Q253" t="n">
         <v>3</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,20 +18645,20 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K254" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M254" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4667</v>
+        <v>194</v>
       </c>
       <c r="Q254" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18720,17 +18720,17 @@
         <v>70</v>
       </c>
       <c r="K255" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L255" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M255" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="Q255" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,13 +18792,13 @@
         <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L256" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M256" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3500</v>
+        <v>4667</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L257" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M257" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18936,13 +18936,13 @@
         <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L258" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M258" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4167</v>
+        <v>3500</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,20 +19005,20 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K259" t="n">
         <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M259" t="n">
-        <v>9130</v>
+        <v>8000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3043</v>
+        <v>222</v>
       </c>
       <c r="Q259" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19080,13 +19080,13 @@
         <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L260" t="n">
         <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K261" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L261" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M261" t="n">
-        <v>6000</v>
+        <v>9130</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>167</v>
+        <v>3043</v>
       </c>
       <c r="Q261" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L262" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19296,13 +19296,13 @@
         <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M264" t="n">
-        <v>9263</v>
+        <v>10500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3088</v>
+        <v>3500</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K266" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L266" t="n">
         <v>10000</v>
       </c>
-      <c r="L266" t="n">
-        <v>10500</v>
-      </c>
       <c r="M266" t="n">
-        <v>10250</v>
+        <v>9263</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3417</v>
+        <v>3088</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="K267" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L267" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M267" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q267" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K268" t="n">
         <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M268" t="n">
-        <v>10667</v>
+        <v>10250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3556</v>
+        <v>3417</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L269" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M269" t="n">
-        <v>6000</v>
+        <v>9091</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>167</v>
+        <v>3030</v>
       </c>
       <c r="Q269" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K270" t="n">
         <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M270" t="n">
-        <v>10500</v>
+        <v>10667</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3500</v>
+        <v>3556</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19872,13 +19872,13 @@
         <v>50</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q271" t="n">
         <v>36</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K272" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L272" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M272" t="n">
-        <v>9043</v>
+        <v>10500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,12 +19963,156 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3014</v>
+        <v>3500</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
       </c>
       <c r="R272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E273" t="n">
+        <v>13</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>50</v>
+      </c>
+      <c r="K273" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L273" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M273" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>36</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>230</v>
+      </c>
+      <c r="K274" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L274" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M274" t="n">
+        <v>9043</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>3014</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L67" t="n">
         <v>10000</v>
       </c>
       <c r="M67" t="n">
-        <v>8960</v>
+        <v>10000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2987</v>
+        <v>278</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5253,20 +5253,20 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K68" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L68" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M68" t="n">
-        <v>6000</v>
+        <v>20984</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>167</v>
+        <v>6995</v>
       </c>
       <c r="Q68" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K69" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L69" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M69" t="n">
-        <v>12500</v>
+        <v>8960</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4167</v>
+        <v>2987</v>
       </c>
       <c r="Q69" t="n">
         <v>3</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5400,13 +5400,13 @@
         <v>70</v>
       </c>
       <c r="K70" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L70" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M70" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q70" t="n">
         <v>36</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5472,13 +5472,13 @@
         <v>160</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q71" t="n">
         <v>3</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5544,17 +5544,17 @@
         <v>70</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L72" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M72" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4500</v>
+        <v>194</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K73" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>139</v>
+        <v>4833</v>
       </c>
       <c r="Q73" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K74" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q74" t="n">
         <v>3</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K75" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L75" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M75" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q75" t="n">
         <v>36</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5832,13 +5832,13 @@
         <v>160</v>
       </c>
       <c r="K76" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L76" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M76" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q76" t="n">
         <v>3</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L77" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M77" t="n">
-        <v>5250</v>
+        <v>7000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="Q77" t="n">
         <v>36</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K78" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M78" t="n">
-        <v>9750</v>
+        <v>13000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3250</v>
+        <v>4333</v>
       </c>
       <c r="Q78" t="n">
         <v>3</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K79" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L79" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M79" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q79" t="n">
         <v>36</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6120,13 +6120,13 @@
         <v>120</v>
       </c>
       <c r="K80" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L80" t="n">
         <v>10000</v>
       </c>
-      <c r="L80" t="n">
-        <v>11000</v>
-      </c>
       <c r="M80" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="Q80" t="n">
         <v>3</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,20 +6189,20 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M81" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3167</v>
+        <v>167</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K82" t="n">
         <v>10000</v>
       </c>
       <c r="L82" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M82" t="n">
-        <v>11250</v>
+        <v>10500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="Q82" t="n">
         <v>3</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,20 +6333,20 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L83" t="n">
         <v>10000</v>
       </c>
       <c r="M83" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>278</v>
+        <v>3167</v>
       </c>
       <c r="Q83" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L84" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M84" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q84" t="n">
         <v>3</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6552,13 +6552,13 @@
         <v>160</v>
       </c>
       <c r="K86" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
         <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4833</v>
+        <v>5000</v>
       </c>
       <c r="Q86" t="n">
         <v>3</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6624,13 +6624,13 @@
         <v>50</v>
       </c>
       <c r="K87" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L87" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M87" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q87" t="n">
         <v>36</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6696,13 +6696,13 @@
         <v>160</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L88" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4333</v>
+        <v>4833</v>
       </c>
       <c r="Q88" t="n">
         <v>3</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6768,13 +6768,13 @@
         <v>50</v>
       </c>
       <c r="K89" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L89" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M89" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q89" t="n">
         <v>36</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M90" t="n">
-        <v>10833</v>
+        <v>13000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3611</v>
+        <v>4333</v>
       </c>
       <c r="Q90" t="n">
         <v>3</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M91" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q91" t="n">
         <v>36</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K92" t="n">
         <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M92" t="n">
-        <v>10500</v>
+        <v>10833</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3500</v>
+        <v>3611</v>
       </c>
       <c r="Q92" t="n">
         <v>3</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K93" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L93" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M93" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Q93" t="n">
         <v>36</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K94" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="Q94" t="n">
         <v>3</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,20 +7197,20 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K95" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L95" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M95" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3167</v>
+        <v>153</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K96" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L96" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M96" t="n">
-        <v>6000</v>
+        <v>9750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>167</v>
+        <v>3250</v>
       </c>
       <c r="Q96" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K97" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L97" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M97" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="Q97" t="n">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7416,17 +7416,17 @@
         <v>70</v>
       </c>
       <c r="K98" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M98" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44204</v>
+        <v>44384</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K99" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M99" t="n">
-        <v>9333</v>
+        <v>14500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3111</v>
+        <v>4833</v>
       </c>
       <c r="Q99" t="n">
         <v>3</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44323</v>
+        <v>44242</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K100" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>194</v>
+        <v>4667</v>
       </c>
       <c r="Q100" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K101" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L101" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M101" t="n">
-        <v>11000</v>
+        <v>9333</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3667</v>
+        <v>3111</v>
       </c>
       <c r="Q101" t="n">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L102" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M102" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>5167</v>
+        <v>194</v>
       </c>
       <c r="Q102" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,20 +7773,20 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K103" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L103" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>139</v>
+        <v>3667</v>
       </c>
       <c r="Q103" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K104" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L104" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M104" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q104" t="n">
         <v>3</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K105" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L105" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M105" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q105" t="n">
         <v>36</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L106" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M106" t="n">
-        <v>8889</v>
+        <v>10250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2963</v>
+        <v>3417</v>
       </c>
       <c r="Q106" t="n">
         <v>3</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8064,13 +8064,13 @@
         <v>50</v>
       </c>
       <c r="K107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M107" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q107" t="n">
         <v>36</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K108" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L108" t="n">
         <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>9500</v>
+        <v>8889</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3167</v>
+        <v>2963</v>
       </c>
       <c r="Q108" t="n">
         <v>3</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K109" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L109" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M109" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q109" t="n">
         <v>36</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K110" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L110" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M110" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="Q110" t="n">
         <v>3</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,20 +8349,20 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K111" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M111" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q111" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8424,13 +8424,13 @@
         <v>160</v>
       </c>
       <c r="K112" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M112" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3667</v>
+        <v>4833</v>
       </c>
       <c r="Q112" t="n">
         <v>3</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44413</v>
+        <v>44258</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,20 +8493,20 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L113" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M113" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q113" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L114" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>22759</v>
+        <v>11000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>7586</v>
+        <v>3667</v>
       </c>
       <c r="Q114" t="n">
         <v>3</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,20 +8637,20 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K115" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L115" t="n">
         <v>10000</v>
       </c>
       <c r="M115" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3167</v>
+        <v>278</v>
       </c>
       <c r="Q115" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K116" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L116" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M116" t="n">
-        <v>9619</v>
+        <v>22759</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3206</v>
+        <v>7586</v>
       </c>
       <c r="Q116" t="n">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="K117" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L117" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M117" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>222</v>
+        <v>3167</v>
       </c>
       <c r="Q117" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K118" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L118" t="n">
         <v>10000</v>
       </c>
-      <c r="L118" t="n">
-        <v>12000</v>
-      </c>
       <c r="M118" t="n">
-        <v>11111</v>
+        <v>9619</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3704</v>
+        <v>3206</v>
       </c>
       <c r="Q118" t="n">
         <v>3</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K119" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L119" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M119" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q119" t="n">
         <v>36</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K120" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L120" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>15000</v>
+        <v>11111</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>5000</v>
+        <v>3704</v>
       </c>
       <c r="Q120" t="n">
         <v>3</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>5250</v>
+        <v>10000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="Q121" t="n">
         <v>36</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9144,13 +9144,13 @@
         <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L122" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M122" t="n">
-        <v>10250</v>
+        <v>15000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3417</v>
+        <v>5000</v>
       </c>
       <c r="Q122" t="n">
         <v>3</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9216,17 +9216,17 @@
         <v>70</v>
       </c>
       <c r="K123" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M123" t="n">
-        <v>12500</v>
+        <v>5250</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>4167</v>
+        <v>146</v>
       </c>
       <c r="Q123" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K124" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L124" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M124" t="n">
-        <v>6750</v>
+        <v>10250</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>188</v>
+        <v>3417</v>
       </c>
       <c r="Q124" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K125" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L125" t="n">
         <v>13000</v>
       </c>
-      <c r="L125" t="n">
-        <v>14000</v>
-      </c>
       <c r="M125" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q125" t="n">
         <v>3</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K126" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L126" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M126" t="n">
-        <v>9091</v>
+        <v>6750</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3030</v>
+        <v>188</v>
       </c>
       <c r="Q126" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M127" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q127" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K128" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M128" t="n">
-        <v>13500</v>
+        <v>9091</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4500</v>
+        <v>3030</v>
       </c>
       <c r="Q128" t="n">
         <v>3</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M129" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q129" t="n">
         <v>36</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K130" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L130" t="n">
         <v>14000</v>
       </c>
-      <c r="L130" t="n">
-        <v>15000</v>
-      </c>
       <c r="M130" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="Q130" t="n">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q131" t="n">
         <v>36</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K132" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M132" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q132" t="n">
         <v>3</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K133" t="n">
         <v>6000</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L134" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3333</v>
+        <v>4500</v>
       </c>
       <c r="Q134" t="n">
         <v>3</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10080,13 +10080,13 @@
         <v>50</v>
       </c>
       <c r="K135" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L135" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M135" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q135" t="n">
         <v>36</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K136" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L136" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M136" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>4667</v>
+        <v>3333</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K137" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L137" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M137" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q137" t="n">
         <v>36</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10296,13 +10296,13 @@
         <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>10250</v>
+        <v>14000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3417</v>
+        <v>4667</v>
       </c>
       <c r="Q138" t="n">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="K139" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L139" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M139" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3167</v>
+        <v>139</v>
       </c>
       <c r="Q139" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L140" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M140" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q140" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="K141" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L141" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>8385</v>
+        <v>9500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2795</v>
+        <v>3167</v>
       </c>
       <c r="Q141" t="n">
         <v>3</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M142" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q142" t="n">
         <v>36</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="K143" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L143" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M143" t="n">
-        <v>20990</v>
+        <v>8385</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>6997</v>
+        <v>2795</v>
       </c>
       <c r="Q143" t="n">
         <v>3</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K144" t="n">
         <v>10000</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K145" t="n">
         <v>20000</v>
@@ -10806,7 +10806,7 @@
         <v>22000</v>
       </c>
       <c r="M145" t="n">
-        <v>21241</v>
+        <v>20990</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>7080</v>
+        <v>6997</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10872,13 +10872,13 @@
         <v>52</v>
       </c>
       <c r="K146" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L146" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q146" t="n">
         <v>36</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K147" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L147" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M147" t="n">
-        <v>10500</v>
+        <v>21241</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3500</v>
+        <v>7080</v>
       </c>
       <c r="Q147" t="n">
         <v>3</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K148" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L148" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M148" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q148" t="n">
         <v>36</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M149" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q149" t="n">
         <v>3</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K150" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L150" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M150" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2833</v>
+        <v>194</v>
       </c>
       <c r="Q150" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44214</v>
+        <v>44300</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K151" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L151" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M151" t="n">
-        <v>10857</v>
+        <v>13000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3619</v>
+        <v>4333</v>
       </c>
       <c r="Q151" t="n">
         <v>3</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,20 +11301,20 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K152" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L152" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M152" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>139</v>
+        <v>2833</v>
       </c>
       <c r="Q152" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K153" t="n">
         <v>10000</v>
       </c>
       <c r="L153" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M153" t="n">
-        <v>10250</v>
+        <v>10857</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3417</v>
+        <v>3619</v>
       </c>
       <c r="Q153" t="n">
         <v>3</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K154" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L154" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M154" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q154" t="n">
         <v>36</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L155" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M155" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q155" t="n">
         <v>3</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K156" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M156" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q156" t="n">
         <v>36</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K157" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q157" t="n">
         <v>3</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11736,13 +11736,13 @@
         <v>50</v>
       </c>
       <c r="K158" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L158" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M158" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q158" t="n">
         <v>36</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11808,13 +11808,13 @@
         <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M159" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q159" t="n">
         <v>3</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M161" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q161" t="n">
         <v>3</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K162" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L162" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M162" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q162" t="n">
         <v>36</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K163" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L163" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M163" t="n">
-        <v>10250</v>
+        <v>12000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3417</v>
+        <v>4000</v>
       </c>
       <c r="Q163" t="n">
         <v>3</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K164" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L164" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M164" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q164" t="n">
         <v>36</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L165" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="M165" t="n">
-        <v>17508</v>
+        <v>10250</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>5836</v>
+        <v>3417</v>
       </c>
       <c r="Q165" t="n">
         <v>3</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,20 +12309,20 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="K166" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L166" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M166" t="n">
-        <v>9091</v>
+        <v>9000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3030</v>
+        <v>250</v>
       </c>
       <c r="Q166" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M167" t="n">
-        <v>10000</v>
+        <v>17508</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>278</v>
+        <v>5836</v>
       </c>
       <c r="Q167" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M168" t="n">
-        <v>14000</v>
+        <v>9091</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4667</v>
+        <v>3030</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K169" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q169" t="n">
         <v>36</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12600,13 +12600,13 @@
         <v>160</v>
       </c>
       <c r="K170" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M170" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3667</v>
+        <v>4667</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,20 +12669,20 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K171" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L171" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M171" t="n">
-        <v>8941</v>
+        <v>6000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2980</v>
+        <v>167</v>
       </c>
       <c r="Q171" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L172" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M172" t="n">
-        <v>16364</v>
+        <v>11000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>5455</v>
+        <v>3667</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K173" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L173" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M173" t="n">
-        <v>7000</v>
+        <v>8941</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>194</v>
+        <v>2980</v>
       </c>
       <c r="Q173" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K174" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L174" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M174" t="n">
-        <v>10000</v>
+        <v>16364</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3333</v>
+        <v>5455</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12960,13 +12960,13 @@
         <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L175" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M175" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13032,13 +13032,13 @@
         <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L176" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M176" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3750</v>
+        <v>3333</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L177" t="n">
         <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q177" t="n">
         <v>36</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13176,13 +13176,13 @@
         <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L178" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M178" t="n">
-        <v>13500</v>
+        <v>11250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K179" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L179" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M179" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q179" t="n">
         <v>36</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L180" t="n">
         <v>14000</v>
       </c>
-      <c r="L180" t="n">
-        <v>15000</v>
-      </c>
       <c r="M180" t="n">
-        <v>14625</v>
+        <v>13500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4875</v>
+        <v>4500</v>
       </c>
       <c r="Q180" t="n">
         <v>3</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K181" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L181" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M181" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q181" t="n">
         <v>36</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K182" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L182" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M182" t="n">
-        <v>10500</v>
+        <v>14625</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3500</v>
+        <v>4875</v>
       </c>
       <c r="Q182" t="n">
         <v>3</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K183" t="n">
         <v>5000</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K184" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L184" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M184" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3167</v>
+        <v>3500</v>
       </c>
       <c r="Q184" t="n">
         <v>3</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K185" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L185" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M185" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q185" t="n">
         <v>36</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M186" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K187" t="n">
         <v>8000</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K188" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M188" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q188" t="n">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13968,13 +13968,13 @@
         <v>50</v>
       </c>
       <c r="K189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M189" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q189" t="n">
         <v>36</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14040,13 +14040,13 @@
         <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M190" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K191" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L191" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M191" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q191" t="n">
         <v>36</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M192" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3167</v>
+        <v>4833</v>
       </c>
       <c r="Q192" t="n">
         <v>3</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K193" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L193" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M193" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q193" t="n">
         <v>36</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L194" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M194" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>5500</v>
+        <v>3167</v>
       </c>
       <c r="Q194" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K195" t="n">
         <v>7000</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L196" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M196" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="Q196" t="n">
         <v>3</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K197" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L197" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M197" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q197" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14616,13 +14616,13 @@
         <v>160</v>
       </c>
       <c r="K198" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L198" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M198" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4167</v>
+        <v>4833</v>
       </c>
       <c r="Q198" t="n">
         <v>3</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,20 +14685,20 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L199" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M199" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>194</v>
+        <v>4167</v>
       </c>
       <c r="Q199" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q201" t="n">
         <v>36</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L202" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M202" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>4667</v>
+        <v>4167</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K203" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L203" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M203" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q203" t="n">
         <v>36</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L204" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M204" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4333</v>
+        <v>4667</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,20 +15117,20 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K205" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L205" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M205" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>4500</v>
+        <v>194</v>
       </c>
       <c r="Q205" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44202</v>
+        <v>44294</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L206" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M206" t="n">
-        <v>13067</v>
+        <v>13000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4356</v>
+        <v>4333</v>
       </c>
       <c r="Q206" t="n">
         <v>3</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L207" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M207" t="n">
-        <v>10368</v>
+        <v>13500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3456</v>
+        <v>4500</v>
       </c>
       <c r="Q207" t="n">
         <v>3</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,20 +15333,20 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K208" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M208" t="n">
-        <v>6000</v>
+        <v>13067</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>167</v>
+        <v>4356</v>
       </c>
       <c r="Q208" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K209" t="n">
         <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="M209" t="n">
-        <v>10250</v>
+        <v>10368</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3417</v>
+        <v>3456</v>
       </c>
       <c r="Q209" t="n">
         <v>3</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15480,13 +15480,13 @@
         <v>70</v>
       </c>
       <c r="K210" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M210" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q210" t="n">
         <v>36</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15552,13 +15552,13 @@
         <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L211" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M211" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q211" t="n">
         <v>3</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,20 +15621,20 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K212" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L212" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M212" t="n">
-        <v>10800</v>
+        <v>7000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3600</v>
+        <v>194</v>
       </c>
       <c r="Q212" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,20 +15693,20 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K213" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L213" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M213" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>222</v>
+        <v>4333</v>
       </c>
       <c r="Q213" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K214" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L214" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M214" t="n">
-        <v>14500</v>
+        <v>10800</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>4833</v>
+        <v>3600</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M215" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q215" t="n">
         <v>36</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L216" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M216" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K217" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L217" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M217" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q217" t="n">
         <v>36</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,17 +16053,17 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L218" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M218" t="n">
         <v>12000</v>
       </c>
-      <c r="M218" t="n">
-        <v>10870</v>
-      </c>
       <c r="N218" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3623</v>
+        <v>4000</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16128,13 +16128,13 @@
         <v>50</v>
       </c>
       <c r="K219" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L219" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M219" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q219" t="n">
         <v>36</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K220" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L220" t="n">
         <v>12000</v>
       </c>
       <c r="M220" t="n">
-        <v>11500</v>
+        <v>10870</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>3833</v>
+        <v>3623</v>
       </c>
       <c r="Q220" t="n">
         <v>3</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,20 +16269,20 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K221" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L221" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M221" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q221" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K222" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M222" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>5000</v>
+        <v>3833</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K223" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M223" t="n">
-        <v>7000</v>
+        <v>12947</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>194</v>
+        <v>4316</v>
       </c>
       <c r="Q223" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K224" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L224" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M224" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K225" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>9667</v>
+        <v>7000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="Q225" t="n">
         <v>36</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K226" t="n">
         <v>12000</v>
       </c>
       <c r="L226" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M226" t="n">
-        <v>12333</v>
+        <v>12000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>4111</v>
+        <v>4000</v>
       </c>
       <c r="Q226" t="n">
         <v>3</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K227" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L227" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>5000</v>
+        <v>9667</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="Q227" t="n">
         <v>36</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K228" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L228" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M228" t="n">
-        <v>10500</v>
+        <v>12333</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3500</v>
+        <v>4111</v>
       </c>
       <c r="Q228" t="n">
         <v>3</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K229" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L229" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M229" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q229" t="n">
         <v>36</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,13 +16920,13 @@
         <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M230" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K232" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M232" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L233" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M233" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q233" t="n">
         <v>36</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K234" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L234" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>4500</v>
+        <v>3667</v>
       </c>
       <c r="Q234" t="n">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L236" t="n">
         <v>14000</v>
       </c>
-      <c r="L236" t="n">
-        <v>15000</v>
-      </c>
       <c r="M236" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="Q236" t="n">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M237" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q237" t="n">
         <v>36</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L238" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M238" t="n">
-        <v>10625</v>
+        <v>14500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3542</v>
+        <v>4833</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,20 +17565,20 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L239" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>10750</v>
+        <v>8000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>3583</v>
+        <v>222</v>
       </c>
       <c r="Q239" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,20 +17637,20 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M240" t="n">
-        <v>6000</v>
+        <v>10625</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>167</v>
+        <v>3542</v>
       </c>
       <c r="Q240" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K241" t="n">
         <v>10000</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M241" t="n">
-        <v>10500</v>
+        <v>10750</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3500</v>
+        <v>3583</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17784,13 +17784,13 @@
         <v>70</v>
       </c>
       <c r="K242" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L242" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M242" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q242" t="n">
         <v>36</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K243" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K244" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L244" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M244" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q244" t="n">
         <v>36</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -18000,13 +18000,13 @@
         <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L245" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M245" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K246" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L246" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M246" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q246" t="n">
         <v>36</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L247" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M247" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q247" t="n">
         <v>3</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M248" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q248" t="n">
         <v>36</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K249" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L249" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M249" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q249" t="n">
         <v>3</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,20 +18357,20 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K250" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L250" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M250" t="n">
-        <v>16412</v>
+        <v>7000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>5471</v>
+        <v>194</v>
       </c>
       <c r="Q250" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K251" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M251" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>153</v>
+        <v>4000</v>
       </c>
       <c r="Q251" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K252" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L252" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M252" t="n">
-        <v>10750</v>
+        <v>16412</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3583</v>
+        <v>5471</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,20 +18573,20 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L253" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M253" t="n">
-        <v>13091</v>
+        <v>5500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>4364</v>
+        <v>153</v>
       </c>
       <c r="Q253" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,20 +18645,20 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L254" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>194</v>
+        <v>3583</v>
       </c>
       <c r="Q254" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K255" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L255" t="n">
         <v>14000</v>
       </c>
       <c r="M255" t="n">
-        <v>13500</v>
+        <v>13091</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4500</v>
+        <v>4364</v>
       </c>
       <c r="Q255" t="n">
         <v>3</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,20 +18789,20 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K256" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L256" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M256" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4667</v>
+        <v>194</v>
       </c>
       <c r="Q256" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18864,17 +18864,17 @@
         <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M257" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="Q257" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18936,13 +18936,13 @@
         <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L258" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M258" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3500</v>
+        <v>4667</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K259" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L259" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M259" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19080,13 +19080,13 @@
         <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M260" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4167</v>
+        <v>3500</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K261" t="n">
         <v>8000</v>
       </c>
       <c r="L261" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M261" t="n">
-        <v>9130</v>
+        <v>8000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3043</v>
+        <v>222</v>
       </c>
       <c r="Q261" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19224,13 +19224,13 @@
         <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
         <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K263" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M263" t="n">
-        <v>6000</v>
+        <v>9130</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>167</v>
+        <v>3043</v>
       </c>
       <c r="Q263" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L264" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M264" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,13 +19440,13 @@
         <v>50</v>
       </c>
       <c r="K265" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L265" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M265" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>9263</v>
+        <v>10500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3088</v>
+        <v>3500</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K267" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L267" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M267" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q267" t="n">
         <v>36</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L268" t="n">
         <v>10000</v>
       </c>
-      <c r="L268" t="n">
-        <v>10500</v>
-      </c>
       <c r="M268" t="n">
-        <v>10250</v>
+        <v>9263</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3417</v>
+        <v>3088</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="K269" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q269" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K270" t="n">
         <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M270" t="n">
-        <v>10667</v>
+        <v>10250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3556</v>
+        <v>3417</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K271" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L271" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M271" t="n">
-        <v>6000</v>
+        <v>9091</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>167</v>
+        <v>3030</v>
       </c>
       <c r="Q271" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K272" t="n">
         <v>10000</v>
       </c>
       <c r="L272" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M272" t="n">
-        <v>10500</v>
+        <v>10667</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3500</v>
+        <v>3556</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20016,13 +20016,13 @@
         <v>50</v>
       </c>
       <c r="K273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q273" t="n">
         <v>36</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K274" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L274" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M274" t="n">
-        <v>9043</v>
+        <v>10500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,12 +20107,156 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3014</v>
+        <v>3500</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
       </c>
       <c r="R274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>9</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E275" t="n">
+        <v>13</v>
+      </c>
+      <c r="F275" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>50</v>
+      </c>
+      <c r="K275" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L275" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M275" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>36</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>9</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E276" t="n">
+        <v>13</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>230</v>
+      </c>
+      <c r="K276" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L276" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M276" t="n">
+        <v>9043</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>3014</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>3</v>
+      </c>
+      <c r="R276" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R293"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K84" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L84" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M84" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="Q84" t="n">
         <v>36</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K85" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L85" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M85" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3500</v>
+        <v>5167</v>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,20 +6549,20 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K86" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M86" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3167</v>
+        <v>167</v>
       </c>
       <c r="Q86" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K87" t="n">
         <v>10000</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M87" t="n">
-        <v>11250</v>
+        <v>10500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="Q87" t="n">
         <v>3</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,20 +6693,20 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K88" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L88" t="n">
         <v>10000</v>
       </c>
       <c r="M88" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>278</v>
+        <v>3167</v>
       </c>
       <c r="Q88" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K89" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L89" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M89" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q89" t="n">
         <v>3</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6912,13 +6912,13 @@
         <v>160</v>
       </c>
       <c r="K91" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L91" t="n">
         <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4833</v>
+        <v>5000</v>
       </c>
       <c r="Q91" t="n">
         <v>3</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6984,13 +6984,13 @@
         <v>50</v>
       </c>
       <c r="K92" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M92" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q92" t="n">
         <v>36</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7056,13 +7056,13 @@
         <v>160</v>
       </c>
       <c r="K93" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L93" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M93" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4333</v>
+        <v>4833</v>
       </c>
       <c r="Q93" t="n">
         <v>3</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7128,13 +7128,13 @@
         <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L94" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M94" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q94" t="n">
         <v>36</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L95" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M95" t="n">
-        <v>10833</v>
+        <v>13000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3611</v>
+        <v>4333</v>
       </c>
       <c r="Q95" t="n">
         <v>3</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K96" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L96" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M96" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q96" t="n">
         <v>36</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K97" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L97" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M97" t="n">
-        <v>10500</v>
+        <v>17000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3500</v>
+        <v>5667</v>
       </c>
       <c r="Q97" t="n">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K98" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L98" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M98" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="Q98" t="n">
         <v>36</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K99" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L99" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M99" t="n">
-        <v>9750</v>
+        <v>10833</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3250</v>
+        <v>3611</v>
       </c>
       <c r="Q99" t="n">
         <v>3</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="K100" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L100" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M100" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3167</v>
+        <v>167</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K101" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L101" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M101" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>167</v>
+        <v>3500</v>
       </c>
       <c r="Q101" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K102" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L102" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M102" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4833</v>
+        <v>153</v>
       </c>
       <c r="Q102" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L103" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M103" t="n">
-        <v>14000</v>
+        <v>9750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4667</v>
+        <v>3250</v>
       </c>
       <c r="Q103" t="n">
         <v>3</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44204</v>
+        <v>44175</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K104" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L104" t="n">
         <v>10000</v>
       </c>
       <c r="M104" t="n">
-        <v>9333</v>
+        <v>9500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3111</v>
+        <v>3167</v>
       </c>
       <c r="Q104" t="n">
         <v>3</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K105" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L105" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M105" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q105" t="n">
         <v>36</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7992,13 +7992,13 @@
         <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L106" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M106" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3667</v>
+        <v>4833</v>
       </c>
       <c r="Q106" t="n">
         <v>3</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44200</v>
+        <v>44242</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8064,13 +8064,13 @@
         <v>70</v>
       </c>
       <c r="K107" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L107" t="n">
         <v>15000</v>
       </c>
-      <c r="L107" t="n">
-        <v>16000</v>
-      </c>
       <c r="M107" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>5167</v>
+        <v>4667</v>
       </c>
       <c r="Q107" t="n">
         <v>3</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K108" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L108" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>5000</v>
+        <v>9333</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>139</v>
+        <v>3111</v>
       </c>
       <c r="Q108" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,20 +8205,20 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K109" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L109" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="M109" t="n">
-        <v>10250</v>
+        <v>7000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3417</v>
+        <v>194</v>
       </c>
       <c r="Q109" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44216</v>
+        <v>44323</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K110" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L110" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M110" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>194</v>
+        <v>3667</v>
       </c>
       <c r="Q110" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K111" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L111" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M111" t="n">
-        <v>8889</v>
+        <v>15500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2963</v>
+        <v>5167</v>
       </c>
       <c r="Q111" t="n">
         <v>3</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K112" t="n">
         <v>5000</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L113" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M113" t="n">
-        <v>9500</v>
+        <v>10250</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3167</v>
+        <v>3417</v>
       </c>
       <c r="Q113" t="n">
         <v>3</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K114" t="n">
         <v>7000</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K115" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M115" t="n">
-        <v>14500</v>
+        <v>8889</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4833</v>
+        <v>2963</v>
       </c>
       <c r="Q115" t="n">
         <v>3</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,20 +8709,20 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K116" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L116" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M116" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4167</v>
+        <v>139</v>
       </c>
       <c r="Q116" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44243</v>
+        <v>44349</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K117" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L117" t="n">
         <v>10000</v>
       </c>
-      <c r="L117" t="n">
-        <v>12000</v>
-      </c>
       <c r="M117" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3667</v>
+        <v>3167</v>
       </c>
       <c r="Q117" t="n">
         <v>3</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K118" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L118" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M118" t="n">
-        <v>9512</v>
+        <v>7000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="Q118" t="n">
         <v>36</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K119" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>18987</v>
+        <v>14500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>6329</v>
+        <v>4833</v>
       </c>
       <c r="Q119" t="n">
         <v>3</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44413</v>
+        <v>44258</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,20 +8997,20 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M120" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q120" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K121" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M121" t="n">
-        <v>22759</v>
+        <v>11000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>7586</v>
+        <v>3667</v>
       </c>
       <c r="Q121" t="n">
         <v>3</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K122" t="n">
         <v>9000</v>
@@ -9150,11 +9150,11 @@
         <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>9500</v>
+        <v>9512</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3167</v>
+        <v>264</v>
       </c>
       <c r="Q122" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,20 +9213,20 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K123" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L123" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M123" t="n">
-        <v>9488</v>
+        <v>18987</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>264</v>
+        <v>6329</v>
       </c>
       <c r="Q123" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="K124" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L124" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M124" t="n">
-        <v>21013</v>
+        <v>10000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>7004</v>
+        <v>278</v>
       </c>
       <c r="Q124" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K125" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L125" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M125" t="n">
-        <v>9619</v>
+        <v>22759</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3206</v>
+        <v>7586</v>
       </c>
       <c r="Q125" t="n">
         <v>3</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,20 +9429,20 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="K126" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L126" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M126" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>222</v>
+        <v>3167</v>
       </c>
       <c r="Q126" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44237</v>
+        <v>44421</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,20 +9501,20 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="K127" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L127" t="n">
         <v>10000</v>
       </c>
-      <c r="L127" t="n">
-        <v>12000</v>
-      </c>
       <c r="M127" t="n">
-        <v>11111</v>
+        <v>9488</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3704</v>
+        <v>264</v>
       </c>
       <c r="Q127" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,20 +9573,20 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K128" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M128" t="n">
-        <v>10000</v>
+        <v>21013</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>278</v>
+        <v>7004</v>
       </c>
       <c r="Q128" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K129" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L129" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M129" t="n">
-        <v>15000</v>
+        <v>9619</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>5000</v>
+        <v>3206</v>
       </c>
       <c r="Q129" t="n">
         <v>3</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K130" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L130" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M130" t="n">
-        <v>5250</v>
+        <v>8000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="Q130" t="n">
         <v>36</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K131" t="n">
         <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M131" t="n">
-        <v>10250</v>
+        <v>11111</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3417</v>
+        <v>3704</v>
       </c>
       <c r="Q131" t="n">
         <v>3</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K132" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M132" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,20 +9933,20 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L133" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M133" t="n">
-        <v>6750</v>
+        <v>15000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>188</v>
+        <v>5000</v>
       </c>
       <c r="Q133" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K134" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M134" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4500</v>
+        <v>146</v>
       </c>
       <c r="Q134" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L135" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="M135" t="n">
-        <v>9000</v>
+        <v>10250</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>250</v>
+        <v>3417</v>
       </c>
       <c r="Q135" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44426</v>
+        <v>44257</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K136" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L136" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M136" t="n">
-        <v>17495</v>
+        <v>12500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>5832</v>
+        <v>4167</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,20 +10221,20 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K137" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M137" t="n">
-        <v>9091</v>
+        <v>6750</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3030</v>
+        <v>188</v>
       </c>
       <c r="Q137" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L138" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q138" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44295</v>
+        <v>44426</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K139" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M139" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4500</v>
+        <v>250</v>
       </c>
       <c r="Q139" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44194</v>
+        <v>44426</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="K140" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L140" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M140" t="n">
-        <v>9000</v>
+        <v>17495</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>250</v>
+        <v>5832</v>
       </c>
       <c r="Q140" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>9091</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4833</v>
+        <v>3030</v>
       </c>
       <c r="Q141" t="n">
         <v>3</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K142" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L142" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M142" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q142" t="n">
         <v>36</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K144" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M144" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q144" t="n">
         <v>36</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L145" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M145" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K146" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L146" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M146" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q146" t="n">
         <v>36</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10944,13 +10944,13 @@
         <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L147" t="n">
         <v>14000</v>
       </c>
       <c r="M147" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4667</v>
+        <v>4500</v>
       </c>
       <c r="Q147" t="n">
         <v>3</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K148" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L148" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M148" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q148" t="n">
         <v>36</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K149" t="n">
         <v>10000</v>
       </c>
       <c r="L149" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="M149" t="n">
-        <v>10250</v>
+        <v>10000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3417</v>
+        <v>3333</v>
       </c>
       <c r="Q149" t="n">
         <v>3</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K150" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L150" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M150" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3167</v>
+        <v>222</v>
       </c>
       <c r="Q150" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44169</v>
+        <v>44298</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,20 +11229,20 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K151" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L151" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M151" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>194</v>
+        <v>4667</v>
       </c>
       <c r="Q151" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,20 +11301,20 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="K152" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L152" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M152" t="n">
-        <v>8385</v>
+        <v>5000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2795</v>
+        <v>139</v>
       </c>
       <c r="Q152" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,20 +11373,20 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
         <v>10000</v>
       </c>
       <c r="L153" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M153" t="n">
-        <v>10000</v>
+        <v>10250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>278</v>
+        <v>3417</v>
       </c>
       <c r="Q153" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44410</v>
+        <v>44354</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L154" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M154" t="n">
-        <v>20990</v>
+        <v>9500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>6997</v>
+        <v>3167</v>
       </c>
       <c r="Q154" t="n">
         <v>3</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M155" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q155" t="n">
         <v>36</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="K156" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L156" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M156" t="n">
-        <v>21241</v>
+        <v>8385</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>7080</v>
+        <v>2795</v>
       </c>
       <c r="Q156" t="n">
         <v>3</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K157" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L157" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M157" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q157" t="n">
         <v>36</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K158" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L158" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M158" t="n">
-        <v>10500</v>
+        <v>20990</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3500</v>
+        <v>6997</v>
       </c>
       <c r="Q158" t="n">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q159" t="n">
         <v>36</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K160" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L160" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M160" t="n">
-        <v>13000</v>
+        <v>21241</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4333</v>
+        <v>7080</v>
       </c>
       <c r="Q160" t="n">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K161" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L161" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M161" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2833</v>
+        <v>167</v>
       </c>
       <c r="Q161" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K162" t="n">
         <v>10000</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M162" t="n">
-        <v>10857</v>
+        <v>10500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3619</v>
+        <v>3500</v>
       </c>
       <c r="Q162" t="n">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12096,13 +12096,13 @@
         <v>70</v>
       </c>
       <c r="K163" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L163" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M163" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q163" t="n">
         <v>36</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12168,13 +12168,13 @@
         <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L164" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M164" t="n">
-        <v>10250</v>
+        <v>13000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3417</v>
+        <v>4333</v>
       </c>
       <c r="Q164" t="n">
         <v>3</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44238</v>
+        <v>44172</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K165" t="n">
         <v>8000</v>
       </c>
       <c r="L165" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M165" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>222</v>
+        <v>2833</v>
       </c>
       <c r="Q165" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12312,13 +12312,13 @@
         <v>70</v>
       </c>
       <c r="K166" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L166" t="n">
         <v>12000</v>
       </c>
-      <c r="L166" t="n">
-        <v>13000</v>
-      </c>
       <c r="M166" t="n">
-        <v>12500</v>
+        <v>10857</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4167</v>
+        <v>3619</v>
       </c>
       <c r="Q166" t="n">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M167" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="Q167" t="n">
         <v>36</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12456,13 +12456,13 @@
         <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M168" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4833</v>
+        <v>3417</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M169" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q169" t="n">
         <v>36</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L170" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M170" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3333</v>
+        <v>4167</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12672,13 +12672,13 @@
         <v>50</v>
       </c>
       <c r="K171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q171" t="n">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K173" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M173" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12891,10 +12891,10 @@
         <v>10000</v>
       </c>
       <c r="L174" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="M174" t="n">
-        <v>10250</v>
+        <v>10000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3417</v>
+        <v>3333</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="K176" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L176" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>17508</v>
+        <v>12000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>5836</v>
+        <v>4000</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,20 +13101,20 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44260</v>
+        <v>44364</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
         <v>10000</v>
       </c>
       <c r="L178" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M178" t="n">
-        <v>10000</v>
+        <v>10250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>278</v>
+        <v>3417</v>
       </c>
       <c r="Q178" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>14000</v>
+        <v>8810</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4667</v>
+        <v>245</v>
       </c>
       <c r="Q179" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="K180" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L180" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="M180" t="n">
-        <v>6000</v>
+        <v>18393</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>167</v>
+        <v>6131</v>
       </c>
       <c r="Q180" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44327</v>
+        <v>44431</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K181" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L181" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M181" t="n">
-        <v>11000</v>
+        <v>23013</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3667</v>
+        <v>7671</v>
       </c>
       <c r="Q181" t="n">
         <v>3</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,20 +13461,20 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="K182" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L182" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M182" t="n">
-        <v>8941</v>
+        <v>9000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2980</v>
+        <v>250</v>
       </c>
       <c r="Q182" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="K183" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L183" t="n">
         <v>18000</v>
       </c>
       <c r="M183" t="n">
-        <v>16364</v>
+        <v>17508</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>5455</v>
+        <v>5836</v>
       </c>
       <c r="Q183" t="n">
         <v>3</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44313</v>
+        <v>44224</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,20 +13605,20 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K184" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L184" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M184" t="n">
-        <v>7000</v>
+        <v>9091</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>194</v>
+        <v>3030</v>
       </c>
       <c r="Q184" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44313</v>
+        <v>44260</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
         <v>10000</v>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3333</v>
+        <v>278</v>
       </c>
       <c r="Q185" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M186" t="n">
-        <v>5750</v>
+        <v>14000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>160</v>
+        <v>4667</v>
       </c>
       <c r="Q186" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K187" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L187" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="M187" t="n">
-        <v>11250</v>
+        <v>6000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3750</v>
+        <v>167</v>
       </c>
       <c r="Q187" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L188" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M188" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>167</v>
+        <v>3667</v>
       </c>
       <c r="Q188" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K189" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M189" t="n">
-        <v>13500</v>
+        <v>8941</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4500</v>
+        <v>2980</v>
       </c>
       <c r="Q189" t="n">
         <v>3</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,20 +14037,20 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="K190" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M190" t="n">
-        <v>9000</v>
+        <v>16364</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -14059,10 +14059,10 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>250</v>
+        <v>5455</v>
       </c>
       <c r="Q190" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44193</v>
+        <v>44313</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K191" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L191" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M191" t="n">
-        <v>14625</v>
+        <v>7000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4875</v>
+        <v>194</v>
       </c>
       <c r="Q191" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,20 +14181,20 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L192" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M192" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -14203,10 +14203,10 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>139</v>
+        <v>3333</v>
       </c>
       <c r="Q192" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,32 +14253,32 @@
         </is>
       </c>
       <c r="J193" t="n">
+        <v>50</v>
+      </c>
+      <c r="K193" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L193" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M193" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
         <v>160</v>
       </c>
-      <c r="K193" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L193" t="n">
-        <v>11000</v>
-      </c>
-      <c r="M193" t="n">
-        <v>10500</v>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>$/docena de atados</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P193" t="n">
-        <v>3500</v>
-      </c>
       <c r="Q193" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,20 +14325,20 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L194" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="M194" t="n">
-        <v>5000</v>
+        <v>11250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,10 +14347,10 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>139</v>
+        <v>3750</v>
       </c>
       <c r="Q194" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,20 +14397,20 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L195" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M195" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3167</v>
+        <v>167</v>
       </c>
       <c r="Q195" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44196</v>
+        <v>44391</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,20 +14469,20 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M196" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>222</v>
+        <v>4500</v>
       </c>
       <c r="Q196" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K197" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L197" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M197" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4833</v>
+        <v>250</v>
       </c>
       <c r="Q197" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44315</v>
+        <v>44193</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,20 +14613,20 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M198" t="n">
-        <v>8000</v>
+        <v>14625</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -14635,10 +14635,10 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>222</v>
+        <v>4875</v>
       </c>
       <c r="Q198" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,20 +14685,20 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M199" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4000</v>
+        <v>139</v>
       </c>
       <c r="Q199" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,20 +14757,20 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
         <v>10000</v>
       </c>
       <c r="L200" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M200" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q200" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K201" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L201" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M201" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4833</v>
+        <v>139</v>
       </c>
       <c r="Q201" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,20 +14901,20 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K202" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L202" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M202" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>139</v>
+        <v>3167</v>
       </c>
       <c r="Q202" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K203" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L203" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M203" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3167</v>
+        <v>222</v>
       </c>
       <c r="Q203" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44389</v>
+        <v>44196</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L204" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M204" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>194</v>
+        <v>4833</v>
       </c>
       <c r="Q204" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,20 +15117,20 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K205" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L205" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M205" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -15139,10 +15139,10 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>5500</v>
+        <v>222</v>
       </c>
       <c r="Q205" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R205" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L206" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M206" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>194</v>
+        <v>4000</v>
       </c>
       <c r="Q206" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44399</v>
+        <v>44278</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,20 +15261,20 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K207" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L207" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M207" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4833</v>
+        <v>278</v>
       </c>
       <c r="Q207" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44251</v>
+        <v>44278</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15336,13 +15336,13 @@
         <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L208" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M208" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4167</v>
+        <v>4833</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,20 +15405,20 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K209" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L209" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M209" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4167</v>
+        <v>139</v>
       </c>
       <c r="Q209" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,20 +15477,20 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L210" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M210" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>194</v>
+        <v>3167</v>
       </c>
       <c r="Q210" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,20 +15549,20 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K211" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L211" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M211" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q211" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15617,24 +15617,24 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M212" t="n">
-        <v>4000</v>
+        <v>16500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>111</v>
+        <v>5500</v>
       </c>
       <c r="Q212" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15696,17 +15696,17 @@
         <v>70</v>
       </c>
       <c r="K213" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L213" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M213" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>4667</v>
+        <v>194</v>
       </c>
       <c r="Q213" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44294</v>
+        <v>44399</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,20 +15765,20 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K214" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M214" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>194</v>
+        <v>4833</v>
       </c>
       <c r="Q214" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15840,13 +15840,13 @@
         <v>160</v>
       </c>
       <c r="K215" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L215" t="n">
         <v>13000</v>
       </c>
       <c r="M215" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>4333</v>
+        <v>4167</v>
       </c>
       <c r="Q215" t="n">
         <v>3</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44417</v>
+        <v>44250</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,20 +15909,20 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
         <v>12000</v>
       </c>
       <c r="L216" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M216" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>333</v>
+        <v>4167</v>
       </c>
       <c r="Q216" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,20 +15981,20 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K217" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="L217" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>22987</v>
+        <v>7000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>7662</v>
+        <v>194</v>
       </c>
       <c r="Q217" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44419</v>
+        <v>44292</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L218" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M218" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q218" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44419</v>
+        <v>44292</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,24 +16121,24 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K219" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L219" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="M219" t="n">
-        <v>21013</v>
+        <v>4000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>7004</v>
+        <v>111</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44420</v>
+        <v>44305</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,20 +16197,20 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K220" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M220" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>278</v>
+        <v>4667</v>
       </c>
       <c r="Q220" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,20 +16269,20 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K221" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L221" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="M221" t="n">
-        <v>21013</v>
+        <v>7000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>7004</v>
+        <v>194</v>
       </c>
       <c r="Q221" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16347,10 +16347,10 @@
         <v>13000</v>
       </c>
       <c r="L222" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>4500</v>
+        <v>4333</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44202</v>
+        <v>44417</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K223" t="n">
         <v>12000</v>
       </c>
       <c r="L223" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M223" t="n">
-        <v>13067</v>
+        <v>12000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>4356</v>
+        <v>333</v>
       </c>
       <c r="Q223" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44181</v>
+        <v>44417</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="K224" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M224" t="n">
-        <v>10368</v>
+        <v>22987</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3456</v>
+        <v>7662</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44369</v>
+        <v>44419</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K225" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L225" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M225" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q225" t="n">
         <v>36</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44369</v>
+        <v>44419</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K226" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L226" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="M226" t="n">
-        <v>10250</v>
+        <v>21013</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3417</v>
+        <v>7004</v>
       </c>
       <c r="Q226" t="n">
         <v>3</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K227" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L227" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q227" t="n">
         <v>36</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44307</v>
+        <v>44420</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K228" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L228" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M228" t="n">
-        <v>13000</v>
+        <v>21013</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4333</v>
+        <v>7004</v>
       </c>
       <c r="Q228" t="n">
         <v>3</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44161</v>
+        <v>44245</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L229" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M229" t="n">
-        <v>10800</v>
+        <v>13500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="Q229" t="n">
         <v>3</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44195</v>
+        <v>44202</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K230" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M230" t="n">
-        <v>8000</v>
+        <v>13067</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>222</v>
+        <v>4356</v>
       </c>
       <c r="Q230" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K231" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>14500</v>
+        <v>10368</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>4833</v>
+        <v>3456</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17064,13 +17064,13 @@
         <v>70</v>
       </c>
       <c r="K232" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L232" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M232" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q232" t="n">
         <v>36</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17136,13 +17136,13 @@
         <v>160</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M233" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q234" t="n">
         <v>36</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L235" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M235" t="n">
-        <v>10870</v>
+        <v>13000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>3623</v>
+        <v>4333</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44333</v>
+        <v>44161</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,20 +17349,20 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K236" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M236" t="n">
-        <v>6000</v>
+        <v>10800</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>167</v>
+        <v>3600</v>
       </c>
       <c r="Q236" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K237" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L237" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3833</v>
+        <v>222</v>
       </c>
       <c r="Q237" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L238" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M238" t="n">
-        <v>12947</v>
+        <v>14500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>4316</v>
+        <v>4833</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44277</v>
+        <v>44265</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17568,17 +17568,17 @@
         <v>70</v>
       </c>
       <c r="K239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>5000</v>
+        <v>278</v>
       </c>
       <c r="Q239" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,20 +17637,20 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M240" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>194</v>
+        <v>4000</v>
       </c>
       <c r="Q240" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,20 +17709,20 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L241" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M241" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4000</v>
+        <v>222</v>
       </c>
       <c r="Q241" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44188</v>
+        <v>44159</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,32 +17781,32 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K242" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M242" t="n">
-        <v>9667</v>
+        <v>10870</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>269</v>
+        <v>3623</v>
       </c>
       <c r="Q242" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44188</v>
+        <v>44333</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,20 +17853,20 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L243" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M243" t="n">
-        <v>12333</v>
+        <v>6000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4111</v>
+        <v>167</v>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,20 +17925,20 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K244" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L244" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M244" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>139</v>
+        <v>3833</v>
       </c>
       <c r="Q244" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L245" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M245" t="n">
-        <v>10500</v>
+        <v>12947</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>3500</v>
+        <v>4316</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44319</v>
+        <v>44277</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,20 +18069,20 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M246" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>194</v>
+        <v>5000</v>
       </c>
       <c r="Q246" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K247" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L247" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M247" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4000</v>
+        <v>236</v>
       </c>
       <c r="Q247" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K248" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M248" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>194</v>
+        <v>6333</v>
       </c>
       <c r="Q248" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="K249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3667</v>
+        <v>194</v>
       </c>
       <c r="Q249" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,20 +18357,20 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>278</v>
+        <v>4000</v>
       </c>
       <c r="Q250" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44253</v>
+        <v>44188</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,32 +18429,32 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K251" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L251" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M251" t="n">
-        <v>13500</v>
+        <v>9667</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>4500</v>
+        <v>269</v>
       </c>
       <c r="Q251" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K252" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M252" t="n">
-        <v>10000</v>
+        <v>12333</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>278</v>
+        <v>4111</v>
       </c>
       <c r="Q252" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44281</v>
+        <v>44344</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18576,17 +18576,17 @@
         <v>70</v>
       </c>
       <c r="K253" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L253" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M253" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>4833</v>
+        <v>139</v>
       </c>
       <c r="Q253" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,20 +18645,20 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M254" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>222</v>
+        <v>3500</v>
       </c>
       <c r="Q254" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,20 +18717,20 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M255" t="n">
-        <v>10625</v>
+        <v>7000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3542</v>
+        <v>194</v>
       </c>
       <c r="Q255" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44186</v>
+        <v>44319</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L256" t="n">
         <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>10750</v>
+        <v>12000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3583</v>
+        <v>4000</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44211</v>
+        <v>44316</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44211</v>
+        <v>44316</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L258" t="n">
         <v>11000</v>
       </c>
       <c r="M258" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3500</v>
+        <v>3667</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44301</v>
+        <v>44253</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K259" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L259" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M259" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44301</v>
+        <v>44253</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19080,13 +19080,13 @@
         <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M260" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K261" t="n">
         <v>10000</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44272</v>
+        <v>44281</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K262" t="n">
         <v>14000</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K263" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L263" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M263" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
         <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>10250</v>
+        <v>10625</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3417</v>
+        <v>3542</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44326</v>
+        <v>44186</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>194</v>
+        <v>3583</v>
       </c>
       <c r="Q265" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44326</v>
+        <v>44211</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,20 +19509,20 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K266" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M266" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>4000</v>
+        <v>167</v>
       </c>
       <c r="Q266" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L267" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M267" t="n">
-        <v>16412</v>
+        <v>10500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>5471</v>
+        <v>3500</v>
       </c>
       <c r="Q267" t="n">
         <v>3</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K268" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L268" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M268" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q268" t="n">
         <v>36</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>160</v>
       </c>
       <c r="K269" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L269" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M269" t="n">
-        <v>10750</v>
+        <v>12000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3583</v>
+        <v>4000</v>
       </c>
       <c r="Q269" t="n">
         <v>3</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44232</v>
+        <v>44272</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,20 +19797,20 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="K270" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M270" t="n">
-        <v>13091</v>
+        <v>10000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>4364</v>
+        <v>278</v>
       </c>
       <c r="Q270" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>194</v>
+        <v>4833</v>
       </c>
       <c r="Q271" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,20 +19941,20 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K272" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L272" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M272" t="n">
-        <v>13500</v>
+        <v>5500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4500</v>
+        <v>153</v>
       </c>
       <c r="Q272" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44270</v>
+        <v>44370</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L273" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M273" t="n">
-        <v>14000</v>
+        <v>10250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>4667</v>
+        <v>3417</v>
       </c>
       <c r="Q273" t="n">
         <v>3</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L274" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M274" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="Q274" t="n">
         <v>36</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M275" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q275" t="n">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44286</v>
+        <v>44230</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K276" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M276" t="n">
-        <v>8000</v>
+        <v>16412</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>222</v>
+        <v>5471</v>
       </c>
       <c r="Q276" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44286</v>
+        <v>44382</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,20 +20301,20 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K277" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L277" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M277" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4167</v>
+        <v>153</v>
       </c>
       <c r="Q277" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44217</v>
+        <v>44382</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K278" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L278" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M278" t="n">
-        <v>9130</v>
+        <v>10750</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3043</v>
+        <v>3583</v>
       </c>
       <c r="Q278" t="n">
         <v>3</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K279" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L279" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M279" t="n">
-        <v>12000</v>
+        <v>13091</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>4000</v>
+        <v>4364</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K280" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L280" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M281" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44223</v>
+        <v>44270</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L282" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M282" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>222</v>
+        <v>4667</v>
       </c>
       <c r="Q282" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44223</v>
+        <v>44355</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,20 +20733,20 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K283" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L283" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M283" t="n">
-        <v>9263</v>
+        <v>5750</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3088</v>
+        <v>160</v>
       </c>
       <c r="Q283" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K284" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L284" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>167</v>
+        <v>3500</v>
       </c>
       <c r="Q284" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K285" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L285" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="M285" t="n">
-        <v>10250</v>
+        <v>8000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3417</v>
+        <v>222</v>
       </c>
       <c r="Q285" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L286" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M286" t="n">
-        <v>9091</v>
+        <v>12500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3030</v>
+        <v>4167</v>
       </c>
       <c r="Q286" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="K287" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L287" t="n">
         <v>10000</v>
       </c>
-      <c r="L287" t="n">
-        <v>12000</v>
-      </c>
       <c r="M287" t="n">
-        <v>10667</v>
+        <v>9130</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3556</v>
+        <v>3043</v>
       </c>
       <c r="Q287" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44334</v>
+        <v>44244</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L288" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M288" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q288" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L289" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M289" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3500</v>
+        <v>167</v>
       </c>
       <c r="Q289" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L290" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M290" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>194</v>
+        <v>3500</v>
       </c>
       <c r="Q290" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44168</v>
+        <v>44223</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K291" t="n">
         <v>8000</v>
       </c>
       <c r="L291" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M291" t="n">
-        <v>9043</v>
+        <v>8000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3014</v>
+        <v>222</v>
       </c>
       <c r="Q291" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44418</v>
+        <v>44223</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,20 +21381,20 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L292" t="n">
         <v>10000</v>
       </c>
       <c r="M292" t="n">
-        <v>10000</v>
+        <v>9263</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>278</v>
+        <v>3088</v>
       </c>
       <c r="Q292" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,58 +21429,850 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E293" t="n">
+        <v>13</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>61</v>
+      </c>
+      <c r="K293" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L293" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M293" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>36</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>160</v>
+      </c>
+      <c r="K294" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L294" t="n">
+        <v>10500</v>
+      </c>
+      <c r="M294" t="n">
+        <v>10250</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>3417</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>3</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E295" t="n">
+        <v>13</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>220</v>
+      </c>
+      <c r="K295" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L295" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M295" t="n">
+        <v>9091</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>3030</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>3</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E296" t="n">
+        <v>13</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>75</v>
+      </c>
+      <c r="K296" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L296" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M296" t="n">
+        <v>10667</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
+        <v>3556</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>3</v>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E297" t="n">
+        <v>13</v>
+      </c>
+      <c r="F297" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>50</v>
+      </c>
+      <c r="K297" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L297" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M297" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P297" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>36</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E298" t="n">
+        <v>13</v>
+      </c>
+      <c r="F298" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>160</v>
+      </c>
+      <c r="K298" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L298" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M298" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P298" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>3</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E299" t="n">
+        <v>13</v>
+      </c>
+      <c r="F299" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>50</v>
+      </c>
+      <c r="K299" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L299" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M299" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P299" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>36</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E300" t="n">
+        <v>13</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>230</v>
+      </c>
+      <c r="K300" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L300" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M300" t="n">
+        <v>9043</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>3014</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>3</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E293" t="n">
-        <v>13</v>
-      </c>
-      <c r="F293" t="n">
-        <v>100112040</v>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>Cilantro</t>
-        </is>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J293" t="n">
+      <c r="E301" t="n">
+        <v>13</v>
+      </c>
+      <c r="F301" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>43</v>
+      </c>
+      <c r="K301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M301" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>36</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E302" t="n">
+        <v>13</v>
+      </c>
+      <c r="F302" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
         <v>97</v>
       </c>
-      <c r="K293" t="n">
+      <c r="K302" t="n">
         <v>20000</v>
       </c>
-      <c r="L293" t="n">
+      <c r="L302" t="n">
         <v>22000</v>
       </c>
-      <c r="M293" t="n">
+      <c r="M302" t="n">
         <v>20990</v>
       </c>
-      <c r="N293" t="inlineStr">
+      <c r="N302" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
         </is>
       </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P293" t="n">
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
         <v>6997</v>
       </c>
-      <c r="Q293" t="n">
+      <c r="Q302" t="n">
         <v>3</v>
       </c>
-      <c r="R293" t="inlineStr">
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E303" t="n">
+        <v>13</v>
+      </c>
+      <c r="F303" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>79</v>
+      </c>
+      <c r="K303" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L303" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M303" t="n">
+        <v>9494</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>36</v>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E304" t="n">
+        <v>13</v>
+      </c>
+      <c r="F304" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>124</v>
+      </c>
+      <c r="K304" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L304" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M304" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>6333</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>3</v>
+      </c>
+      <c r="R304" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R304"/>
+  <dimension ref="A1:R306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K185" t="n">
         <v>10000</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L186" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M186" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4667</v>
+        <v>6333</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L187" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M187" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q187" t="n">
         <v>36</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13896,13 +13896,13 @@
         <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M188" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3667</v>
+        <v>4667</v>
       </c>
       <c r="Q188" t="n">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,20 +13965,20 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K189" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L189" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M189" t="n">
-        <v>8941</v>
+        <v>6000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -13987,10 +13987,10 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2980</v>
+        <v>167</v>
       </c>
       <c r="Q189" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L190" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M190" t="n">
-        <v>16364</v>
+        <v>11000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>5455</v>
+        <v>3667</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K191" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L191" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M191" t="n">
-        <v>7000</v>
+        <v>8941</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,10 +14131,10 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>194</v>
+        <v>2980</v>
       </c>
       <c r="Q191" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K192" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M192" t="n">
-        <v>10000</v>
+        <v>16364</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3333</v>
+        <v>5455</v>
       </c>
       <c r="Q192" t="n">
         <v>3</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14256,13 +14256,13 @@
         <v>50</v>
       </c>
       <c r="K193" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L193" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M193" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="Q193" t="n">
         <v>36</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L194" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M194" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3750</v>
+        <v>3333</v>
       </c>
       <c r="Q194" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K195" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L195" t="n">
         <v>6000</v>
       </c>
       <c r="M195" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q195" t="n">
         <v>36</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L196" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M196" t="n">
-        <v>13500</v>
+        <v>11250</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="Q196" t="n">
         <v>3</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K197" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L197" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M197" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q197" t="n">
         <v>36</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L198" t="n">
         <v>14000</v>
       </c>
-      <c r="L198" t="n">
-        <v>15000</v>
-      </c>
       <c r="M198" t="n">
-        <v>14625</v>
+        <v>13500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4875</v>
+        <v>4500</v>
       </c>
       <c r="Q198" t="n">
         <v>3</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K199" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L199" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M199" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="Q199" t="n">
         <v>36</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K200" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L200" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M200" t="n">
-        <v>10500</v>
+        <v>14625</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3500</v>
+        <v>4875</v>
       </c>
       <c r="Q200" t="n">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,7 +14829,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
         <v>5000</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M202" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3167</v>
+        <v>3500</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K203" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M203" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q203" t="n">
         <v>36</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L204" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K205" t="n">
         <v>8000</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L206" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M206" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q206" t="n">
         <v>3</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15264,13 +15264,13 @@
         <v>50</v>
       </c>
       <c r="K207" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L207" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M207" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q207" t="n">
         <v>36</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15336,13 +15336,13 @@
         <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L208" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K209" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M209" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q209" t="n">
         <v>36</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15480,13 +15480,13 @@
         <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L210" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M210" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3167</v>
+        <v>4833</v>
       </c>
       <c r="Q210" t="n">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K211" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L211" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M211" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q211" t="n">
         <v>36</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15624,13 +15624,13 @@
         <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L212" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M212" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>5500</v>
+        <v>3167</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K213" t="n">
         <v>7000</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15768,13 +15768,13 @@
         <v>160</v>
       </c>
       <c r="K214" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L214" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M214" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,20 +15837,20 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K215" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L215" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q215" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15912,13 +15912,13 @@
         <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L216" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M216" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>4167</v>
+        <v>4833</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,20 +15981,20 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K217" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L217" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>194</v>
+        <v>4167</v>
       </c>
       <c r="Q217" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K219" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L219" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M219" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q219" t="n">
         <v>36</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K220" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M220" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>4667</v>
+        <v>4167</v>
       </c>
       <c r="Q220" t="n">
         <v>3</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K221" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L221" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M221" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q221" t="n">
         <v>36</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K222" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M222" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>4333</v>
+        <v>4667</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K223" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L223" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M223" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="Q223" t="n">
         <v>36</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K224" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L224" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M224" t="n">
-        <v>22987</v>
+        <v>13000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>7662</v>
+        <v>4333</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16560,13 +16560,13 @@
         <v>43</v>
       </c>
       <c r="K225" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M225" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q225" t="n">
         <v>36</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16632,13 +16632,13 @@
         <v>79</v>
       </c>
       <c r="K226" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L226" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M226" t="n">
-        <v>21013</v>
+        <v>22987</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>7004</v>
+        <v>7662</v>
       </c>
       <c r="Q226" t="n">
         <v>3</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,7 +16701,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K227" t="n">
         <v>10000</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L229" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M229" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>4500</v>
+        <v>278</v>
       </c>
       <c r="Q229" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="K230" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L230" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M230" t="n">
-        <v>13067</v>
+        <v>21013</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4356</v>
+        <v>7004</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M231" t="n">
-        <v>10368</v>
+        <v>13500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3456</v>
+        <v>4500</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L232" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>6000</v>
+        <v>13067</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>167</v>
+        <v>4356</v>
       </c>
       <c r="Q232" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K233" t="n">
         <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>10250</v>
+        <v>10368</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3417</v>
+        <v>3456</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17208,13 +17208,13 @@
         <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M234" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q234" t="n">
         <v>36</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17280,13 +17280,13 @@
         <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L235" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M235" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,20 +17349,20 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L236" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M236" t="n">
-        <v>10800</v>
+        <v>7000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3600</v>
+        <v>194</v>
       </c>
       <c r="Q236" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L237" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M237" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>222</v>
+        <v>4333</v>
       </c>
       <c r="Q237" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K238" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L238" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M238" t="n">
-        <v>14500</v>
+        <v>10800</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>4833</v>
+        <v>3600</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q239" t="n">
         <v>36</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L240" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M240" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q240" t="n">
         <v>3</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M241" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q241" t="n">
         <v>36</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,17 +17781,17 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L242" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M242" t="n">
         <v>12000</v>
       </c>
-      <c r="M242" t="n">
-        <v>10870</v>
-      </c>
       <c r="N242" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>3623</v>
+        <v>4000</v>
       </c>
       <c r="Q242" t="n">
         <v>3</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17856,13 +17856,13 @@
         <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L243" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M243" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q243" t="n">
         <v>36</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K244" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L244" t="n">
         <v>12000</v>
       </c>
       <c r="M244" t="n">
-        <v>11500</v>
+        <v>10870</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3833</v>
+        <v>3623</v>
       </c>
       <c r="Q244" t="n">
         <v>3</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,20 +17997,20 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K245" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L245" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M245" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q245" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K246" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L246" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>5000</v>
+        <v>3833</v>
       </c>
       <c r="Q246" t="n">
         <v>3</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K247" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L247" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M247" t="n">
-        <v>8500</v>
+        <v>12947</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>236</v>
+        <v>4316</v>
       </c>
       <c r="Q247" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44433</v>
+        <v>44277</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K248" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L248" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M248" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q248" t="n">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18288,13 +18288,13 @@
         <v>52</v>
       </c>
       <c r="K249" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L249" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M249" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q249" t="n">
         <v>36</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L250" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M250" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>4000</v>
+        <v>6333</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K251" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M251" t="n">
-        <v>9667</v>
+        <v>7000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="Q251" t="n">
         <v>36</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
         <v>12000</v>
       </c>
       <c r="L252" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M252" t="n">
-        <v>12333</v>
+        <v>12000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>4111</v>
+        <v>4000</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K253" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L253" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M253" t="n">
-        <v>5000</v>
+        <v>9667</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M254" t="n">
-        <v>10500</v>
+        <v>12333</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3500</v>
+        <v>4111</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q255" t="n">
         <v>36</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,13 +18792,13 @@
         <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L256" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M256" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K259" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L259" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M259" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K260" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L260" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M260" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4500</v>
+        <v>3667</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K262" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L262" t="n">
         <v>14000</v>
       </c>
-      <c r="L262" t="n">
-        <v>15000</v>
-      </c>
       <c r="M262" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M263" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>10625</v>
+        <v>14500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3542</v>
+        <v>4833</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K265" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L265" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M265" t="n">
-        <v>10750</v>
+        <v>8000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>3583</v>
+        <v>222</v>
       </c>
       <c r="Q265" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,20 +19509,20 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K266" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>6000</v>
+        <v>10625</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>167</v>
+        <v>3542</v>
       </c>
       <c r="Q266" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K267" t="n">
         <v>10000</v>
       </c>
       <c r="L267" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M267" t="n">
-        <v>10500</v>
+        <v>10750</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3500</v>
+        <v>3583</v>
       </c>
       <c r="Q267" t="n">
         <v>3</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,13 +19656,13 @@
         <v>70</v>
       </c>
       <c r="K268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q268" t="n">
         <v>36</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K269" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M269" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q269" t="n">
         <v>3</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K270" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L270" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M270" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q270" t="n">
         <v>36</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19872,13 +19872,13 @@
         <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L271" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M271" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q271" t="n">
         <v>3</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K272" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L272" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M272" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q272" t="n">
         <v>36</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K273" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L273" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M273" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q273" t="n">
         <v>3</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L274" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M274" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q274" t="n">
         <v>36</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K275" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L275" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M275" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q275" t="n">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K276" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L276" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M276" t="n">
-        <v>16412</v>
+        <v>7000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>5471</v>
+        <v>194</v>
       </c>
       <c r="Q276" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,20 +20301,20 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K277" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>153</v>
+        <v>4000</v>
       </c>
       <c r="Q277" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K278" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L278" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M278" t="n">
-        <v>10750</v>
+        <v>16412</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3583</v>
+        <v>5471</v>
       </c>
       <c r="Q278" t="n">
         <v>3</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K279" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L279" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M279" t="n">
-        <v>13091</v>
+        <v>5500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>4364</v>
+        <v>153</v>
       </c>
       <c r="Q279" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M280" t="n">
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>194</v>
+        <v>3583</v>
       </c>
       <c r="Q280" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K281" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L281" t="n">
         <v>14000</v>
       </c>
       <c r="M281" t="n">
-        <v>13500</v>
+        <v>13091</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>4500</v>
+        <v>4364</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K282" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>4667</v>
+        <v>194</v>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20736,17 +20736,17 @@
         <v>70</v>
       </c>
       <c r="K283" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L283" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M283" t="n">
-        <v>5750</v>
+        <v>13500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>160</v>
+        <v>4500</v>
       </c>
       <c r="Q283" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20808,13 +20808,13 @@
         <v>160</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M284" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3500</v>
+        <v>4667</v>
       </c>
       <c r="Q284" t="n">
         <v>3</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K285" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L285" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M285" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Q285" t="n">
         <v>36</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20952,13 +20952,13 @@
         <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M286" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>4167</v>
+        <v>3500</v>
       </c>
       <c r="Q286" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K287" t="n">
         <v>8000</v>
       </c>
       <c r="L287" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M287" t="n">
-        <v>9130</v>
+        <v>8000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3043</v>
+        <v>222</v>
       </c>
       <c r="Q287" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,13 +21096,13 @@
         <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L288" t="n">
         <v>13000</v>
       </c>
       <c r="M288" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M289" t="n">
-        <v>6000</v>
+        <v>9130</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>167</v>
+        <v>3043</v>
       </c>
       <c r="Q289" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M290" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21312,13 +21312,13 @@
         <v>50</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M291" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M292" t="n">
-        <v>9263</v>
+        <v>10500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3088</v>
+        <v>3500</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M293" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K294" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L294" t="n">
         <v>10000</v>
       </c>
-      <c r="L294" t="n">
-        <v>10500</v>
-      </c>
       <c r="M294" t="n">
-        <v>10250</v>
+        <v>9263</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3417</v>
+        <v>3088</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="K295" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M295" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q295" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
         <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M296" t="n">
-        <v>10667</v>
+        <v>10250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>3556</v>
+        <v>3417</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M297" t="n">
-        <v>6000</v>
+        <v>9091</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>167</v>
+        <v>3030</v>
       </c>
       <c r="Q297" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K298" t="n">
         <v>10000</v>
       </c>
       <c r="L298" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>10500</v>
+        <v>10667</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3500</v>
+        <v>3556</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21888,13 +21888,13 @@
         <v>50</v>
       </c>
       <c r="K299" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q299" t="n">
         <v>36</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M300" t="n">
-        <v>9043</v>
+        <v>10500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3014</v>
+        <v>3500</v>
       </c>
       <c r="Q300" t="n">
         <v>3</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M301" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q301" t="n">
         <v>36</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="K302" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>20990</v>
+        <v>9043</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>6997</v>
+        <v>3014</v>
       </c>
       <c r="Q302" t="n">
         <v>3</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K303" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
         <v>10000</v>
       </c>
       <c r="M303" t="n">
-        <v>9494</v>
+        <v>10000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q303" t="n">
         <v>36</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="K304" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L304" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M304" t="n">
-        <v>19000</v>
+        <v>20990</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,12 +22267,156 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>6333</v>
+        <v>6997</v>
       </c>
       <c r="Q304" t="n">
         <v>3</v>
       </c>
       <c r="R304" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>9</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E305" t="n">
+        <v>13</v>
+      </c>
+      <c r="F305" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>79</v>
+      </c>
+      <c r="K305" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L305" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M305" t="n">
+        <v>9494</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>36</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>9</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E306" t="n">
+        <v>13</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>124</v>
+      </c>
+      <c r="K306" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L306" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M306" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>6333</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>3</v>
+      </c>
+      <c r="R306" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R313"/>
+  <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M167" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q167" t="n">
         <v>36</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K168" t="n">
         <v>12000</v>
       </c>
       <c r="L168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M168" t="n">
-        <v>12500</v>
+        <v>12992</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4167</v>
+        <v>4331</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12528,13 +12528,13 @@
         <v>70</v>
       </c>
       <c r="K169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q169" t="n">
         <v>36</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K171" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L171" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M171" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q171" t="n">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L172" t="n">
         <v>13000</v>
       </c>
       <c r="M172" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4333</v>
+        <v>4167</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K173" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L173" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M173" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
         <v>13000</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12960,17 +12960,17 @@
         <v>70</v>
       </c>
       <c r="K175" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L175" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M175" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q175" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,20 +13029,20 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L176" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M176" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>194</v>
+        <v>4333</v>
       </c>
       <c r="Q176" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L177" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4167</v>
+        <v>5000</v>
       </c>
       <c r="Q177" t="n">
         <v>3</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K178" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L178" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M178" t="n">
-        <v>9091</v>
+        <v>7000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3030</v>
+        <v>194</v>
       </c>
       <c r="Q178" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M179" t="n">
-        <v>9130</v>
+        <v>12500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3043</v>
+        <v>4167</v>
       </c>
       <c r="Q179" t="n">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K180" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L180" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M180" t="n">
-        <v>7000</v>
+        <v>9091</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>194</v>
+        <v>3030</v>
       </c>
       <c r="Q180" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L181" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>13500</v>
+        <v>9130</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>4500</v>
+        <v>3043</v>
       </c>
       <c r="Q181" t="n">
         <v>3</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,20 +13461,20 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L182" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M182" t="n">
-        <v>10667</v>
+        <v>7000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3556</v>
+        <v>194</v>
       </c>
       <c r="Q182" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,20 +13533,20 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L183" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M183" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>153</v>
+        <v>4500</v>
       </c>
       <c r="Q183" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K184" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L184" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M184" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3250</v>
+        <v>3556</v>
       </c>
       <c r="Q184" t="n">
         <v>3</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,20 +13677,20 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L185" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M185" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>5000</v>
+        <v>153</v>
       </c>
       <c r="Q185" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,20 +13749,20 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L186" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M186" t="n">
-        <v>7000</v>
+        <v>9750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>194</v>
+        <v>3250</v>
       </c>
       <c r="Q186" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13824,13 +13824,13 @@
         <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L187" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M187" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q187" t="n">
         <v>3</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K188" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L188" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M188" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q188" t="n">
         <v>36</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13968,13 +13968,13 @@
         <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L189" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M189" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q189" t="n">
         <v>3</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K190" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L190" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M190" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q190" t="n">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L191" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M191" t="n">
-        <v>9043</v>
+        <v>14500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3014</v>
+        <v>4833</v>
       </c>
       <c r="Q191" t="n">
         <v>3</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>50</v>
       </c>
       <c r="K192" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L192" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M192" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q192" t="n">
         <v>36</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K193" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L193" t="n">
         <v>10000</v>
       </c>
       <c r="M193" t="n">
-        <v>10000</v>
+        <v>9043</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3333</v>
+        <v>3014</v>
       </c>
       <c r="Q193" t="n">
         <v>3</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>50</v>
       </c>
       <c r="K194" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L194" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M194" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q194" t="n">
         <v>36</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14400,13 +14400,13 @@
         <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L195" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4833</v>
+        <v>3333</v>
       </c>
       <c r="Q195" t="n">
         <v>3</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M196" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q196" t="n">
         <v>36</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
         <v>14000</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K198" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L198" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M198" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q198" t="n">
         <v>36</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L199" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M199" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q199" t="n">
         <v>3</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,20 +14757,20 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K200" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L200" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M200" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -14779,10 +14779,10 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>5500</v>
+        <v>167</v>
       </c>
       <c r="Q200" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K201" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="M201" t="n">
-        <v>5000</v>
+        <v>10250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>139</v>
+        <v>3417</v>
       </c>
       <c r="Q201" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K202" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M202" t="n">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3167</v>
+        <v>5500</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K203" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L203" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M203" t="n">
-        <v>9158</v>
+        <v>5000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3053</v>
+        <v>139</v>
       </c>
       <c r="Q203" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L204" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>236</v>
+        <v>3167</v>
       </c>
       <c r="Q204" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="K205" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L205" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>19000</v>
+        <v>9158</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>6333</v>
+        <v>3053</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K206" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L206" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M206" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q206" t="n">
         <v>36</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K207" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L207" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M207" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>5167</v>
+        <v>6333</v>
       </c>
       <c r="Q207" t="n">
         <v>3</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K208" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L208" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M208" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q208" t="n">
         <v>36</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K209" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L209" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M209" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4833</v>
+        <v>5167</v>
       </c>
       <c r="Q209" t="n">
         <v>3</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15480,13 +15480,13 @@
         <v>50</v>
       </c>
       <c r="K210" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L210" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M210" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q210" t="n">
         <v>36</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L211" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M211" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q211" t="n">
         <v>3</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15624,13 +15624,13 @@
         <v>50</v>
       </c>
       <c r="K212" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L212" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M212" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q212" t="n">
         <v>36</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L213" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M213" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>4333</v>
+        <v>3333</v>
       </c>
       <c r="Q213" t="n">
         <v>3</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q214" t="n">
         <v>36</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L215" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M215" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3500</v>
+        <v>4333</v>
       </c>
       <c r="Q215" t="n">
         <v>3</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K216" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L216" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M216" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q216" t="n">
         <v>36</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K217" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L217" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M217" t="n">
-        <v>17495</v>
+        <v>10500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>5832</v>
+        <v>3500</v>
       </c>
       <c r="Q217" t="n">
         <v>3</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16059,10 +16059,10 @@
         <v>9000</v>
       </c>
       <c r="L218" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M218" t="n">
-        <v>9488</v>
+        <v>9000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q218" t="n">
         <v>36</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K219" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L219" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M219" t="n">
-        <v>21013</v>
+        <v>17495</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>7004</v>
+        <v>5832</v>
       </c>
       <c r="Q219" t="n">
         <v>3</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K220" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L220" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M220" t="n">
-        <v>8500</v>
+        <v>9488</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q220" t="n">
         <v>36</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K221" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L221" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M221" t="n">
-        <v>15500</v>
+        <v>21013</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>5167</v>
+        <v>7004</v>
       </c>
       <c r="Q221" t="n">
         <v>3</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K222" t="n">
         <v>8000</v>
       </c>
       <c r="L222" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M222" t="n">
-        <v>8960</v>
+        <v>8500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>2987</v>
+        <v>236</v>
       </c>
       <c r="Q222" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="K223" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L223" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M223" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>250</v>
+        <v>5167</v>
       </c>
       <c r="Q223" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K224" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M224" t="n">
-        <v>14500</v>
+        <v>8960</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>4833</v>
+        <v>2987</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K225" t="n">
         <v>9000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M225" t="n">
-        <v>9619</v>
+        <v>9000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>3206</v>
+        <v>250</v>
       </c>
       <c r="Q225" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K226" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L226" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M226" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>194</v>
+        <v>4833</v>
       </c>
       <c r="Q226" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K227" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L227" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>13500</v>
+        <v>9619</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>4500</v>
+        <v>3206</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16776,13 +16776,13 @@
         <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L228" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M228" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q228" t="n">
         <v>36</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K229" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L229" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M229" t="n">
-        <v>21013</v>
+        <v>13500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>7004</v>
+        <v>4500</v>
       </c>
       <c r="Q229" t="n">
         <v>3</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K230" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q230" t="n">
         <v>36</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L231" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M231" t="n">
-        <v>10500</v>
+        <v>21013</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3500</v>
+        <v>7004</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K232" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L232" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M232" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q232" t="n">
         <v>36</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K233" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
         <v>11000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3667</v>
+        <v>3500</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q234" t="n">
         <v>36</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L235" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>3067</v>
+        <v>3667</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q236" t="n">
         <v>36</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K237" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L237" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M237" t="n">
-        <v>13500</v>
+        <v>9200</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>4500</v>
+        <v>3067</v>
       </c>
       <c r="Q237" t="n">
         <v>3</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K238" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L238" t="n">
         <v>10000</v>
       </c>
       <c r="M238" t="n">
-        <v>9512</v>
+        <v>10000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q238" t="n">
         <v>36</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L239" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M239" t="n">
-        <v>18987</v>
+        <v>13500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>6329</v>
+        <v>4500</v>
       </c>
       <c r="Q239" t="n">
         <v>3</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M240" t="n">
-        <v>6000</v>
+        <v>9512</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="Q240" t="n">
         <v>36</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="K241" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>10486</v>
+        <v>18987</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3495</v>
+        <v>6329</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M242" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q242" t="n">
         <v>36</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="K243" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>20984</v>
+        <v>10486</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>6995</v>
+        <v>3495</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M244" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q244" t="n">
         <v>36</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K245" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M245" t="n">
-        <v>12000</v>
+        <v>20984</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4000</v>
+        <v>6995</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,20 +18069,20 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L246" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M246" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q246" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L247" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M247" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>3167</v>
+        <v>4000</v>
       </c>
       <c r="Q247" t="n">
         <v>3</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,20 +18213,20 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M248" t="n">
         <v>12000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>333</v>
+        <v>4000</v>
       </c>
       <c r="Q248" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K249" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L249" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M249" t="n">
-        <v>22987</v>
+        <v>9500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>7662</v>
+        <v>3167</v>
       </c>
       <c r="Q249" t="n">
         <v>3</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K250" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>5508</v>
+        <v>12000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="Q250" t="n">
         <v>36</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K251" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L251" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M251" t="n">
-        <v>10992</v>
+        <v>22987</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>3664</v>
+        <v>7662</v>
       </c>
       <c r="Q251" t="n">
         <v>3</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L252" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M252" t="n">
-        <v>8000</v>
+        <v>5508</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q252" t="n">
         <v>36</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,7 +18573,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="K253" t="n">
         <v>10000</v>
@@ -18582,7 +18582,7 @@
         <v>12000</v>
       </c>
       <c r="M253" t="n">
-        <v>11111</v>
+        <v>10992</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3704</v>
+        <v>3664</v>
       </c>
       <c r="Q253" t="n">
         <v>3</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K254" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L254" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M254" t="n">
-        <v>9494</v>
+        <v>8000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q254" t="n">
         <v>36</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="K255" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L255" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>19000</v>
+        <v>11111</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>6333</v>
+        <v>3704</v>
       </c>
       <c r="Q255" t="n">
         <v>3</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K256" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L256" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M256" t="n">
-        <v>5000</v>
+        <v>9494</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="Q256" t="n">
         <v>36</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K257" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L257" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M257" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3500</v>
+        <v>6333</v>
       </c>
       <c r="Q257" t="n">
         <v>3</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18936,13 +18936,13 @@
         <v>70</v>
       </c>
       <c r="K258" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L258" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M258" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q258" t="n">
         <v>36</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19011,11 +19011,11 @@
         <v>10000</v>
       </c>
       <c r="L259" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M259" t="n">
         <v>10500</v>
       </c>
-      <c r="M259" t="n">
-        <v>10250</v>
-      </c>
       <c r="N259" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q259" t="n">
         <v>3</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19080,17 +19080,17 @@
         <v>70</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M260" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4167</v>
+        <v>167</v>
       </c>
       <c r="Q260" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K261" t="n">
         <v>10000</v>
       </c>
       <c r="L261" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M261" t="n">
-        <v>10000</v>
+        <v>10250</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>278</v>
+        <v>3417</v>
       </c>
       <c r="Q261" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K262" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>5000</v>
+        <v>4167</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M263" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L264" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M266" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,13 +19584,13 @@
         <v>70</v>
       </c>
       <c r="K267" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L267" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M267" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q267" t="n">
         <v>36</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,13 +19656,13 @@
         <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L268" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M268" t="n">
-        <v>10250</v>
+        <v>13000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3417</v>
+        <v>4333</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>70</v>
       </c>
       <c r="K269" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L269" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M269" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q269" t="n">
         <v>36</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,13 +19800,13 @@
         <v>160</v>
       </c>
       <c r="K270" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M270" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q271" t="n">
         <v>36</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K273" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L273" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M273" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q273" t="n">
         <v>36</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20088,13 +20088,13 @@
         <v>160</v>
       </c>
       <c r="K274" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L274" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M274" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K275" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L275" t="n">
         <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>5488</v>
+        <v>6000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q275" t="n">
         <v>36</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K276" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L276" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M276" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3667</v>
+        <v>4500</v>
       </c>
       <c r="Q276" t="n">
         <v>3</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K277" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L277" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M277" t="n">
-        <v>10000</v>
+        <v>5488</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="Q277" t="n">
         <v>36</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K278" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M278" t="n">
-        <v>21010</v>
+        <v>11000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>7003</v>
+        <v>3667</v>
       </c>
       <c r="Q278" t="n">
         <v>3</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K279" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M279" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q279" t="n">
         <v>36</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K280" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L280" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M280" t="n">
-        <v>10000</v>
+        <v>21010</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>3333</v>
+        <v>7003</v>
       </c>
       <c r="Q280" t="n">
         <v>3</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K281" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L281" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M281" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q281" t="n">
         <v>36</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="Q282" t="n">
         <v>3</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,20 +20733,20 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L283" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M283" t="n">
-        <v>10800</v>
+        <v>6000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3600</v>
+        <v>167</v>
       </c>
       <c r="Q283" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M284" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>278</v>
+        <v>3667</v>
       </c>
       <c r="Q284" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K285" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M285" t="n">
-        <v>19000</v>
+        <v>10800</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>6333</v>
+        <v>3600</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M286" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q286" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K287" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L287" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M287" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>250</v>
+        <v>6333</v>
       </c>
       <c r="Q287" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L288" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M288" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>5667</v>
+        <v>4167</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K289" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M289" t="n">
-        <v>5492</v>
+        <v>9000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q289" t="n">
         <v>36</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L290" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M290" t="n">
-        <v>10992</v>
+        <v>17000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3664</v>
+        <v>5667</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L291" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M291" t="n">
-        <v>8810</v>
+        <v>5492</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="K292" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>18393</v>
+        <v>10992</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>6131</v>
+        <v>3664</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="K293" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L293" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M293" t="n">
-        <v>7000</v>
+        <v>8810</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>120</v>
+        <v>557</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L294" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M294" t="n">
-        <v>12000</v>
+        <v>18393</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4000</v>
+        <v>6131</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K295" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M295" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3167</v>
+        <v>194</v>
       </c>
       <c r="Q295" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,20 +21669,20 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M296" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q296" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K297" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L297" t="n">
         <v>10000</v>
       </c>
-      <c r="L297" t="n">
-        <v>10500</v>
-      </c>
       <c r="M297" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3417</v>
+        <v>3167</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K298" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M298" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L299" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M299" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>4833</v>
+        <v>3417</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K300" t="n">
         <v>10000</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K301" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L301" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M301" t="n">
-        <v>21241</v>
+        <v>14500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>7080</v>
+        <v>4833</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="K303" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L303" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M303" t="n">
-        <v>9263</v>
+        <v>21241</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3088</v>
+        <v>7080</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22248,13 +22248,13 @@
         <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M304" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K305" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>12000</v>
+        <v>9263</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>4000</v>
+        <v>3088</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K306" t="n">
         <v>7000</v>
       </c>
       <c r="L306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M306" t="n">
-        <v>7333</v>
+        <v>7000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K307" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>9571</v>
+        <v>12000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3190</v>
+        <v>4000</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K308" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L308" t="n">
         <v>8000</v>
       </c>
       <c r="M308" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L309" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M309" t="n">
-        <v>12500</v>
+        <v>9571</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4167</v>
+        <v>3190</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K310" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L310" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M310" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K311" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L311" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M311" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22824,13 +22824,13 @@
         <v>70</v>
       </c>
       <c r="K312" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L312" t="n">
         <v>7000</v>
       </c>
       <c r="M312" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22896,13 +22896,13 @@
         <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L313" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M313" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,12 +22915,156 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
       </c>
       <c r="R313" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>9</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E314" t="n">
+        <v>13</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>70</v>
+      </c>
+      <c r="K314" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L314" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M314" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>36</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>9</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E315" t="n">
+        <v>13</v>
+      </c>
+      <c r="F315" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>160</v>
+      </c>
+      <c r="K315" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L315" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M315" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>3</v>
+      </c>
+      <c r="R315" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R315"/>
+  <dimension ref="A1:R317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K308" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L308" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M308" t="n">
-        <v>7333</v>
+        <v>6000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L309" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>9571</v>
+        <v>11008</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3190</v>
+        <v>3669</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K310" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L310" t="n">
         <v>8000</v>
       </c>
       <c r="M310" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K311" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L311" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>12500</v>
+        <v>9571</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4167</v>
+        <v>3190</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K313" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L313" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M313" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22968,13 +22968,13 @@
         <v>70</v>
       </c>
       <c r="K314" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L314" t="n">
         <v>7000</v>
       </c>
       <c r="M314" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23040,13 +23040,13 @@
         <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L315" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M315" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,12 +23059,156 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
       </c>
       <c r="R315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>9</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E316" t="n">
+        <v>13</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>70</v>
+      </c>
+      <c r="K316" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L316" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M316" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>36</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>9</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E317" t="n">
+        <v>13</v>
+      </c>
+      <c r="F317" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>160</v>
+      </c>
+      <c r="K317" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L317" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M317" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>3</v>
+      </c>
+      <c r="R317" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R317"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K285" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L285" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M285" t="n">
-        <v>10800</v>
+        <v>6000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3600</v>
+        <v>167</v>
       </c>
       <c r="Q285" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="K286" t="n">
         <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M286" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>278</v>
+        <v>3667</v>
       </c>
       <c r="Q286" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K287" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>19000</v>
+        <v>10800</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>6333</v>
+        <v>3600</v>
       </c>
       <c r="Q287" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K288" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M288" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q288" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K289" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L289" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M289" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>250</v>
+        <v>6333</v>
       </c>
       <c r="Q289" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L290" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M290" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>5667</v>
+        <v>4167</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K291" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L291" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M291" t="n">
-        <v>5492</v>
+        <v>9000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L292" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M292" t="n">
-        <v>10992</v>
+        <v>17000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3664</v>
+        <v>5667</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L293" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M293" t="n">
-        <v>8810</v>
+        <v>5492</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="K294" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L294" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M294" t="n">
-        <v>18393</v>
+        <v>10992</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>6131</v>
+        <v>3664</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>8810</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>120</v>
+        <v>557</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L296" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M296" t="n">
-        <v>12000</v>
+        <v>18393</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>4000</v>
+        <v>6131</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3167</v>
+        <v>194</v>
       </c>
       <c r="Q297" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K298" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L298" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M298" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q298" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K299" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L299" t="n">
         <v>10000</v>
       </c>
-      <c r="L299" t="n">
-        <v>10500</v>
-      </c>
       <c r="M299" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3417</v>
+        <v>3167</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K300" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L300" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M300" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q300" t="n">
         <v>36</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L301" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M301" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>4833</v>
+        <v>3417</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,7 +22101,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K302" t="n">
         <v>10000</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K303" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L303" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M303" t="n">
-        <v>21241</v>
+        <v>14500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>7080</v>
+        <v>4833</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M304" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="K305" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L305" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M305" t="n">
-        <v>9263</v>
+        <v>21241</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3088</v>
+        <v>7080</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22392,13 +22392,13 @@
         <v>50</v>
       </c>
       <c r="K306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K307" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L307" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M307" t="n">
-        <v>12000</v>
+        <v>9263</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>4000</v>
+        <v>3088</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K308" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L308" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M308" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K309" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L309" t="n">
         <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>11008</v>
+        <v>12000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3669</v>
+        <v>4000</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M310" t="n">
-        <v>7333</v>
+        <v>6000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="K311" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L311" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M311" t="n">
-        <v>9571</v>
+        <v>11008</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3190</v>
+        <v>3669</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K312" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L312" t="n">
         <v>8000</v>
       </c>
       <c r="M312" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K313" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L313" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>12500</v>
+        <v>9571</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>4167</v>
+        <v>3190</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K314" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L314" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M314" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K315" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L315" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M315" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23112,13 +23112,13 @@
         <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L316" t="n">
         <v>7000</v>
       </c>
       <c r="M316" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q316" t="n">
         <v>36</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23184,13 +23184,13 @@
         <v>160</v>
       </c>
       <c r="K317" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L317" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M317" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,12 +23203,156 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q317" t="n">
         <v>3</v>
       </c>
       <c r="R317" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>9</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E318" t="n">
+        <v>13</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>70</v>
+      </c>
+      <c r="K318" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L318" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M318" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>36</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>9</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F319" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J319" t="n">
+        <v>160</v>
+      </c>
+      <c r="K319" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L319" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M319" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>3</v>
+      </c>
+      <c r="R319" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R319"/>
+  <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,20 +14973,20 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K203" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L203" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M203" t="n">
-        <v>5000</v>
+        <v>13010</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14995,10 +14995,10 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>139</v>
+        <v>4337</v>
       </c>
       <c r="Q203" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L204" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M204" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3167</v>
+        <v>139</v>
       </c>
       <c r="Q204" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L205" t="n">
         <v>10000</v>
       </c>
       <c r="M205" t="n">
-        <v>9158</v>
+        <v>9500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3053</v>
+        <v>3167</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K206" t="n">
         <v>8000</v>
       </c>
       <c r="L206" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M206" t="n">
-        <v>8500</v>
+        <v>9158</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>236</v>
+        <v>3053</v>
       </c>
       <c r="Q206" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15261,20 +15261,20 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K207" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L207" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M207" t="n">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>6333</v>
+        <v>236</v>
       </c>
       <c r="Q207" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,20 +15333,20 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="K208" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L208" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M208" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -15355,10 +15355,10 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>194</v>
+        <v>6333</v>
       </c>
       <c r="Q208" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R208" t="inlineStr">
         <is>
@@ -15405,20 +15405,20 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L209" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M209" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -15427,10 +15427,10 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>5167</v>
+        <v>194</v>
       </c>
       <c r="Q209" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,20 +15477,20 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K210" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L210" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -15499,10 +15499,10 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>278</v>
+        <v>5167</v>
       </c>
       <c r="Q210" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -15549,20 +15549,20 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K211" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L211" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M211" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -15571,10 +15571,10 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>4833</v>
+        <v>278</v>
       </c>
       <c r="Q211" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R211" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,20 +15621,20 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L212" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M212" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -15643,10 +15643,10 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>167</v>
+        <v>4833</v>
       </c>
       <c r="Q212" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R212" t="inlineStr">
         <is>
@@ -15693,20 +15693,20 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K213" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L213" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M213" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3333</v>
+        <v>167</v>
       </c>
       <c r="Q213" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,20 +15765,20 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M214" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>194</v>
+        <v>3333</v>
       </c>
       <c r="Q214" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15837,20 +15837,20 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K215" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L215" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M215" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>4333</v>
+        <v>194</v>
       </c>
       <c r="Q215" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,20 +15909,20 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L216" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M216" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>167</v>
+        <v>4333</v>
       </c>
       <c r="Q216" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15981,20 +15981,20 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="K217" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L217" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M217" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -16003,10 +16003,10 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3500</v>
+        <v>167</v>
       </c>
       <c r="Q217" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R217" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,20 +16053,20 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K218" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M218" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -16075,10 +16075,10 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="Q218" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R218" t="inlineStr">
         <is>
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="K219" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L219" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M219" t="n">
-        <v>17495</v>
+        <v>9000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>5832</v>
+        <v>250</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,20 +16197,20 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K220" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M220" t="n">
-        <v>9488</v>
+        <v>17495</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>264</v>
+        <v>5832</v>
       </c>
       <c r="Q220" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16269,20 +16269,20 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K221" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L221" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>21013</v>
+        <v>9488</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>7004</v>
+        <v>264</v>
       </c>
       <c r="Q221" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K222" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L222" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M222" t="n">
-        <v>8500</v>
+        <v>21013</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>236</v>
+        <v>7004</v>
       </c>
       <c r="Q222" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K223" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L223" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M223" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>5167</v>
+        <v>236</v>
       </c>
       <c r="Q223" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K224" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L224" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M224" t="n">
-        <v>8960</v>
+        <v>15500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>2987</v>
+        <v>5167</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K225" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M225" t="n">
-        <v>9000</v>
+        <v>8960</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>250</v>
+        <v>2987</v>
       </c>
       <c r="Q225" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K226" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L226" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M226" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>4833</v>
+        <v>250</v>
       </c>
       <c r="Q226" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M227" t="n">
-        <v>9619</v>
+        <v>14500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3206</v>
+        <v>4833</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,20 +16773,20 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="K228" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L228" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M228" t="n">
-        <v>7000</v>
+        <v>9619</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>194</v>
+        <v>3206</v>
       </c>
       <c r="Q228" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L229" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M229" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>4500</v>
+        <v>194</v>
       </c>
       <c r="Q229" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K230" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L230" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M230" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>278</v>
+        <v>4500</v>
       </c>
       <c r="Q230" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="K231" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>21013</v>
+        <v>10000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>7004</v>
+        <v>278</v>
       </c>
       <c r="Q231" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="K232" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L232" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M232" t="n">
-        <v>5000</v>
+        <v>21013</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>139</v>
+        <v>7004</v>
       </c>
       <c r="Q232" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17133,20 +17133,20 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M233" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3500</v>
+        <v>139</v>
       </c>
       <c r="Q233" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,20 +17205,20 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K234" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>194</v>
+        <v>3500</v>
       </c>
       <c r="Q234" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17277,20 +17277,20 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K235" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L235" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M235" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>3667</v>
+        <v>194</v>
       </c>
       <c r="Q235" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,32 +17349,32 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>222</v>
+        <v>3667</v>
       </c>
       <c r="Q236" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17421,32 +17421,32 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K237" t="n">
         <v>8000</v>
       </c>
       <c r="L237" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M237" t="n">
-        <v>9200</v>
+        <v>8000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3067</v>
+        <v>222</v>
       </c>
       <c r="Q237" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K238" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L238" t="n">
         <v>10000</v>
       </c>
       <c r="M238" t="n">
-        <v>10000</v>
+        <v>9200</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>278</v>
+        <v>3067</v>
       </c>
       <c r="Q238" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17565,20 +17565,20 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K239" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L239" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4500</v>
+        <v>278</v>
       </c>
       <c r="Q239" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,20 +17637,20 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L240" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M240" t="n">
-        <v>9512</v>
+        <v>13500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>264</v>
+        <v>4500</v>
       </c>
       <c r="Q240" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17709,20 +17709,20 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K241" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M241" t="n">
-        <v>18987</v>
+        <v>9512</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>6329</v>
+        <v>264</v>
       </c>
       <c r="Q241" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,20 +17781,20 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K242" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L242" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M242" t="n">
-        <v>6000</v>
+        <v>18987</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>167</v>
+        <v>6329</v>
       </c>
       <c r="Q242" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17853,20 +17853,20 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L243" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M243" t="n">
-        <v>10486</v>
+        <v>6000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3495</v>
+        <v>167</v>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,20 +17925,20 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="K244" t="n">
         <v>10000</v>
       </c>
       <c r="L244" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M244" t="n">
-        <v>10000</v>
+        <v>10486</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>278</v>
+        <v>3495</v>
       </c>
       <c r="Q244" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17997,20 +17997,20 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K245" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L245" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M245" t="n">
-        <v>20984</v>
+        <v>10000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>6995</v>
+        <v>278</v>
       </c>
       <c r="Q245" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,20 +18069,20 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K246" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L246" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="M246" t="n">
-        <v>7000</v>
+        <v>20984</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>194</v>
+        <v>6995</v>
       </c>
       <c r="Q246" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L247" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M247" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q247" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18216,10 +18216,10 @@
         <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L248" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M248" t="n">
         <v>12000</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L249" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M249" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>3167</v>
+        <v>4000</v>
       </c>
       <c r="Q249" t="n">
         <v>3</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,20 +18357,20 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L250" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M250" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>333</v>
+        <v>3167</v>
       </c>
       <c r="Q250" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K251" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M251" t="n">
-        <v>22987</v>
+        <v>12000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>7662</v>
+        <v>333</v>
       </c>
       <c r="Q251" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,20 +18501,20 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K252" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="L252" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="M252" t="n">
-        <v>5508</v>
+        <v>22987</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>153</v>
+        <v>7662</v>
       </c>
       <c r="Q252" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18573,20 +18573,20 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="K253" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M253" t="n">
-        <v>10992</v>
+        <v>5508</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3664</v>
+        <v>153</v>
       </c>
       <c r="Q253" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,20 +18645,20 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="K254" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>8000</v>
+        <v>10992</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>222</v>
+        <v>3664</v>
       </c>
       <c r="Q254" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18717,20 +18717,20 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="K255" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>11111</v>
+        <v>8000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3704</v>
+        <v>222</v>
       </c>
       <c r="Q255" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,20 +18789,20 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="K256" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L256" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>9494</v>
+        <v>11111</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>264</v>
+        <v>3704</v>
       </c>
       <c r="Q256" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18861,20 +18861,20 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K257" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L257" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M257" t="n">
-        <v>19000</v>
+        <v>9494</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>6333</v>
+        <v>264</v>
       </c>
       <c r="Q257" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,20 +18933,20 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K258" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L258" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M258" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q258" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -19005,20 +19005,20 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K259" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L259" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M259" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3500</v>
+        <v>139</v>
       </c>
       <c r="Q259" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,20 +19077,20 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L260" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M260" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>167</v>
+        <v>3500</v>
       </c>
       <c r="Q260" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K261" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L261" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M261" t="n">
-        <v>10250</v>
+        <v>6000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3417</v>
+        <v>167</v>
       </c>
       <c r="Q261" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L262" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M262" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K263" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L263" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M263" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q263" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19365,20 +19365,20 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K264" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M264" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>5000</v>
+        <v>278</v>
       </c>
       <c r="Q264" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K265" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L265" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M265" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>167</v>
+        <v>5000</v>
       </c>
       <c r="Q265" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19509,20 +19509,20 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L266" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M266" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3500</v>
+        <v>167</v>
       </c>
       <c r="Q266" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L267" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M267" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>194</v>
+        <v>3500</v>
       </c>
       <c r="Q267" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19653,20 +19653,20 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K268" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L268" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M268" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>4333</v>
+        <v>194</v>
       </c>
       <c r="Q268" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K269" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L269" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M269" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>139</v>
+        <v>4333</v>
       </c>
       <c r="Q269" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19797,20 +19797,20 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K270" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L270" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="M270" t="n">
-        <v>10250</v>
+        <v>5000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3417</v>
+        <v>139</v>
       </c>
       <c r="Q270" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q271" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19941,20 +19941,20 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K272" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L272" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M272" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q272" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K273" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L273" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M273" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>222</v>
+        <v>4000</v>
       </c>
       <c r="Q273" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20085,20 +20085,20 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L274" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M274" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>4000</v>
+        <v>222</v>
       </c>
       <c r="Q274" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,20 +20157,20 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q275" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K276" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L276" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M276" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>4500</v>
+        <v>167</v>
       </c>
       <c r="Q276" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,20 +20301,20 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L277" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M277" t="n">
-        <v>5488</v>
+        <v>13500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>152</v>
+        <v>4500</v>
       </c>
       <c r="Q277" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20373,20 +20373,20 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="K278" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M278" t="n">
-        <v>11000</v>
+        <v>5488</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>3667</v>
+        <v>152</v>
       </c>
       <c r="Q278" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="K279" t="n">
         <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>278</v>
+        <v>3667</v>
       </c>
       <c r="Q279" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K280" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L280" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M280" t="n">
-        <v>21010</v>
+        <v>10000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>7003</v>
+        <v>278</v>
       </c>
       <c r="Q280" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,20 +20589,20 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K281" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L281" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="M281" t="n">
-        <v>7000</v>
+        <v>21010</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>194</v>
+        <v>7003</v>
       </c>
       <c r="Q281" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>3333</v>
+        <v>194</v>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,20 +20733,20 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M283" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>167</v>
+        <v>3333</v>
       </c>
       <c r="Q283" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="K284" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L284" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M284" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3667</v>
+        <v>167</v>
       </c>
       <c r="Q284" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K285" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L285" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M285" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>167</v>
+        <v>3667</v>
       </c>
       <c r="Q285" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="K286" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L286" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M286" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3667</v>
+        <v>167</v>
       </c>
       <c r="Q286" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="K287" t="n">
         <v>10000</v>
@@ -21030,7 +21030,7 @@
         <v>12000</v>
       </c>
       <c r="M287" t="n">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3600</v>
+        <v>3667</v>
       </c>
       <c r="Q287" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K288" t="n">
         <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>278</v>
+        <v>3600</v>
       </c>
       <c r="Q288" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="K289" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L289" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M289" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>6333</v>
+        <v>278</v>
       </c>
       <c r="Q289" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L290" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M290" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>4167</v>
+        <v>6333</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L291" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M291" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>250</v>
+        <v>4167</v>
       </c>
       <c r="Q291" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21381,20 +21381,20 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K292" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L292" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M292" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>5667</v>
+        <v>250</v>
       </c>
       <c r="Q292" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,20 +21453,20 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K293" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M293" t="n">
-        <v>5492</v>
+        <v>17000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>153</v>
+        <v>5667</v>
       </c>
       <c r="Q293" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21525,20 +21525,20 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="K294" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L294" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M294" t="n">
-        <v>10992</v>
+        <v>5492</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3664</v>
+        <v>153</v>
       </c>
       <c r="Q294" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="K295" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>8810</v>
+        <v>10992</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>245</v>
+        <v>3664</v>
       </c>
       <c r="Q295" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21669,20 +21669,20 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>557</v>
+        <v>253</v>
       </c>
       <c r="K296" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L296" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M296" t="n">
-        <v>18393</v>
+        <v>8810</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>6131</v>
+        <v>245</v>
       </c>
       <c r="Q296" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>50</v>
+        <v>557</v>
       </c>
       <c r="K297" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L297" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="M297" t="n">
-        <v>7000</v>
+        <v>18393</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>194</v>
+        <v>6131</v>
       </c>
       <c r="Q297" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M298" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q298" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K299" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L299" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M299" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3167</v>
+        <v>4000</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L300" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M300" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q300" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K301" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L301" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M301" t="n">
-        <v>10250</v>
+        <v>6000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3417</v>
+        <v>167</v>
       </c>
       <c r="Q301" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
         <v>10000</v>
       </c>
       <c r="L302" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M302" t="n">
-        <v>10000</v>
+        <v>10250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>278</v>
+        <v>3417</v>
       </c>
       <c r="Q302" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K303" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M303" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>4833</v>
+        <v>278</v>
       </c>
       <c r="Q303" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M304" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>278</v>
+        <v>4833</v>
       </c>
       <c r="Q304" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K305" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>21241</v>
+        <v>10000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>7080</v>
+        <v>278</v>
       </c>
       <c r="Q305" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K306" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L306" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M306" t="n">
-        <v>8000</v>
+        <v>21241</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>222</v>
+        <v>7080</v>
       </c>
       <c r="Q306" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K307" t="n">
         <v>8000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M307" t="n">
-        <v>9263</v>
+        <v>8000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3088</v>
+        <v>222</v>
       </c>
       <c r="Q307" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K308" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L308" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M308" t="n">
-        <v>7000</v>
+        <v>9263</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>194</v>
+        <v>3088</v>
       </c>
       <c r="Q308" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22605,20 +22605,20 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K309" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L309" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M309" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q309" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,20 +22677,20 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M310" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q310" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K311" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L311" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M311" t="n">
-        <v>11008</v>
+        <v>6000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3669</v>
+        <v>167</v>
       </c>
       <c r="Q311" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="K312" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L312" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>7333</v>
+        <v>11008</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>204</v>
+        <v>3669</v>
       </c>
       <c r="Q312" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="K313" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M313" t="n">
-        <v>9571</v>
+        <v>7333</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3190</v>
+        <v>204</v>
       </c>
       <c r="Q313" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,20 +22965,20 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K314" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L314" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M314" t="n">
-        <v>8000</v>
+        <v>9571</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>222</v>
+        <v>3190</v>
       </c>
       <c r="Q314" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K315" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L315" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M315" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4167</v>
+        <v>222</v>
       </c>
       <c r="Q315" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23112,17 +23112,17 @@
         <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L316" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M316" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>194</v>
+        <v>4167</v>
       </c>
       <c r="Q316" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K317" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L317" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M317" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4833</v>
+        <v>194</v>
       </c>
       <c r="Q317" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,20 +23253,20 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K318" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L318" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M318" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>188</v>
+        <v>4833</v>
       </c>
       <c r="Q318" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23325,34 +23325,106 @@
         </is>
       </c>
       <c r="J319" t="n">
+        <v>70</v>
+      </c>
+      <c r="K319" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L319" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M319" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>36</v>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>9</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E320" t="n">
+        <v>13</v>
+      </c>
+      <c r="F320" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
         <v>160</v>
       </c>
-      <c r="K319" t="n">
+      <c r="K320" t="n">
         <v>13000</v>
       </c>
-      <c r="L319" t="n">
+      <c r="L320" t="n">
         <v>14000</v>
       </c>
-      <c r="M319" t="n">
+      <c r="M320" t="n">
         <v>13500</v>
       </c>
-      <c r="N319" t="inlineStr">
+      <c r="N320" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
         </is>
       </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P319" t="n">
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
         <v>4500</v>
       </c>
-      <c r="Q319" t="n">
+      <c r="Q320" t="n">
         <v>3</v>
       </c>
-      <c r="R319" t="inlineStr">
+      <c r="R320" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R320"/>
+  <dimension ref="A1:R322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K71" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L71" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M71" t="n">
-        <v>8000</v>
+        <v>4756</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="Q71" t="n">
         <v>36</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="K72" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L72" t="n">
         <v>10000</v>
       </c>
-      <c r="L72" t="n">
-        <v>12000</v>
-      </c>
       <c r="M72" t="n">
-        <v>10833</v>
+        <v>9504</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3611</v>
+        <v>3168</v>
       </c>
       <c r="Q72" t="n">
         <v>3</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M73" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q73" t="n">
         <v>36</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="K74" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L74" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M74" t="n">
-        <v>22759</v>
+        <v>10833</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>7586</v>
+        <v>3611</v>
       </c>
       <c r="Q74" t="n">
         <v>3</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,20 +5757,20 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="K75" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M75" t="n">
-        <v>13067</v>
+        <v>10000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4356</v>
+        <v>278</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44323</v>
+        <v>44413</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,20 +5829,20 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K76" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L76" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="M76" t="n">
-        <v>7000</v>
+        <v>22759</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>194</v>
+        <v>7586</v>
       </c>
       <c r="Q76" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44323</v>
+        <v>44202</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K77" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L77" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M77" t="n">
-        <v>11000</v>
+        <v>13067</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3667</v>
+        <v>4356</v>
       </c>
       <c r="Q77" t="n">
         <v>3</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44165</v>
+        <v>44323</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,20 +5973,20 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K78" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L78" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M78" t="n">
-        <v>8556</v>
+        <v>7000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2852</v>
+        <v>194</v>
       </c>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44242</v>
+        <v>44323</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K79" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L79" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M79" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4667</v>
+        <v>3667</v>
       </c>
       <c r="Q79" t="n">
         <v>3</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44169</v>
+        <v>44165</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6117,20 +6117,20 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K80" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L80" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M80" t="n">
-        <v>7000</v>
+        <v>8556</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>194</v>
+        <v>2852</v>
       </c>
       <c r="Q80" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="K81" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M81" t="n">
-        <v>8385</v>
+        <v>14000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2795</v>
+        <v>4667</v>
       </c>
       <c r="Q81" t="n">
         <v>3</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K82" t="n">
         <v>7000</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K83" t="n">
         <v>8000</v>
       </c>
       <c r="L83" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M83" t="n">
-        <v>8889</v>
+        <v>8385</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2963</v>
+        <v>2795</v>
       </c>
       <c r="Q83" t="n">
         <v>3</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L84" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M84" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q84" t="n">
         <v>36</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="K85" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L85" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M85" t="n">
-        <v>17508</v>
+        <v>8889</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5836</v>
+        <v>2963</v>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M86" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q86" t="n">
         <v>36</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44260</v>
+        <v>44405</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K87" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M87" t="n">
-        <v>14000</v>
+        <v>17508</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4667</v>
+        <v>5836</v>
       </c>
       <c r="Q87" t="n">
         <v>3</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K88" t="n">
         <v>10000</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K89" t="n">
         <v>14000</v>
       </c>
       <c r="L89" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4833</v>
+        <v>4667</v>
       </c>
       <c r="Q89" t="n">
         <v>3</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K90" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M90" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q90" t="n">
         <v>36</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44308</v>
+        <v>44281</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K91" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L91" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4167</v>
+        <v>4833</v>
       </c>
       <c r="Q91" t="n">
         <v>3</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L92" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M92" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q92" t="n">
         <v>36</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7056,13 +7056,13 @@
         <v>160</v>
       </c>
       <c r="K93" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L93" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M93" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>5000</v>
+        <v>4167</v>
       </c>
       <c r="Q93" t="n">
         <v>3</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M94" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q94" t="n">
         <v>36</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7200,13 +7200,13 @@
         <v>160</v>
       </c>
       <c r="K95" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L95" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M95" t="n">
-        <v>10250</v>
+        <v>15000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3417</v>
+        <v>5000</v>
       </c>
       <c r="Q95" t="n">
         <v>3</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,20 +7269,20 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K96" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L96" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M96" t="n">
-        <v>12824</v>
+        <v>5000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4275</v>
+        <v>139</v>
       </c>
       <c r="Q96" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44431</v>
+        <v>44363</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K97" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L97" t="n">
-        <v>24000</v>
+        <v>10500</v>
       </c>
       <c r="M97" t="n">
-        <v>23013</v>
+        <v>10250</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>7671</v>
+        <v>3417</v>
       </c>
       <c r="Q97" t="n">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44189</v>
+        <v>44229</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K98" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L98" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M98" t="n">
-        <v>9000</v>
+        <v>12824</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>250</v>
+        <v>4275</v>
       </c>
       <c r="Q98" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44189</v>
+        <v>44431</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L99" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M99" t="n">
-        <v>13889</v>
+        <v>23013</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4630</v>
+        <v>7671</v>
       </c>
       <c r="Q99" t="n">
         <v>3</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,20 +7557,20 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L100" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M100" t="n">
-        <v>10368</v>
+        <v>9000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3456</v>
+        <v>250</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44231</v>
+        <v>44189</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K101" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L101" t="n">
         <v>15000</v>
       </c>
-      <c r="L101" t="n">
-        <v>18000</v>
-      </c>
       <c r="M101" t="n">
-        <v>16364</v>
+        <v>13889</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>5455</v>
+        <v>4630</v>
       </c>
       <c r="Q101" t="n">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44355</v>
+        <v>44181</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,20 +7701,20 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K102" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L102" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M102" t="n">
-        <v>5750</v>
+        <v>10368</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>160</v>
+        <v>3456</v>
       </c>
       <c r="Q102" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K103" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M103" t="n">
-        <v>10500</v>
+        <v>16364</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3500</v>
+        <v>5455</v>
       </c>
       <c r="Q103" t="n">
         <v>3</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K104" t="n">
         <v>5500</v>
       </c>
       <c r="L104" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M104" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q104" t="n">
         <v>36</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7923,11 +7923,11 @@
         <v>10000</v>
       </c>
       <c r="L105" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M105" t="n">
         <v>10500</v>
       </c>
-      <c r="M105" t="n">
-        <v>10250</v>
-      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q105" t="n">
         <v>3</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K106" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L106" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M106" t="n">
-        <v>12500</v>
+        <v>5500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4167</v>
+        <v>153</v>
       </c>
       <c r="Q106" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44203</v>
+        <v>44372</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K107" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L107" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M107" t="n">
-        <v>9091</v>
+        <v>10250</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3030</v>
+        <v>3417</v>
       </c>
       <c r="Q107" t="n">
         <v>3</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44230</v>
+        <v>44246</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K108" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L108" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M108" t="n">
-        <v>16412</v>
+        <v>12500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>5471</v>
+        <v>4167</v>
       </c>
       <c r="Q108" t="n">
         <v>3</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="K109" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L109" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M109" t="n">
-        <v>13500</v>
+        <v>9091</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4500</v>
+        <v>3030</v>
       </c>
       <c r="Q109" t="n">
         <v>3</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44418</v>
+        <v>44230</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,20 +8277,20 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="K110" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M110" t="n">
-        <v>10000</v>
+        <v>16412</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>278</v>
+        <v>5471</v>
       </c>
       <c r="Q110" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K111" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M111" t="n">
-        <v>20990</v>
+        <v>13500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>6997</v>
+        <v>4500</v>
       </c>
       <c r="Q111" t="n">
         <v>3</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q112" t="n">
         <v>36</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44312</v>
+        <v>44418</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="K113" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M113" t="n">
-        <v>11500</v>
+        <v>20990</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3833</v>
+        <v>6997</v>
       </c>
       <c r="Q113" t="n">
         <v>3</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44172</v>
+        <v>44312</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,20 +8565,20 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K114" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L114" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M114" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2833</v>
+        <v>194</v>
       </c>
       <c r="Q114" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44258</v>
+        <v>44312</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K115" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L115" t="n">
         <v>12000</v>
       </c>
-      <c r="L115" t="n">
-        <v>13000</v>
-      </c>
       <c r="M115" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4167</v>
+        <v>3833</v>
       </c>
       <c r="Q115" t="n">
         <v>3</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K116" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L116" t="n">
         <v>9000</v>
       </c>
-      <c r="L116" t="n">
-        <v>10000</v>
-      </c>
       <c r="M116" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3167</v>
+        <v>2833</v>
       </c>
       <c r="Q116" t="n">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44407</v>
+        <v>44258</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,20 +8781,20 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L117" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M117" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q117" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L118" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M118" t="n">
-        <v>20759</v>
+        <v>9500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>6920</v>
+        <v>3167</v>
       </c>
       <c r="Q118" t="n">
         <v>3</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K120" t="n">
         <v>20000</v>
@@ -9006,7 +9006,7 @@
         <v>22000</v>
       </c>
       <c r="M120" t="n">
-        <v>20990</v>
+        <v>20759</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>6997</v>
+        <v>6920</v>
       </c>
       <c r="Q120" t="n">
         <v>3</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44236</v>
+        <v>44410</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,20 +9069,20 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K121" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L121" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M121" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4333</v>
+        <v>278</v>
       </c>
       <c r="Q121" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44159</v>
+        <v>44410</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,20 +9141,20 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K122" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L122" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M122" t="n">
-        <v>8000</v>
+        <v>20990</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>222</v>
+        <v>6997</v>
       </c>
       <c r="Q122" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K123" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L123" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M123" t="n">
-        <v>10870</v>
+        <v>13000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3623</v>
+        <v>4333</v>
       </c>
       <c r="Q123" t="n">
         <v>3</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,20 +9285,20 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M124" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4500</v>
+        <v>222</v>
       </c>
       <c r="Q124" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44330</v>
+        <v>44159</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,20 +9357,20 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K125" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M125" t="n">
-        <v>5750</v>
+        <v>10870</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>160</v>
+        <v>3623</v>
       </c>
       <c r="Q125" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9432,13 +9432,13 @@
         <v>160</v>
       </c>
       <c r="K126" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L126" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>11250</v>
+        <v>13500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q126" t="n">
         <v>3</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9504,13 +9504,13 @@
         <v>50</v>
       </c>
       <c r="K127" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L127" t="n">
         <v>6000</v>
       </c>
       <c r="M127" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Q127" t="n">
         <v>36</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44328</v>
+        <v>44330</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
         <v>11000</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M128" t="n">
-        <v>11000</v>
+        <v>11250</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3667</v>
+        <v>3750</v>
       </c>
       <c r="Q128" t="n">
         <v>3</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44187</v>
+        <v>44328</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K129" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L129" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M129" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q129" t="n">
         <v>36</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44187</v>
+        <v>44328</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K130" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L130" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M130" t="n">
-        <v>11167</v>
+        <v>11000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3722</v>
+        <v>3667</v>
       </c>
       <c r="Q130" t="n">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M131" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q131" t="n">
         <v>36</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K132" t="n">
         <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M132" t="n">
-        <v>10500</v>
+        <v>11167</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3500</v>
+        <v>3722</v>
       </c>
       <c r="Q132" t="n">
         <v>3</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L133" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M133" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q133" t="n">
         <v>36</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K134" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q134" t="n">
         <v>3</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10080,13 +10080,13 @@
         <v>70</v>
       </c>
       <c r="K135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M135" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q135" t="n">
         <v>36</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M136" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3500</v>
+        <v>4333</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K137" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L137" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M137" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q137" t="n">
         <v>36</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K138" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4833</v>
+        <v>3500</v>
       </c>
       <c r="Q138" t="n">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K139" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L139" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M139" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q139" t="n">
         <v>36</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M140" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q140" t="n">
         <v>3</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44209</v>
+        <v>44320</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K141" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M141" t="n">
-        <v>8941</v>
+        <v>7000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2980</v>
+        <v>194</v>
       </c>
       <c r="Q141" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44278</v>
+        <v>44320</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
         <v>10000</v>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>278</v>
+        <v>3333</v>
       </c>
       <c r="Q142" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44278</v>
+        <v>44209</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>14500</v>
+        <v>8941</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4833</v>
+        <v>2980</v>
       </c>
       <c r="Q143" t="n">
         <v>3</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K144" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L144" t="n">
         <v>10000</v>
       </c>
       <c r="M144" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q144" t="n">
         <v>36</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L145" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M145" t="n">
-        <v>21861</v>
+        <v>14500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>7287</v>
+        <v>4833</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K146" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L146" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q146" t="n">
         <v>36</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K147" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M147" t="n">
-        <v>14500</v>
+        <v>21861</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4833</v>
+        <v>7287</v>
       </c>
       <c r="Q147" t="n">
         <v>3</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44250</v>
+        <v>44385</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,20 +11013,20 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K148" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L148" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M148" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q148" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L149" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M149" t="n">
-        <v>11250</v>
+        <v>14500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3750</v>
+        <v>4833</v>
       </c>
       <c r="Q149" t="n">
         <v>3</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L150" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M150" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>167</v>
+        <v>4167</v>
       </c>
       <c r="Q150" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44334</v>
+        <v>44221</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K151" t="n">
         <v>10000</v>
       </c>
       <c r="L151" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M151" t="n">
-        <v>10500</v>
+        <v>11250</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="Q151" t="n">
         <v>3</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11304,13 +11304,13 @@
         <v>50</v>
       </c>
       <c r="K152" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L152" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M152" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q152" t="n">
         <v>36</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11376,13 +11376,13 @@
         <v>160</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M153" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q153" t="n">
         <v>3</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,13 +11448,13 @@
         <v>50</v>
       </c>
       <c r="K154" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L154" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M154" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q154" t="n">
         <v>36</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K155" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L155" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M155" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3500</v>
+        <v>4333</v>
       </c>
       <c r="Q155" t="n">
         <v>3</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44200</v>
+        <v>44340</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,20 +11589,20 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K156" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L156" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M156" t="n">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>5167</v>
+        <v>167</v>
       </c>
       <c r="Q156" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44265</v>
+        <v>44340</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K157" t="n">
         <v>10000</v>
       </c>
       <c r="L157" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M157" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q157" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44265</v>
+        <v>44200</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K158" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L158" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M158" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4000</v>
+        <v>5167</v>
       </c>
       <c r="Q158" t="n">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44186</v>
+        <v>44265</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K159" t="n">
         <v>10000</v>
       </c>
       <c r="L159" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M159" t="n">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3583</v>
+        <v>278</v>
       </c>
       <c r="Q159" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44252</v>
+        <v>44265</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11880,13 +11880,13 @@
         <v>160</v>
       </c>
       <c r="K160" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L160" t="n">
         <v>13000</v>
       </c>
-      <c r="L160" t="n">
-        <v>14000</v>
-      </c>
       <c r="M160" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q160" t="n">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44371</v>
+        <v>44186</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,20 +11949,20 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K161" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L161" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M161" t="n">
-        <v>5000</v>
+        <v>10750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>139</v>
+        <v>3583</v>
       </c>
       <c r="Q161" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12024,13 +12024,13 @@
         <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M162" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q162" t="n">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K163" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M163" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="Q163" t="n">
         <v>36</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L164" t="n">
-        <v>22000</v>
+        <v>10500</v>
       </c>
       <c r="M164" t="n">
-        <v>21013</v>
+        <v>10250</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>7004</v>
+        <v>3417</v>
       </c>
       <c r="Q164" t="n">
         <v>3</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12240,13 +12240,13 @@
         <v>43</v>
       </c>
       <c r="K165" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L165" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M165" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q165" t="n">
         <v>36</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K166" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L166" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="M166" t="n">
-        <v>10250</v>
+        <v>21013</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3417</v>
+        <v>7004</v>
       </c>
       <c r="Q166" t="n">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K167" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L167" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M167" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="Q167" t="n">
         <v>36</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M168" t="n">
-        <v>12992</v>
+        <v>10250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4331</v>
+        <v>3417</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M169" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q169" t="n">
         <v>36</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K170" t="n">
         <v>12000</v>
       </c>
       <c r="L170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M170" t="n">
-        <v>12500</v>
+        <v>12992</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4167</v>
+        <v>4331</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12672,13 +12672,13 @@
         <v>70</v>
       </c>
       <c r="K171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q171" t="n">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K173" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M173" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L174" t="n">
         <v>13000</v>
       </c>
       <c r="M174" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4333</v>
+        <v>4167</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K175" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L175" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M175" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
         <v>13000</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44277</v>
+        <v>44300</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13104,17 +13104,17 @@
         <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L177" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M177" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,20 +13173,20 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L178" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M178" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>194</v>
+        <v>4333</v>
       </c>
       <c r="Q178" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K179" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L179" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4167</v>
+        <v>5000</v>
       </c>
       <c r="Q179" t="n">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K180" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L180" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M180" t="n">
-        <v>9091</v>
+        <v>7000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3030</v>
+        <v>194</v>
       </c>
       <c r="Q180" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44217</v>
+        <v>44392</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K181" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M181" t="n">
-        <v>9130</v>
+        <v>12500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3043</v>
+        <v>4167</v>
       </c>
       <c r="Q181" t="n">
         <v>3</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44295</v>
+        <v>44224</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,20 +13461,20 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="K182" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L182" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M182" t="n">
-        <v>7000</v>
+        <v>9091</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>194</v>
+        <v>3030</v>
       </c>
       <c r="Q182" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K183" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L183" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M183" t="n">
-        <v>13500</v>
+        <v>9130</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>4500</v>
+        <v>3043</v>
       </c>
       <c r="Q183" t="n">
         <v>3</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,20 +13605,20 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K184" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L184" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M184" t="n">
-        <v>10667</v>
+        <v>7000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3556</v>
+        <v>194</v>
       </c>
       <c r="Q184" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44362</v>
+        <v>44295</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,20 +13677,20 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L185" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M185" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>153</v>
+        <v>4500</v>
       </c>
       <c r="Q185" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="K186" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L186" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M186" t="n">
-        <v>9750</v>
+        <v>10667</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3250</v>
+        <v>3556</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L187" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M187" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>5000</v>
+        <v>153</v>
       </c>
       <c r="Q187" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,20 +13893,20 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="L188" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M188" t="n">
-        <v>7000</v>
+        <v>9750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>194</v>
+        <v>3250</v>
       </c>
       <c r="Q188" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13968,13 +13968,13 @@
         <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M189" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q189" t="n">
         <v>3</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K190" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L190" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M190" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q190" t="n">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14112,13 +14112,13 @@
         <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L191" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M191" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>4833</v>
+        <v>4000</v>
       </c>
       <c r="Q191" t="n">
         <v>3</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K192" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L192" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M192" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q192" t="n">
         <v>36</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M193" t="n">
-        <v>9043</v>
+        <v>14500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3014</v>
+        <v>4833</v>
       </c>
       <c r="Q193" t="n">
         <v>3</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>50</v>
       </c>
       <c r="K194" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L194" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M194" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q194" t="n">
         <v>36</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K195" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L195" t="n">
         <v>10000</v>
       </c>
       <c r="M195" t="n">
-        <v>10000</v>
+        <v>9043</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3333</v>
+        <v>3014</v>
       </c>
       <c r="Q195" t="n">
         <v>3</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,13 +14472,13 @@
         <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L196" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M196" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q196" t="n">
         <v>36</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14544,13 +14544,13 @@
         <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L197" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M197" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4833</v>
+        <v>3333</v>
       </c>
       <c r="Q197" t="n">
         <v>3</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L198" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M198" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q198" t="n">
         <v>36</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
         <v>14000</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K200" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L200" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M200" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q200" t="n">
         <v>36</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L201" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M201" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q201" t="n">
         <v>3</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,20 +14901,20 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K202" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L202" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M202" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -14923,10 +14923,10 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>5500</v>
+        <v>167</v>
       </c>
       <c r="Q202" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R202" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44452</v>
+        <v>44365</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M203" t="n">
-        <v>13010</v>
+        <v>10250</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>4337</v>
+        <v>3417</v>
       </c>
       <c r="Q203" t="n">
         <v>3</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K204" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L204" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M204" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>139</v>
+        <v>5500</v>
       </c>
       <c r="Q204" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K205" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L205" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M205" t="n">
-        <v>9500</v>
+        <v>13010</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3167</v>
+        <v>4337</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M206" t="n">
-        <v>9158</v>
+        <v>5000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3053</v>
+        <v>139</v>
       </c>
       <c r="Q206" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,20 +15261,20 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L207" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M207" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>236</v>
+        <v>3167</v>
       </c>
       <c r="Q207" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="K208" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L208" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M208" t="n">
-        <v>19000</v>
+        <v>9158</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>6333</v>
+        <v>3053</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L209" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M209" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q209" t="n">
         <v>36</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K210" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L210" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M210" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>5167</v>
+        <v>6333</v>
       </c>
       <c r="Q210" t="n">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K211" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L211" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M211" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q211" t="n">
         <v>36</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K212" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L212" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M212" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>4833</v>
+        <v>5167</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15696,13 +15696,13 @@
         <v>50</v>
       </c>
       <c r="K213" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L213" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M213" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q213" t="n">
         <v>36</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K214" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M214" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3333</v>
+        <v>4833</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15840,13 +15840,13 @@
         <v>50</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M215" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q215" t="n">
         <v>36</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L216" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>4333</v>
+        <v>3333</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K217" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L217" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q217" t="n">
         <v>36</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L218" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M218" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3500</v>
+        <v>4333</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K219" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L219" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M219" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q219" t="n">
         <v>36</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K220" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L220" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M220" t="n">
-        <v>17495</v>
+        <v>10500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>5832</v>
+        <v>3500</v>
       </c>
       <c r="Q220" t="n">
         <v>3</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16275,10 +16275,10 @@
         <v>9000</v>
       </c>
       <c r="L221" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M221" t="n">
-        <v>9488</v>
+        <v>9000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q221" t="n">
         <v>36</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K222" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L222" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M222" t="n">
-        <v>21013</v>
+        <v>17495</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>7004</v>
+        <v>5832</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L223" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>8500</v>
+        <v>9488</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Q223" t="n">
         <v>36</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K224" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L224" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M224" t="n">
-        <v>15500</v>
+        <v>21013</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>5167</v>
+        <v>7004</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K225" t="n">
         <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M225" t="n">
-        <v>8960</v>
+        <v>8500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>2987</v>
+        <v>236</v>
       </c>
       <c r="Q225" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44194</v>
+        <v>44434</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="K226" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L226" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M226" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>250</v>
+        <v>5167</v>
       </c>
       <c r="Q226" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K227" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L227" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>14500</v>
+        <v>8960</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>4833</v>
+        <v>2987</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,20 +16773,20 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K228" t="n">
         <v>9000</v>
       </c>
       <c r="L228" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M228" t="n">
-        <v>9619</v>
+        <v>9000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>3206</v>
+        <v>250</v>
       </c>
       <c r="Q228" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K229" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L229" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M229" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>194</v>
+        <v>4833</v>
       </c>
       <c r="Q229" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K230" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L230" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>13500</v>
+        <v>9619</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4500</v>
+        <v>3206</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16992,13 +16992,13 @@
         <v>34</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M231" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q231" t="n">
         <v>36</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K232" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L232" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M232" t="n">
-        <v>21013</v>
+        <v>13500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>7004</v>
+        <v>4500</v>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K233" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M233" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q233" t="n">
         <v>36</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K234" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L234" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M234" t="n">
-        <v>10500</v>
+        <v>21013</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3500</v>
+        <v>7004</v>
       </c>
       <c r="Q234" t="n">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q235" t="n">
         <v>36</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
         <v>11000</v>
       </c>
       <c r="M236" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3667</v>
+        <v>3500</v>
       </c>
       <c r="Q236" t="n">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L237" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M237" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q237" t="n">
         <v>36</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K238" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3067</v>
+        <v>3667</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M239" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q239" t="n">
         <v>36</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K240" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L240" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M240" t="n">
-        <v>13500</v>
+        <v>9200</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>4500</v>
+        <v>3067</v>
       </c>
       <c r="Q240" t="n">
         <v>3</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K241" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L241" t="n">
         <v>10000</v>
       </c>
       <c r="M241" t="n">
-        <v>9512</v>
+        <v>10000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q241" t="n">
         <v>36</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M242" t="n">
-        <v>18987</v>
+        <v>13500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>6329</v>
+        <v>4500</v>
       </c>
       <c r="Q242" t="n">
         <v>3</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K243" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L243" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>6000</v>
+        <v>9512</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="Q243" t="n">
         <v>36</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="K244" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L244" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M244" t="n">
-        <v>10486</v>
+        <v>18987</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3495</v>
+        <v>6329</v>
       </c>
       <c r="Q244" t="n">
         <v>3</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L245" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M245" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q245" t="n">
         <v>36</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="K246" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L246" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M246" t="n">
-        <v>20984</v>
+        <v>10486</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>6995</v>
+        <v>3495</v>
       </c>
       <c r="Q246" t="n">
         <v>3</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q247" t="n">
         <v>36</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M248" t="n">
-        <v>12000</v>
+        <v>20984</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>4000</v>
+        <v>6995</v>
       </c>
       <c r="Q248" t="n">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,20 +18285,20 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K249" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>4000</v>
+        <v>194</v>
       </c>
       <c r="Q249" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3167</v>
+        <v>4000</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,20 +18429,20 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K251" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L251" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M251" t="n">
         <v>12000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>333</v>
+        <v>4000</v>
       </c>
       <c r="Q251" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K252" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L252" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M252" t="n">
-        <v>22987</v>
+        <v>9500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>7662</v>
+        <v>3167</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K253" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M253" t="n">
-        <v>5508</v>
+        <v>12000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M254" t="n">
-        <v>10992</v>
+        <v>22987</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3664</v>
+        <v>7662</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K255" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L255" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M255" t="n">
-        <v>8000</v>
+        <v>5508</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q255" t="n">
         <v>36</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,7 +18789,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="K256" t="n">
         <v>10000</v>
@@ -18798,7 +18798,7 @@
         <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>11111</v>
+        <v>10992</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3704</v>
+        <v>3664</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K257" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L257" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M257" t="n">
-        <v>9494</v>
+        <v>8000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="K258" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L258" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>19000</v>
+        <v>11111</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>6333</v>
+        <v>3704</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K259" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L259" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M259" t="n">
-        <v>5000</v>
+        <v>9494</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K260" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L260" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M260" t="n">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3500</v>
+        <v>6333</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19152,13 +19152,13 @@
         <v>70</v>
       </c>
       <c r="K261" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L261" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M261" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q261" t="n">
         <v>36</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19227,11 +19227,11 @@
         <v>10000</v>
       </c>
       <c r="L262" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M262" t="n">
         <v>10500</v>
       </c>
-      <c r="M262" t="n">
-        <v>10250</v>
-      </c>
       <c r="N262" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19296,17 +19296,17 @@
         <v>70</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>4167</v>
+        <v>167</v>
       </c>
       <c r="Q263" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,20 +19365,20 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
         <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M264" t="n">
-        <v>10000</v>
+        <v>10250</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>278</v>
+        <v>3417</v>
       </c>
       <c r="Q264" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K265" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M265" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>5000</v>
+        <v>4167</v>
       </c>
       <c r="Q265" t="n">
         <v>3</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K266" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q266" t="n">
         <v>36</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K267" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L267" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q267" t="n">
         <v>3</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q268" t="n">
         <v>36</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K269" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M269" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>4333</v>
+        <v>3500</v>
       </c>
       <c r="Q269" t="n">
         <v>3</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,13 +19800,13 @@
         <v>70</v>
       </c>
       <c r="K270" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L270" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M270" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q270" t="n">
         <v>36</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19872,13 +19872,13 @@
         <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L271" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M271" t="n">
-        <v>10250</v>
+        <v>13000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>3417</v>
+        <v>4333</v>
       </c>
       <c r="Q271" t="n">
         <v>3</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,13 +19944,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L272" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M272" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q272" t="n">
         <v>36</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20016,13 +20016,13 @@
         <v>160</v>
       </c>
       <c r="K273" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L273" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M273" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q273" t="n">
         <v>3</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M274" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Q274" t="n">
         <v>36</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M276" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="Q276" t="n">
         <v>36</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20304,13 +20304,13 @@
         <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L277" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K278" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L278" t="n">
         <v>6000</v>
       </c>
       <c r="M278" t="n">
-        <v>5488</v>
+        <v>6000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q278" t="n">
         <v>36</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L279" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M279" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3667</v>
+        <v>4500</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K280" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L280" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M280" t="n">
-        <v>10000</v>
+        <v>5488</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K281" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M281" t="n">
-        <v>21010</v>
+        <v>11000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>7003</v>
+        <v>3667</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L283" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M283" t="n">
-        <v>10000</v>
+        <v>21010</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3333</v>
+        <v>7003</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L284" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M284" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q284" t="n">
         <v>36</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M285" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3667</v>
+        <v>3333</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K286" t="n">
         <v>6000</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,13 +21021,13 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L287" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M287" t="n">
         <v>11000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K288" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L288" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M288" t="n">
-        <v>10800</v>
+        <v>6000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>3600</v>
+        <v>167</v>
       </c>
       <c r="Q288" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="K289" t="n">
         <v>10000</v>
       </c>
       <c r="L289" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>278</v>
+        <v>3667</v>
       </c>
       <c r="Q289" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K290" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L290" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M290" t="n">
-        <v>19000</v>
+        <v>10800</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>6333</v>
+        <v>3600</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K291" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L291" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M291" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q291" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,20 +21381,20 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K292" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L292" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M292" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>250</v>
+        <v>6333</v>
       </c>
       <c r="Q292" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K293" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L293" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M293" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>5667</v>
+        <v>4167</v>
       </c>
       <c r="Q293" t="n">
         <v>3</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K294" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L294" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M294" t="n">
-        <v>5492</v>
+        <v>9000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="Q294" t="n">
         <v>36</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K295" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L295" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M295" t="n">
-        <v>10992</v>
+        <v>17000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3664</v>
+        <v>5667</v>
       </c>
       <c r="Q295" t="n">
         <v>3</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>253</v>
+        <v>61</v>
       </c>
       <c r="K296" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L296" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M296" t="n">
-        <v>8810</v>
+        <v>5492</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="Q296" t="n">
         <v>36</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>557</v>
+        <v>133</v>
       </c>
       <c r="K297" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L297" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M297" t="n">
-        <v>18393</v>
+        <v>10992</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>6131</v>
+        <v>3664</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>8810</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>557</v>
       </c>
       <c r="K299" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L299" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M299" t="n">
-        <v>12000</v>
+        <v>18393</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>4000</v>
+        <v>6131</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K300" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L300" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3167</v>
+        <v>194</v>
       </c>
       <c r="Q300" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L301" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>167</v>
+        <v>4000</v>
       </c>
       <c r="Q301" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K302" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L302" t="n">
         <v>10000</v>
       </c>
-      <c r="L302" t="n">
-        <v>10500</v>
-      </c>
       <c r="M302" t="n">
-        <v>10250</v>
+        <v>9500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>3417</v>
+        <v>3167</v>
       </c>
       <c r="Q302" t="n">
         <v>3</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K303" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L303" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M303" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q303" t="n">
         <v>36</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K304" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L304" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M304" t="n">
-        <v>14500</v>
+        <v>10250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>4833</v>
+        <v>3417</v>
       </c>
       <c r="Q304" t="n">
         <v>3</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K305" t="n">
         <v>10000</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K306" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L306" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M306" t="n">
-        <v>21241</v>
+        <v>14500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>7080</v>
+        <v>4833</v>
       </c>
       <c r="Q306" t="n">
         <v>3</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q307" t="n">
         <v>36</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="K308" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L308" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M308" t="n">
-        <v>9263</v>
+        <v>21241</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3088</v>
+        <v>7080</v>
       </c>
       <c r="Q308" t="n">
         <v>3</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22608,13 +22608,13 @@
         <v>50</v>
       </c>
       <c r="K309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q309" t="n">
         <v>36</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K310" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L310" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M310" t="n">
-        <v>12000</v>
+        <v>9263</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>4000</v>
+        <v>3088</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K311" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L311" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M311" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q311" t="n">
         <v>36</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K312" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L312" t="n">
         <v>12000</v>
       </c>
       <c r="M312" t="n">
-        <v>11008</v>
+        <v>12000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>3669</v>
+        <v>4000</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L313" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M313" t="n">
-        <v>7333</v>
+        <v>6000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="Q313" t="n">
         <v>36</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="K314" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L314" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>9571</v>
+        <v>11008</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>3190</v>
+        <v>3669</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K315" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
         <v>8000</v>
       </c>
       <c r="M315" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q315" t="n">
         <v>36</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="K316" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L316" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M316" t="n">
-        <v>12500</v>
+        <v>9571</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>4167</v>
+        <v>3190</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K317" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L317" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M317" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q317" t="n">
         <v>36</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K318" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L318" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M318" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23328,13 +23328,13 @@
         <v>70</v>
       </c>
       <c r="K319" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L319" t="n">
         <v>7000</v>
       </c>
       <c r="M319" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23400,13 +23400,13 @@
         <v>160</v>
       </c>
       <c r="K320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L320" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M320" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,12 +23419,156 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
       </c>
       <c r="R320" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>9</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E321" t="n">
+        <v>13</v>
+      </c>
+      <c r="F321" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>70</v>
+      </c>
+      <c r="K321" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L321" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M321" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>188</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>36</v>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E322" t="n">
+        <v>13</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>160</v>
+      </c>
+      <c r="K322" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L322" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M322" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>3</v>
+      </c>
+      <c r="R322" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K215" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M215" t="n">
-        <v>10000</v>
+        <v>4250</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="Q215" t="n">
         <v>36</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K216" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L216" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>20990</v>
+        <v>9008</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>6997</v>
+        <v>3003</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K217" t="n">
         <v>10000</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K218" t="n">
         <v>20000</v>
@@ -16062,7 +16062,7 @@
         <v>22000</v>
       </c>
       <c r="M218" t="n">
-        <v>20984</v>
+        <v>20990</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>6995</v>
+        <v>6997</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K219" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L219" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M219" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>2852</v>
+        <v>278</v>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,20 +16197,20 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K220" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M220" t="n">
-        <v>9512</v>
+        <v>20984</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>264</v>
+        <v>6995</v>
       </c>
       <c r="Q220" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K221" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L221" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M221" t="n">
-        <v>18987</v>
+        <v>8556</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6329</v>
+        <v>2852</v>
       </c>
       <c r="Q221" t="n">
         <v>3</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K222" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M222" t="n">
-        <v>8500</v>
+        <v>9512</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>2833</v>
+        <v>264</v>
       </c>
       <c r="Q222" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K223" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L223" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M223" t="n">
-        <v>7000</v>
+        <v>18987</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>194</v>
+        <v>6329</v>
       </c>
       <c r="Q223" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K224" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M224" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>5500</v>
+        <v>2833</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K225" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L225" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M225" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q225" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K226" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L226" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M226" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>278</v>
+        <v>5500</v>
       </c>
       <c r="Q226" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16704,13 +16704,13 @@
         <v>160</v>
       </c>
       <c r="K227" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L227" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M227" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K228" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L228" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M228" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q228" t="n">
         <v>36</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L229" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M229" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q229" t="n">
         <v>3</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K230" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L230" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M230" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q230" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
         <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M231" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q231" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K232" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L232" t="n">
         <v>14000</v>
       </c>
-      <c r="L232" t="n">
-        <v>15000</v>
-      </c>
       <c r="M232" t="n">
-        <v>14500</v>
+        <v>12947</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>4833</v>
+        <v>4316</v>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K233" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M233" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q233" t="n">
         <v>36</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K234" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L234" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>12992</v>
+        <v>14500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>4331</v>
+        <v>4833</v>
       </c>
       <c r="Q234" t="n">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,20 +17277,20 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K235" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L235" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M235" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q235" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,20 +17349,20 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L236" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M236" t="n">
-        <v>10000</v>
+        <v>12992</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>278</v>
+        <v>4331</v>
       </c>
       <c r="Q236" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17568,13 +17568,13 @@
         <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L239" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M239" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="Q239" t="n">
         <v>3</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M240" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q240" t="n">
         <v>36</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L241" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M241" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3833</v>
+        <v>4167</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L242" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M242" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q242" t="n">
         <v>36</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K243" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
         <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K244" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L244" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M244" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q244" t="n">
         <v>36</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K245" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L245" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M245" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18144,13 +18144,13 @@
         <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L247" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M247" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q247" t="n">
         <v>3</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K250" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L250" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M250" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q250" t="n">
         <v>36</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K251" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L251" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M251" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q251" t="n">
         <v>3</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K252" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M252" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q252" t="n">
         <v>36</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K253" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L253" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M253" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q253" t="n">
         <v>3</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,20 +18645,20 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L254" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M254" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q254" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18720,13 +18720,13 @@
         <v>160</v>
       </c>
       <c r="K255" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L255" t="n">
         <v>12000</v>
       </c>
       <c r="M255" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q255" t="n">
         <v>3</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,13 +18792,13 @@
         <v>160</v>
       </c>
       <c r="K256" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L256" t="n">
         <v>13000</v>
       </c>
-      <c r="L256" t="n">
-        <v>14000</v>
-      </c>
       <c r="M256" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K257" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L257" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M257" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q257" t="n">
         <v>3</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,20 +18933,20 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L258" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M258" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q258" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,7 +19005,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K259" t="n">
         <v>8000</v>
@@ -19014,7 +19014,7 @@
         <v>10000</v>
       </c>
       <c r="M259" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q259" t="n">
         <v>3</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K260" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L260" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M260" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q260" t="n">
         <v>36</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K261" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L261" t="n">
         <v>10000</v>
       </c>
-      <c r="L261" t="n">
-        <v>10500</v>
-      </c>
       <c r="M261" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q261" t="n">
         <v>3</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K262" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L262" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M262" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q262" t="n">
         <v>36</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K263" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L263" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M263" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q263" t="n">
         <v>3</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,20 +19365,20 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M264" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q264" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K265" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L265" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M265" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q265" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K266" t="n">
         <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q267" t="n">
         <v>36</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M268" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>50</v>
       </c>
       <c r="K269" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M269" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q269" t="n">
         <v>36</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K270" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L270" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M270" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q271" t="n">
         <v>36</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,13 +19944,13 @@
         <v>70</v>
       </c>
       <c r="K272" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L272" t="n">
         <v>15000</v>
       </c>
-      <c r="L272" t="n">
-        <v>16000</v>
-      </c>
       <c r="M272" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K273" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L273" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M273" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q273" t="n">
         <v>36</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K274" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L274" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M274" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20160,17 +20160,17 @@
         <v>70</v>
       </c>
       <c r="K275" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L275" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M275" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q275" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K276" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L276" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M276" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q276" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K277" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L277" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M277" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20376,13 +20376,13 @@
         <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q278" t="n">
         <v>36</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20448,13 +20448,13 @@
         <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L279" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M279" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,7 +20517,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K280" t="n">
         <v>10000</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K281" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L281" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M281" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K282" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L282" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L283" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M283" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20808,13 +20808,13 @@
         <v>52</v>
       </c>
       <c r="K284" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L284" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M284" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q284" t="n">
         <v>36</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20880,13 +20880,13 @@
         <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M285" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K286" t="n">
         <v>8000</v>
       </c>
       <c r="L286" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M286" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q286" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L287" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M287" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q287" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K288" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L288" t="n">
         <v>10000</v>
       </c>
       <c r="M288" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K289" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L289" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M289" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q289" t="n">
         <v>36</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L290" t="n">
         <v>10000</v>
       </c>
-      <c r="L290" t="n">
-        <v>12000</v>
-      </c>
       <c r="M290" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K291" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L291" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M291" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21387,10 +21387,10 @@
         <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M292" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>70</v>
       </c>
       <c r="K293" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L293" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M293" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21531,11 +21531,11 @@
         <v>10000</v>
       </c>
       <c r="L294" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M294" t="n">
         <v>10500</v>
       </c>
-      <c r="M294" t="n">
-        <v>10250</v>
-      </c>
       <c r="N294" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21672,13 +21672,13 @@
         <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M296" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q297" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L298" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M298" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K299" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L299" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M299" t="n">
-        <v>5000</v>
+        <v>8960</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>139</v>
+        <v>2987</v>
       </c>
       <c r="Q299" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K300" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L300" t="n">
         <v>10000</v>
       </c>
       <c r="M300" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3250</v>
+        <v>3167</v>
       </c>
       <c r="Q300" t="n">
         <v>3</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K301" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M301" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q301" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L302" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q302" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K303" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L303" t="n">
         <v>10000</v>
       </c>
-      <c r="L303" t="n">
-        <v>12000</v>
-      </c>
       <c r="M303" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K305" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M305" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K306" t="n">
         <v>10000</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22470,7 +22470,7 @@
         <v>22000</v>
       </c>
       <c r="M307" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K308" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L308" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M308" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q308" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K309" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L309" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M309" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K310" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L310" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M310" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K311" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L311" t="n">
         <v>13000</v>
       </c>
-      <c r="L311" t="n">
-        <v>14000</v>
-      </c>
       <c r="M311" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K312" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L312" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M312" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q312" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L313" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M313" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23040,13 +23040,13 @@
         <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L315" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M315" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L316" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M316" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q316" t="n">
         <v>36</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K317" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L317" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M317" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q317" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K318" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L318" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M318" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q318" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23328,13 +23328,13 @@
         <v>70</v>
       </c>
       <c r="K319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K320" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L320" t="n">
         <v>10000</v>
       </c>
-      <c r="L320" t="n">
-        <v>11000</v>
-      </c>
       <c r="M320" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K321" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L321" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M321" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q321" t="n">
         <v>36</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K322" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L322" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M322" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K323" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L323" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M323" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q323" t="n">
         <v>36</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L324" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M324" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,12 +23707,156 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
       </c>
       <c r="R324" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>9</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E325" t="n">
+        <v>13</v>
+      </c>
+      <c r="F325" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>50</v>
+      </c>
+      <c r="K325" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L325" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M325" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>36</v>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>9</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>160</v>
+      </c>
+      <c r="K326" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L326" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M326" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>3</v>
+      </c>
+      <c r="R326" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K220" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M220" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="Q220" t="n">
         <v>36</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K221" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L221" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>20984</v>
+        <v>9000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6995</v>
+        <v>3000</v>
       </c>
       <c r="Q221" t="n">
         <v>3</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,20 +16341,20 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K222" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L222" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M222" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>2852</v>
+        <v>278</v>
       </c>
       <c r="Q222" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,20 +16413,20 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K223" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M223" t="n">
-        <v>9512</v>
+        <v>20984</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -16435,10 +16435,10 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>264</v>
+        <v>6995</v>
       </c>
       <c r="Q223" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R223" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K224" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L224" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M224" t="n">
-        <v>18987</v>
+        <v>8556</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>6329</v>
+        <v>2852</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,20 +16557,20 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K225" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L225" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M225" t="n">
-        <v>8500</v>
+        <v>9512</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>2833</v>
+        <v>264</v>
       </c>
       <c r="Q225" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K226" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L226" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M226" t="n">
-        <v>7000</v>
+        <v>18987</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>194</v>
+        <v>6329</v>
       </c>
       <c r="Q226" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K227" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L227" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M227" t="n">
-        <v>16500</v>
+        <v>8500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>5500</v>
+        <v>2833</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,20 +16773,20 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K228" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L228" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M228" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q228" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L229" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M229" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>278</v>
+        <v>5500</v>
       </c>
       <c r="Q229" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,13 +16920,13 @@
         <v>160</v>
       </c>
       <c r="K230" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L230" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M230" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K231" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q231" t="n">
         <v>36</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L232" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M232" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,20 +17133,20 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K233" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L233" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M233" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q233" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,20 +17205,20 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K234" t="n">
         <v>10000</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M234" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q234" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K235" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L235" t="n">
         <v>14000</v>
       </c>
-      <c r="L235" t="n">
-        <v>15000</v>
-      </c>
       <c r="M235" t="n">
-        <v>14500</v>
+        <v>12947</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>4833</v>
+        <v>4316</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K236" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M236" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q236" t="n">
         <v>36</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L237" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M237" t="n">
-        <v>12992</v>
+        <v>14500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>4331</v>
+        <v>4833</v>
       </c>
       <c r="Q237" t="n">
         <v>3</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K238" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L238" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M238" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q238" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,20 +17565,20 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K239" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L239" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M239" t="n">
-        <v>10000</v>
+        <v>12992</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>278</v>
+        <v>4331</v>
       </c>
       <c r="Q239" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17784,13 +17784,13 @@
         <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L242" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M242" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="Q242" t="n">
         <v>3</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K243" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M243" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q243" t="n">
         <v>36</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K244" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L244" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M244" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>3833</v>
+        <v>4167</v>
       </c>
       <c r="Q244" t="n">
         <v>3</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M245" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q245" t="n">
         <v>36</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K246" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L246" t="n">
         <v>12000</v>
       </c>
       <c r="M246" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q246" t="n">
         <v>3</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K247" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L247" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M247" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q247" t="n">
         <v>36</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K248" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L248" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M248" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q248" t="n">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18360,13 +18360,13 @@
         <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L250" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M250" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K253" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L253" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M253" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L254" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M254" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M255" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q255" t="n">
         <v>36</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L256" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M256" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,20 +18861,20 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L257" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M257" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q257" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18936,13 +18936,13 @@
         <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
         <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19008,13 +19008,13 @@
         <v>160</v>
       </c>
       <c r="K259" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L259" t="n">
         <v>13000</v>
       </c>
-      <c r="L259" t="n">
-        <v>14000</v>
-      </c>
       <c r="M259" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q259" t="n">
         <v>3</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L260" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M260" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K261" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L261" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M261" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q261" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K262" t="n">
         <v>8000</v>
@@ -19230,7 +19230,7 @@
         <v>10000</v>
       </c>
       <c r="M262" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L263" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M263" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K264" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L264" t="n">
         <v>10000</v>
       </c>
-      <c r="L264" t="n">
-        <v>10500</v>
-      </c>
       <c r="M264" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K265" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L265" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M265" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K266" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M266" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K267" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L267" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M267" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q267" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,20 +19653,20 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K268" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L268" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M268" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q268" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K269" t="n">
         <v>10000</v>
       </c>
       <c r="L269" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M269" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q269" t="n">
         <v>3</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q270" t="n">
         <v>36</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L271" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M271" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q271" t="n">
         <v>3</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19944,13 +19944,13 @@
         <v>50</v>
       </c>
       <c r="K272" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L272" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M272" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q272" t="n">
         <v>36</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K273" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L273" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M273" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q273" t="n">
         <v>3</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L274" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M274" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q274" t="n">
         <v>36</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20160,13 +20160,13 @@
         <v>70</v>
       </c>
       <c r="K275" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L275" t="n">
         <v>15000</v>
       </c>
-      <c r="L275" t="n">
-        <v>16000</v>
-      </c>
       <c r="M275" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q275" t="n">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K276" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L276" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M276" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q276" t="n">
         <v>36</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K277" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L277" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M277" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20376,17 +20376,17 @@
         <v>70</v>
       </c>
       <c r="K278" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M278" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q278" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M279" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q279" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K280" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M280" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q280" t="n">
         <v>3</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20592,13 +20592,13 @@
         <v>50</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M281" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q281" t="n">
         <v>36</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20664,13 +20664,13 @@
         <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L282" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M282" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q282" t="n">
         <v>3</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K283" t="n">
         <v>10000</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L284" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q284" t="n">
         <v>3</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K285" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M285" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q285" t="n">
         <v>36</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K286" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L286" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M286" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q286" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>52</v>
       </c>
       <c r="K287" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L287" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M287" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q287" t="n">
         <v>36</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,13 +21096,13 @@
         <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L288" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M288" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K289" t="n">
         <v>8000</v>
       </c>
       <c r="L289" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M289" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q289" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L290" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M290" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q290" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K291" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L291" t="n">
         <v>10000</v>
       </c>
       <c r="M291" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q291" t="n">
         <v>3</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K292" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L292" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M292" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q292" t="n">
         <v>36</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L293" t="n">
         <v>10000</v>
       </c>
-      <c r="L293" t="n">
-        <v>12000</v>
-      </c>
       <c r="M293" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q293" t="n">
         <v>3</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K294" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L294" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M294" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q294" t="n">
         <v>36</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21603,10 +21603,10 @@
         <v>10000</v>
       </c>
       <c r="L295" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M295" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q295" t="n">
         <v>3</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21672,13 +21672,13 @@
         <v>70</v>
       </c>
       <c r="K296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q296" t="n">
         <v>36</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21747,11 +21747,11 @@
         <v>10000</v>
       </c>
       <c r="L297" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M297" t="n">
         <v>10500</v>
       </c>
-      <c r="M297" t="n">
-        <v>10250</v>
-      </c>
       <c r="N297" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21888,13 +21888,13 @@
         <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L299" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M299" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K300" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L300" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M300" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q300" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M301" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K302" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>5000</v>
+        <v>8960</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>139</v>
+        <v>2987</v>
       </c>
       <c r="Q302" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K303" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L303" t="n">
         <v>10000</v>
       </c>
       <c r="M303" t="n">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3250</v>
+        <v>3167</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M304" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q304" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L305" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q305" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K306" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L306" t="n">
         <v>10000</v>
       </c>
-      <c r="L306" t="n">
-        <v>12000</v>
-      </c>
       <c r="M306" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q306" t="n">
         <v>3</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M307" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q307" t="n">
         <v>36</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K308" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L308" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M308" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q308" t="n">
         <v>3</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,7 +22605,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K309" t="n">
         <v>10000</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22686,7 +22686,7 @@
         <v>22000</v>
       </c>
       <c r="M310" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K311" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L311" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q311" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K312" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L312" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M312" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K313" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M313" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K314" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L314" t="n">
         <v>13000</v>
       </c>
-      <c r="L314" t="n">
-        <v>14000</v>
-      </c>
       <c r="M314" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K315" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L315" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M315" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q315" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L316" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M316" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K317" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L317" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M317" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q317" t="n">
         <v>36</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23256,13 +23256,13 @@
         <v>160</v>
       </c>
       <c r="K318" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L318" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M318" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K319" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L319" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M319" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,20 +23397,20 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K320" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L320" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M320" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q320" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K321" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L321" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M321" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q321" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23544,13 +23544,13 @@
         <v>70</v>
       </c>
       <c r="K322" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L322" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M322" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q322" t="n">
         <v>36</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K323" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L323" t="n">
         <v>10000</v>
       </c>
-      <c r="L323" t="n">
-        <v>11000</v>
-      </c>
       <c r="M323" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K324" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L324" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M324" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K325" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M325" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K326" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L326" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M326" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q326" t="n">
         <v>36</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K327" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L327" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M327" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,12 +23923,156 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
       </c>
       <c r="R327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>9</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E328" t="n">
+        <v>13</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J328" t="n">
+        <v>50</v>
+      </c>
+      <c r="K328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>36</v>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>9</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J329" t="n">
+        <v>160</v>
+      </c>
+      <c r="K329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M329" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>3</v>
+      </c>
+      <c r="R329" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R329"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K304" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L304" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M304" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K305" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L305" t="n">
         <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K306" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L306" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M306" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q306" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,20 +22461,20 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L307" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M307" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q307" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K308" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L308" t="n">
         <v>10000</v>
       </c>
-      <c r="L308" t="n">
-        <v>12000</v>
-      </c>
       <c r="M308" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q308" t="n">
         <v>3</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K309" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M309" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q309" t="n">
         <v>36</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K310" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L310" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M310" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K311" t="n">
         <v>10000</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22830,7 +22830,7 @@
         <v>22000</v>
       </c>
       <c r="M312" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K313" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L313" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q313" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K314" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L314" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M314" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K315" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L315" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M315" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K316" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L316" t="n">
         <v>13000</v>
       </c>
-      <c r="L316" t="n">
-        <v>14000</v>
-      </c>
       <c r="M316" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K317" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L317" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q317" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K318" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L318" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M318" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23400,13 +23400,13 @@
         <v>160</v>
       </c>
       <c r="K320" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L320" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M320" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K321" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L321" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M321" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q321" t="n">
         <v>36</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,20 +23541,20 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K322" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L322" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M322" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q322" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K323" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L323" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M323" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q323" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23688,13 +23688,13 @@
         <v>70</v>
       </c>
       <c r="K324" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L324" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M324" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L325" t="n">
         <v>10000</v>
       </c>
-      <c r="L325" t="n">
-        <v>11000</v>
-      </c>
       <c r="M325" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q326" t="n">
         <v>36</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K327" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L327" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M327" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K328" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L328" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M328" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q328" t="n">
         <v>36</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K329" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L329" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M329" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,12 +24067,156 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q329" t="n">
         <v>3</v>
       </c>
       <c r="R329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>9</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>50</v>
+      </c>
+      <c r="K330" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L330" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M330" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>36</v>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>9</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J331" t="n">
+        <v>160</v>
+      </c>
+      <c r="K331" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L331" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M331" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>3</v>
+      </c>
+      <c r="R331" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R333"/>
+  <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K257" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L257" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M257" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K258" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L258" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M258" t="n">
-        <v>14500</v>
+        <v>9008</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4833</v>
+        <v>3003</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M259" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L260" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M260" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,20 +19149,20 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K261" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L261" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M261" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q261" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19224,13 +19224,13 @@
         <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
         <v>12000</v>
       </c>
       <c r="M262" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19296,13 +19296,13 @@
         <v>160</v>
       </c>
       <c r="K263" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L263" t="n">
         <v>13000</v>
       </c>
-      <c r="L263" t="n">
-        <v>14000</v>
-      </c>
       <c r="M263" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q263" t="n">
         <v>3</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q265" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K266" t="n">
         <v>8000</v>
@@ -19518,7 +19518,7 @@
         <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K267" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L267" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M267" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q267" t="n">
         <v>36</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L268" t="n">
         <v>10000</v>
       </c>
-      <c r="L268" t="n">
-        <v>10500</v>
-      </c>
       <c r="M268" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K269" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L269" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M269" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q269" t="n">
         <v>36</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K270" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M270" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K271" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L271" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M271" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q271" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,20 +19941,20 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K272" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L272" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M272" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q272" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K273" t="n">
         <v>10000</v>
       </c>
       <c r="L273" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M273" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q273" t="n">
         <v>3</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K274" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L274" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M274" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q274" t="n">
         <v>36</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K275" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L275" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M275" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q275" t="n">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20232,13 +20232,13 @@
         <v>50</v>
       </c>
       <c r="K276" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L276" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M276" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q276" t="n">
         <v>36</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K277" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L277" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M277" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M278" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q278" t="n">
         <v>36</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20448,13 +20448,13 @@
         <v>70</v>
       </c>
       <c r="K279" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L279" t="n">
         <v>15000</v>
       </c>
-      <c r="L279" t="n">
-        <v>16000</v>
-      </c>
       <c r="M279" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K280" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L280" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K281" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L281" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M281" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20664,17 +20664,17 @@
         <v>70</v>
       </c>
       <c r="K282" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L282" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M282" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,20 +20733,20 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M283" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q283" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K284" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L284" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q284" t="n">
         <v>3</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20880,13 +20880,13 @@
         <v>50</v>
       </c>
       <c r="K285" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L285" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M285" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q285" t="n">
         <v>36</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20952,13 +20952,13 @@
         <v>160</v>
       </c>
       <c r="K286" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L286" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M286" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q286" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K287" t="n">
         <v>10000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L288" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M288" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K289" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L289" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M289" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q289" t="n">
         <v>36</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L290" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M290" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21312,13 +21312,13 @@
         <v>52</v>
       </c>
       <c r="K291" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L291" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M291" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L292" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M292" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,20 +21453,20 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K293" t="n">
         <v>8000</v>
       </c>
       <c r="L293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M293" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q293" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,20 +21525,20 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L294" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M294" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q294" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K295" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L295" t="n">
         <v>10000</v>
       </c>
       <c r="M295" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q295" t="n">
         <v>3</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K296" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L296" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M296" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q296" t="n">
         <v>36</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L297" t="n">
         <v>10000</v>
       </c>
-      <c r="L297" t="n">
-        <v>12000</v>
-      </c>
       <c r="M297" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K298" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L298" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M298" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21891,10 +21891,10 @@
         <v>10000</v>
       </c>
       <c r="L299" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M299" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21960,13 +21960,13 @@
         <v>70</v>
       </c>
       <c r="K300" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L300" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M300" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q300" t="n">
         <v>36</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22035,11 +22035,11 @@
         <v>10000</v>
       </c>
       <c r="L301" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M301" t="n">
         <v>10500</v>
       </c>
-      <c r="M301" t="n">
-        <v>10250</v>
-      </c>
       <c r="N301" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K302" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L302" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M302" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22176,13 +22176,13 @@
         <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M303" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M304" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q304" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L305" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M305" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K306" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L306" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M306" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q306" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L307" t="n">
         <v>10000</v>
       </c>
       <c r="M307" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K308" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L308" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M308" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K309" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
         <v>10000</v>
       </c>
       <c r="M309" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,20 +22677,20 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K310" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L310" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M310" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q310" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,20 +22749,20 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L311" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q311" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K312" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L312" t="n">
         <v>10000</v>
       </c>
-      <c r="L312" t="n">
-        <v>12000</v>
-      </c>
       <c r="M312" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M313" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q313" t="n">
         <v>36</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K314" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L314" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M314" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,7 +23037,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K315" t="n">
         <v>10000</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23118,7 +23118,7 @@
         <v>22000</v>
       </c>
       <c r="M316" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K317" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L317" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q317" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K318" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L318" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M318" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K319" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L319" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M319" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q319" t="n">
         <v>3</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K320" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L320" t="n">
         <v>13000</v>
       </c>
-      <c r="L320" t="n">
-        <v>14000</v>
-      </c>
       <c r="M320" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K321" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L321" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M321" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q321" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K322" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L322" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M322" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q323" t="n">
         <v>36</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23688,13 +23688,13 @@
         <v>160</v>
       </c>
       <c r="K324" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L324" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M324" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
@@ -23753,20 +23753,20 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K325" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L325" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M325" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q325" t="n">
         <v>36</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,20 +23829,20 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K326" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L326" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M326" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q326" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23897,24 +23897,24 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K327" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L327" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M327" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q327" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23976,13 +23976,13 @@
         <v>70</v>
       </c>
       <c r="K328" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L328" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M328" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q328" t="n">
         <v>36</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K329" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L329" t="n">
         <v>10000</v>
       </c>
-      <c r="L329" t="n">
-        <v>11000</v>
-      </c>
       <c r="M329" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q329" t="n">
         <v>3</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K330" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L330" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M330" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q330" t="n">
         <v>36</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K331" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L331" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M331" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q331" t="n">
         <v>3</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K332" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L332" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M332" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q332" t="n">
         <v>36</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K333" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L333" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M333" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,12 +24355,156 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>
       </c>
       <c r="R333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>9</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E334" t="n">
+        <v>13</v>
+      </c>
+      <c r="F334" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>50</v>
+      </c>
+      <c r="K334" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L334" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M334" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>36</v>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>9</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E335" t="n">
+        <v>13</v>
+      </c>
+      <c r="F335" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>160</v>
+      </c>
+      <c r="K335" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L335" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M335" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>3</v>
+      </c>
+      <c r="R335" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R335"/>
+  <dimension ref="A1:R337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,13 +16920,13 @@
         <v>52</v>
       </c>
       <c r="K230" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M230" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q230" t="n">
         <v>36</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K231" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L231" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M231" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>5500</v>
+        <v>3667</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K232" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L232" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M232" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q232" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,20 +17133,20 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L233" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M233" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>278</v>
+        <v>5500</v>
       </c>
       <c r="Q233" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17208,13 +17208,13 @@
         <v>160</v>
       </c>
       <c r="K234" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L234" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M234" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q234" t="n">
         <v>3</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K235" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L235" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M235" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q235" t="n">
         <v>36</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L236" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M236" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q236" t="n">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L237" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M237" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q237" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,20 +17493,20 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
         <v>10000</v>
       </c>
       <c r="L238" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M238" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -17515,10 +17515,10 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q238" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R238" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K239" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L239" t="n">
         <v>14000</v>
       </c>
-      <c r="L239" t="n">
-        <v>15000</v>
-      </c>
       <c r="M239" t="n">
-        <v>14500</v>
+        <v>12947</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4833</v>
+        <v>4316</v>
       </c>
       <c r="Q239" t="n">
         <v>3</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K240" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M240" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q240" t="n">
         <v>36</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L241" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M241" t="n">
-        <v>12992</v>
+        <v>14500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4331</v>
+        <v>4833</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,20 +17781,20 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K242" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L242" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M242" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q242" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,20 +17853,20 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K243" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L243" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M243" t="n">
-        <v>10000</v>
+        <v>12992</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>278</v>
+        <v>4331</v>
       </c>
       <c r="Q243" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18072,13 +18072,13 @@
         <v>160</v>
       </c>
       <c r="K246" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L246" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M246" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="Q246" t="n">
         <v>3</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M247" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q247" t="n">
         <v>36</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L248" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M248" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>3833</v>
+        <v>4167</v>
       </c>
       <c r="Q248" t="n">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M249" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q249" t="n">
         <v>36</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K250" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L250" t="n">
         <v>12000</v>
       </c>
       <c r="M250" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K251" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L251" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M251" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q251" t="n">
         <v>36</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K252" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L252" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M252" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18648,13 +18648,13 @@
         <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L254" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M254" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L257" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M257" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L258" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M258" t="n">
-        <v>9008</v>
+        <v>12500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3003</v>
+        <v>4167</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K259" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L259" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M259" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K260" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L260" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M260" t="n">
-        <v>14500</v>
+        <v>9008</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4833</v>
+        <v>3003</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q261" t="n">
         <v>36</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L262" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M262" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K263" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L263" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M263" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q263" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19368,13 +19368,13 @@
         <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L264" t="n">
         <v>12000</v>
       </c>
       <c r="M264" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19440,13 +19440,13 @@
         <v>160</v>
       </c>
       <c r="K265" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L265" t="n">
         <v>13000</v>
       </c>
-      <c r="L265" t="n">
-        <v>14000</v>
-      </c>
       <c r="M265" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q265" t="n">
         <v>3</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K266" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L267" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M267" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q267" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,7 +19653,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K268" t="n">
         <v>8000</v>
@@ -19662,7 +19662,7 @@
         <v>10000</v>
       </c>
       <c r="M268" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K269" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L269" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M269" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q269" t="n">
         <v>36</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K270" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L270" t="n">
         <v>10000</v>
       </c>
-      <c r="L270" t="n">
-        <v>10500</v>
-      </c>
       <c r="M270" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K271" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L271" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M271" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q271" t="n">
         <v>36</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K272" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L272" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M272" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L273" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M273" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q273" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,20 +20085,20 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K274" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L274" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M274" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q274" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K275" t="n">
         <v>10000</v>
       </c>
       <c r="L275" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M275" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q275" t="n">
         <v>3</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K276" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L276" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M276" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q276" t="n">
         <v>36</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L277" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M277" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20376,13 +20376,13 @@
         <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M278" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q278" t="n">
         <v>36</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K279" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L279" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M279" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M280" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20592,13 +20592,13 @@
         <v>70</v>
       </c>
       <c r="K281" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L281" t="n">
         <v>15000</v>
       </c>
-      <c r="L281" t="n">
-        <v>16000</v>
-      </c>
       <c r="M281" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K282" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K283" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L283" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M283" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20808,17 +20808,17 @@
         <v>70</v>
       </c>
       <c r="K284" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L284" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M284" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q284" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,20 +20877,20 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K285" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L285" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M285" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q285" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M286" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q286" t="n">
         <v>3</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>50</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M287" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q287" t="n">
         <v>36</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,13 +21096,13 @@
         <v>160</v>
       </c>
       <c r="K288" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L288" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M288" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K289" t="n">
         <v>10000</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L290" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K291" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L291" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M291" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K292" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L292" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M292" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>52</v>
       </c>
       <c r="K293" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L293" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M293" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21528,13 +21528,13 @@
         <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L294" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M294" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K295" t="n">
         <v>8000</v>
       </c>
       <c r="L295" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M295" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q295" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,20 +21669,20 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L296" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M296" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q296" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K297" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L297" t="n">
         <v>10000</v>
       </c>
       <c r="M297" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q297" t="n">
         <v>3</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K298" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L298" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M298" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K299" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L299" t="n">
         <v>10000</v>
       </c>
-      <c r="L299" t="n">
-        <v>12000</v>
-      </c>
       <c r="M299" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K300" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L300" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M300" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q300" t="n">
         <v>36</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22035,10 +22035,10 @@
         <v>10000</v>
       </c>
       <c r="L301" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M301" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22104,13 +22104,13 @@
         <v>70</v>
       </c>
       <c r="K302" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L302" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M302" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22179,11 +22179,11 @@
         <v>10000</v>
       </c>
       <c r="L303" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M303" t="n">
         <v>10500</v>
       </c>
-      <c r="M303" t="n">
-        <v>10250</v>
-      </c>
       <c r="N303" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22320,13 +22320,13 @@
         <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M305" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,20 +22389,20 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L306" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M306" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q306" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M307" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K308" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L308" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M308" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q308" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L309" t="n">
         <v>10000</v>
       </c>
       <c r="M309" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K310" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L310" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M310" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K311" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L311" t="n">
         <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K312" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L312" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M312" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q312" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L313" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q313" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K314" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L314" t="n">
         <v>10000</v>
       </c>
-      <c r="L314" t="n">
-        <v>12000</v>
-      </c>
       <c r="M314" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M315" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q315" t="n">
         <v>36</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K316" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M316" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,7 +23181,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K317" t="n">
         <v>10000</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23262,7 +23262,7 @@
         <v>22000</v>
       </c>
       <c r="M318" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,20 +23325,20 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K319" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L319" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M319" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q319" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K320" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L320" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M320" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K321" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L321" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M321" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q321" t="n">
         <v>3</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K322" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L322" t="n">
         <v>13000</v>
       </c>
-      <c r="L322" t="n">
-        <v>14000</v>
-      </c>
       <c r="M322" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,20 +23613,20 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K323" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L323" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M323" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q323" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K324" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L324" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M324" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q325" t="n">
         <v>36</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23832,13 +23832,13 @@
         <v>160</v>
       </c>
       <c r="K326" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L326" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M326" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q326" t="n">
         <v>3</v>
@@ -23897,20 +23897,20 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K327" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L327" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M327" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q327" t="n">
         <v>36</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,20 +23973,20 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L328" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M328" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q328" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K329" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L329" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M329" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q329" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24120,13 +24120,13 @@
         <v>70</v>
       </c>
       <c r="K330" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L330" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M330" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q330" t="n">
         <v>36</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K331" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L331" t="n">
         <v>10000</v>
       </c>
-      <c r="L331" t="n">
-        <v>11000</v>
-      </c>
       <c r="M331" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q331" t="n">
         <v>3</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,16 +24261,16 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K332" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L332" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M332" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q332" t="n">
         <v>36</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K333" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L333" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M333" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K334" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L334" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M334" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q334" t="n">
         <v>36</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K335" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L335" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M335" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,12 +24499,156 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q335" t="n">
         <v>3</v>
       </c>
       <c r="R335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>9</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E336" t="n">
+        <v>13</v>
+      </c>
+      <c r="F336" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>50</v>
+      </c>
+      <c r="K336" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L336" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M336" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P336" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>36</v>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>9</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E337" t="n">
+        <v>13</v>
+      </c>
+      <c r="F337" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>160</v>
+      </c>
+      <c r="K337" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L337" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M337" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P337" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>3</v>
+      </c>
+      <c r="R337" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R337"/>
+  <dimension ref="A1:R339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K142" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L142" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M142" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q142" t="n">
         <v>36</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K143" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L143" t="n">
         <v>10000</v>
       </c>
-      <c r="L143" t="n">
-        <v>11000</v>
-      </c>
       <c r="M143" t="n">
-        <v>10500</v>
+        <v>8992</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3500</v>
+        <v>2997</v>
       </c>
       <c r="Q143" t="n">
         <v>3</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,20 +10725,20 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K144" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L144" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M144" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q144" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L145" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M145" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>236</v>
+        <v>3500</v>
       </c>
       <c r="Q145" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="K146" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L146" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M146" t="n">
-        <v>15500</v>
+        <v>9091</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>5167</v>
+        <v>3030</v>
       </c>
       <c r="Q146" t="n">
         <v>3</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K147" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L147" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M147" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="Q147" t="n">
         <v>36</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K148" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L148" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M148" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3667</v>
+        <v>5167</v>
       </c>
       <c r="Q148" t="n">
         <v>3</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L150" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M150" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="Q150" t="n">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L151" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M151" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q151" t="n">
         <v>36</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M152" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4333</v>
+        <v>3333</v>
       </c>
       <c r="Q152" t="n">
         <v>3</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,13 +11448,13 @@
         <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L154" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>4833</v>
+        <v>4333</v>
       </c>
       <c r="Q154" t="n">
         <v>3</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,20 +11517,20 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M155" t="n">
-        <v>13010</v>
+        <v>7000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4337</v>
+        <v>194</v>
       </c>
       <c r="Q155" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>9158</v>
+        <v>14500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3053</v>
+        <v>4833</v>
       </c>
       <c r="Q156" t="n">
         <v>3</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K157" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>5000</v>
+        <v>13010</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>139</v>
+        <v>4337</v>
       </c>
       <c r="Q157" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K158" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L158" t="n">
         <v>10000</v>
       </c>
-      <c r="L158" t="n">
-        <v>10500</v>
-      </c>
       <c r="M158" t="n">
-        <v>10250</v>
+        <v>9158</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3417</v>
+        <v>3053</v>
       </c>
       <c r="Q158" t="n">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K159" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L159" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M159" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q159" t="n">
         <v>36</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L160" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M160" t="n">
-        <v>9263</v>
+        <v>10250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3088</v>
+        <v>3417</v>
       </c>
       <c r="Q160" t="n">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K161" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L161" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M161" t="n">
-        <v>5508</v>
+        <v>8000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="Q161" t="n">
         <v>36</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K162" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L162" t="n">
         <v>10000</v>
       </c>
-      <c r="L162" t="n">
-        <v>12000</v>
-      </c>
       <c r="M162" t="n">
-        <v>10992</v>
+        <v>9263</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3664</v>
+        <v>3088</v>
       </c>
       <c r="Q162" t="n">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K163" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L163" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M163" t="n">
-        <v>9000</v>
+        <v>5508</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q163" t="n">
         <v>36</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="K164" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L164" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>17508</v>
+        <v>10992</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>5836</v>
+        <v>3664</v>
       </c>
       <c r="Q164" t="n">
         <v>3</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,20 +12237,20 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K165" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L165" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M165" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4167</v>
+        <v>250</v>
       </c>
       <c r="Q165" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K166" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L166" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M166" t="n">
-        <v>10800</v>
+        <v>17508</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3600</v>
+        <v>5836</v>
       </c>
       <c r="Q166" t="n">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44407</v>
+        <v>44246</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M167" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q167" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K168" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L168" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M168" t="n">
-        <v>20759</v>
+        <v>10800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>6920</v>
+        <v>3600</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q169" t="n">
         <v>36</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K170" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M170" t="n">
-        <v>13000</v>
+        <v>20759</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4333</v>
+        <v>6920</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M171" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q171" t="n">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L172" t="n">
         <v>14000</v>
       </c>
-      <c r="L172" t="n">
-        <v>15000</v>
-      </c>
       <c r="M172" t="n">
-        <v>14625</v>
+        <v>13000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4875</v>
+        <v>4333</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M173" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K174" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>10500</v>
+        <v>14625</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3500</v>
+        <v>4875</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K175" t="n">
         <v>6000</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K176" t="n">
         <v>10000</v>
@@ -13038,7 +13038,7 @@
         <v>11000</v>
       </c>
       <c r="M176" t="n">
-        <v>10486</v>
+        <v>10500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3495</v>
+        <v>3500</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13104,13 +13104,13 @@
         <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M177" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q177" t="n">
         <v>36</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K178" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L178" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M178" t="n">
-        <v>14500</v>
+        <v>10486</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4833</v>
+        <v>3495</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q179" t="n">
         <v>36</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L180" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>17495</v>
+        <v>14500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>5832</v>
+        <v>4833</v>
       </c>
       <c r="Q180" t="n">
         <v>3</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K181" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L181" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M181" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q181" t="n">
         <v>36</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K182" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L182" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M182" t="n">
-        <v>11000</v>
+        <v>17495</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3667</v>
+        <v>5832</v>
       </c>
       <c r="Q182" t="n">
         <v>3</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L183" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M183" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q183" t="n">
         <v>36</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L184" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M184" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4500</v>
+        <v>3667</v>
       </c>
       <c r="Q184" t="n">
         <v>3</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L185" t="n">
         <v>7000</v>
       </c>
       <c r="M185" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q185" t="n">
         <v>36</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13752,13 +13752,13 @@
         <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L186" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M186" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K187" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L187" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M187" t="n">
-        <v>5492</v>
+        <v>7000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q187" t="n">
         <v>36</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L188" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M188" t="n">
-        <v>10992</v>
+        <v>12500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3664</v>
+        <v>4167</v>
       </c>
       <c r="Q188" t="n">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K189" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L189" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M189" t="n">
-        <v>4756</v>
+        <v>5492</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="Q189" t="n">
         <v>36</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14040,13 +14040,13 @@
         <v>133</v>
       </c>
       <c r="K190" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M190" t="n">
-        <v>9504</v>
+        <v>10992</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3168</v>
+        <v>3664</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K191" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L191" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M191" t="n">
-        <v>7000</v>
+        <v>4756</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="Q191" t="n">
         <v>36</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K192" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L192" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M192" t="n">
-        <v>12000</v>
+        <v>9504</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>4000</v>
+        <v>3168</v>
       </c>
       <c r="Q192" t="n">
         <v>3</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,20 +14253,20 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K193" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L193" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M193" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -14275,10 +14275,10 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>5167</v>
+        <v>194</v>
       </c>
       <c r="Q193" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L194" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M194" t="n">
-        <v>9091</v>
+        <v>12000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3030</v>
+        <v>4000</v>
       </c>
       <c r="Q194" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44448</v>
+        <v>44200</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,20 +14397,20 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L195" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M195" t="n">
-        <v>6000</v>
+        <v>15500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>167</v>
+        <v>5167</v>
       </c>
       <c r="Q195" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="K196" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L196" t="n">
         <v>10000</v>
       </c>
-      <c r="L196" t="n">
-        <v>12000</v>
-      </c>
       <c r="M196" t="n">
-        <v>11008</v>
+        <v>9091</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3669</v>
+        <v>3030</v>
       </c>
       <c r="Q196" t="n">
         <v>3</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K197" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L197" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M197" t="n">
-        <v>10857</v>
+        <v>6000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3619</v>
+        <v>167</v>
       </c>
       <c r="Q197" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K198" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L198" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>9500</v>
+        <v>11008</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3167</v>
+        <v>3669</v>
       </c>
       <c r="Q198" t="n">
         <v>3</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,20 +14685,20 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
         <v>10000</v>
       </c>
       <c r="L199" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M199" t="n">
-        <v>10000</v>
+        <v>10857</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>278</v>
+        <v>3619</v>
       </c>
       <c r="Q199" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K200" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L200" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M200" t="n">
-        <v>21013</v>
+        <v>9500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>7004</v>
+        <v>3167</v>
       </c>
       <c r="Q200" t="n">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K201" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q201" t="n">
         <v>36</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K202" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L202" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="M202" t="n">
-        <v>10250</v>
+        <v>21013</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3417</v>
+        <v>7004</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K203" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L203" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M203" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q203" t="n">
         <v>36</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
         <v>10000</v>
       </c>
       <c r="L204" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M204" t="n">
-        <v>11111</v>
+        <v>10250</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3704</v>
+        <v>3417</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K205" t="n">
         <v>8000</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K206" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L206" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M206" t="n">
-        <v>13500</v>
+        <v>11111</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4500</v>
+        <v>3704</v>
       </c>
       <c r="Q206" t="n">
         <v>3</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K207" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L207" t="n">
         <v>8000</v>
       </c>
       <c r="M207" t="n">
-        <v>7333</v>
+        <v>8000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q207" t="n">
         <v>36</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L208" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M208" t="n">
-        <v>9571</v>
+        <v>13500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3190</v>
+        <v>4500</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K209" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L209" t="n">
         <v>8000</v>
       </c>
       <c r="M209" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q209" t="n">
         <v>36</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="K210" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L210" t="n">
         <v>10000</v>
       </c>
       <c r="M210" t="n">
-        <v>9200</v>
+        <v>9571</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3067</v>
+        <v>3190</v>
       </c>
       <c r="Q210" t="n">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K211" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L211" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M211" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q211" t="n">
         <v>36</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K212" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L212" t="n">
         <v>10000</v>
       </c>
-      <c r="L212" t="n">
-        <v>11000</v>
-      </c>
       <c r="M212" t="n">
-        <v>10500</v>
+        <v>9200</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3500</v>
+        <v>3067</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,20 +15693,20 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="K213" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L213" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M213" t="n">
-        <v>9130</v>
+        <v>5000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -15715,10 +15715,10 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3043</v>
+        <v>139</v>
       </c>
       <c r="Q213" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R213" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,20 +15765,20 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K214" t="n">
         <v>10000</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M214" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -15787,10 +15787,10 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q214" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R214" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K215" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L215" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M215" t="n">
-        <v>12500</v>
+        <v>9130</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>4167</v>
+        <v>3043</v>
       </c>
       <c r="Q215" t="n">
         <v>3</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L216" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q216" t="n">
         <v>36</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K217" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M217" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q217" t="n">
         <v>3</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K218" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L218" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M218" t="n">
-        <v>4250</v>
+        <v>5000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="Q218" t="n">
         <v>36</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L219" t="n">
         <v>10000</v>
       </c>
       <c r="M219" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q219" t="n">
         <v>3</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K220" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L220" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M220" t="n">
-        <v>10000</v>
+        <v>4250</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="Q220" t="n">
         <v>36</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K221" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L221" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>20990</v>
+        <v>9008</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6997</v>
+        <v>3003</v>
       </c>
       <c r="Q221" t="n">
         <v>3</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K222" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L222" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M222" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="Q222" t="n">
         <v>36</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K223" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L223" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M223" t="n">
-        <v>9000</v>
+        <v>20990</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3000</v>
+        <v>6997</v>
       </c>
       <c r="Q223" t="n">
         <v>3</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K224" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L224" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M224" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="Q224" t="n">
         <v>36</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K225" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L225" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M225" t="n">
-        <v>20984</v>
+        <v>9000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>6995</v>
+        <v>3000</v>
       </c>
       <c r="Q225" t="n">
         <v>3</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K226" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L226" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M226" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2852</v>
+        <v>278</v>
       </c>
       <c r="Q226" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,20 +16701,20 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K227" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L227" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M227" t="n">
-        <v>9512</v>
+        <v>20984</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>264</v>
+        <v>6995</v>
       </c>
       <c r="Q227" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K228" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L228" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M228" t="n">
-        <v>18987</v>
+        <v>8556</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>6329</v>
+        <v>2852</v>
       </c>
       <c r="Q228" t="n">
         <v>3</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K229" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L229" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M229" t="n">
-        <v>8500</v>
+        <v>9512</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>2833</v>
+        <v>264</v>
       </c>
       <c r="Q229" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K230" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L230" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M230" t="n">
-        <v>8000</v>
+        <v>18987</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>222</v>
+        <v>6329</v>
       </c>
       <c r="Q230" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K231" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L231" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M231" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3667</v>
+        <v>2833</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17064,13 +17064,13 @@
         <v>52</v>
       </c>
       <c r="K232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q232" t="n">
         <v>36</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K233" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L233" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M233" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>5500</v>
+        <v>3667</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,20 +17205,20 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K234" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L234" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M234" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q234" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,20 +17277,20 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L235" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M235" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>278</v>
+        <v>5500</v>
       </c>
       <c r="Q235" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17352,13 +17352,13 @@
         <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L236" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M236" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q236" t="n">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K237" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L237" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M237" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q237" t="n">
         <v>36</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L238" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M238" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,20 +17565,20 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K239" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L239" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M239" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -17587,10 +17587,10 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q239" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R239" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,20 +17637,20 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
         <v>10000</v>
       </c>
       <c r="L240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M240" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q240" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K241" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L241" t="n">
         <v>14000</v>
       </c>
-      <c r="L241" t="n">
-        <v>15000</v>
-      </c>
       <c r="M241" t="n">
-        <v>14500</v>
+        <v>12947</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4833</v>
+        <v>4316</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L242" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M242" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q242" t="n">
         <v>36</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K243" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L243" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M243" t="n">
-        <v>12992</v>
+        <v>14500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4331</v>
+        <v>4833</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,20 +17925,20 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K244" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L244" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M244" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -17947,10 +17947,10 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q244" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R244" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,20 +17997,20 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K245" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L245" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M245" t="n">
-        <v>10000</v>
+        <v>12992</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -18019,10 +18019,10 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>278</v>
+        <v>4331</v>
       </c>
       <c r="Q245" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R245" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18216,13 +18216,13 @@
         <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L248" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M248" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="Q248" t="n">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K249" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L249" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M249" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q249" t="n">
         <v>36</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L250" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M250" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>3833</v>
+        <v>4167</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K251" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L251" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M251" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q251" t="n">
         <v>36</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K252" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L252" t="n">
         <v>12000</v>
       </c>
       <c r="M252" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K253" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L253" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M253" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K254" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L254" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18792,13 +18792,13 @@
         <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L256" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M256" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q259" t="n">
         <v>36</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L260" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M260" t="n">
-        <v>9008</v>
+        <v>12500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>3003</v>
+        <v>4167</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K261" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L261" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M261" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q261" t="n">
         <v>36</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K262" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L262" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M262" t="n">
-        <v>14500</v>
+        <v>9008</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>4833</v>
+        <v>3003</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M263" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K264" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L264" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M264" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,20 +19437,20 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K265" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L265" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M265" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q265" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19512,13 +19512,13 @@
         <v>160</v>
       </c>
       <c r="K266" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L266" t="n">
         <v>12000</v>
       </c>
       <c r="M266" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19584,13 +19584,13 @@
         <v>160</v>
       </c>
       <c r="K267" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L267" t="n">
         <v>13000</v>
       </c>
-      <c r="L267" t="n">
-        <v>14000</v>
-      </c>
       <c r="M267" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q267" t="n">
         <v>3</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K269" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L269" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M269" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q269" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,7 +19797,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K270" t="n">
         <v>8000</v>
@@ -19806,7 +19806,7 @@
         <v>10000</v>
       </c>
       <c r="M270" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M271" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q271" t="n">
         <v>36</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K272" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L272" t="n">
         <v>10000</v>
       </c>
-      <c r="L272" t="n">
-        <v>10500</v>
-      </c>
       <c r="M272" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K273" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L273" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M273" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q273" t="n">
         <v>36</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K274" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L274" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M274" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,20 +20157,20 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K275" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L275" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M275" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q275" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K276" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L276" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M276" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q276" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K277" t="n">
         <v>10000</v>
       </c>
       <c r="L277" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M277" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K278" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L278" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M278" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q278" t="n">
         <v>36</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M279" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20520,13 +20520,13 @@
         <v>50</v>
       </c>
       <c r="K280" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L280" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M280" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K281" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L281" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M281" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M282" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20736,13 +20736,13 @@
         <v>70</v>
       </c>
       <c r="K283" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L283" t="n">
         <v>15000</v>
       </c>
-      <c r="L283" t="n">
-        <v>16000</v>
-      </c>
       <c r="M283" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K284" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L284" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M284" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q284" t="n">
         <v>36</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K285" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L285" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M285" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20952,17 +20952,17 @@
         <v>70</v>
       </c>
       <c r="K286" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L286" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M286" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q286" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,20 +21021,20 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M287" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q287" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M288" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21168,13 +21168,13 @@
         <v>50</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M289" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q289" t="n">
         <v>36</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21240,13 +21240,13 @@
         <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L290" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M290" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K291" t="n">
         <v>10000</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L292" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M292" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K293" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L293" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M293" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K294" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L294" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M294" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21600,13 +21600,13 @@
         <v>52</v>
       </c>
       <c r="K295" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L295" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M295" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21672,13 +21672,13 @@
         <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M296" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,20 +21741,20 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K297" t="n">
         <v>8000</v>
       </c>
       <c r="L297" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M297" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q297" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L298" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M298" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q298" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K299" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L299" t="n">
         <v>10000</v>
       </c>
       <c r="M299" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K300" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L300" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M300" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q300" t="n">
         <v>36</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L301" t="n">
         <v>10000</v>
       </c>
-      <c r="L301" t="n">
-        <v>12000</v>
-      </c>
       <c r="M301" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K302" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L302" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M302" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22179,10 +22179,10 @@
         <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M303" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22248,13 +22248,13 @@
         <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22323,11 +22323,11 @@
         <v>10000</v>
       </c>
       <c r="L305" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M305" t="n">
         <v>10500</v>
       </c>
-      <c r="M305" t="n">
-        <v>10250</v>
-      </c>
       <c r="N305" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K306" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L306" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M306" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22464,13 +22464,13 @@
         <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M307" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K308" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L308" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M308" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q308" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K309" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L309" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M309" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,20 +22677,20 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K310" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L310" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M310" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q310" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K311" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L311" t="n">
         <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K312" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L312" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M312" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K313" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L313" t="n">
         <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,20 +22965,20 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K314" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L314" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M314" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q314" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K315" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L315" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M315" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q315" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K316" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L316" t="n">
         <v>10000</v>
       </c>
-      <c r="L316" t="n">
-        <v>12000</v>
-      </c>
       <c r="M316" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M317" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q317" t="n">
         <v>36</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K318" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L318" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M318" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K319" t="n">
         <v>10000</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23406,7 +23406,7 @@
         <v>22000</v>
       </c>
       <c r="M320" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K321" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L321" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M321" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q321" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K322" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L322" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M322" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K323" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L323" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M323" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K324" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L324" t="n">
         <v>13000</v>
       </c>
-      <c r="L324" t="n">
-        <v>14000</v>
-      </c>
       <c r="M324" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,20 +23757,20 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L325" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q325" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K326" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L326" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M326" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q326" t="n">
         <v>3</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K327" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L327" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M327" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q327" t="n">
         <v>36</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23976,13 +23976,13 @@
         <v>160</v>
       </c>
       <c r="K328" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L328" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M328" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q328" t="n">
         <v>3</v>
@@ -24041,20 +24041,20 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K329" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L329" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M329" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q329" t="n">
         <v>36</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K330" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L330" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M330" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q330" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K331" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L331" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M331" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q331" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24264,13 +24264,13 @@
         <v>70</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L332" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M332" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q332" t="n">
         <v>36</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K333" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L333" t="n">
         <v>10000</v>
       </c>
-      <c r="L333" t="n">
-        <v>11000</v>
-      </c>
       <c r="M333" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K334" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L334" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M334" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q334" t="n">
         <v>36</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K335" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L335" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M335" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q335" t="n">
         <v>3</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K336" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L336" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M336" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q336" t="n">
         <v>36</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K337" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L337" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M337" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,12 +24643,156 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q337" t="n">
         <v>3</v>
       </c>
       <c r="R337" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>9</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E338" t="n">
+        <v>13</v>
+      </c>
+      <c r="F338" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>50</v>
+      </c>
+      <c r="K338" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L338" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M338" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>36</v>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>9</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E339" t="n">
+        <v>13</v>
+      </c>
+      <c r="F339" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>160</v>
+      </c>
+      <c r="K339" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L339" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M339" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P339" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>3</v>
+      </c>
+      <c r="R339" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K251" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L251" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M251" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q251" t="n">
         <v>36</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L252" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M252" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3833</v>
+        <v>3000</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M253" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K254" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L254" t="n">
         <v>12000</v>
       </c>
       <c r="M254" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K255" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L255" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M255" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q255" t="n">
         <v>36</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K256" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L256" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18936,13 +18936,13 @@
         <v>160</v>
       </c>
       <c r="K258" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L258" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M258" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K261" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L261" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M261" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q261" t="n">
         <v>36</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K262" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L262" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M262" t="n">
-        <v>9008</v>
+        <v>12500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>3003</v>
+        <v>4167</v>
       </c>
       <c r="Q262" t="n">
         <v>3</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K263" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L263" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M263" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K264" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M264" t="n">
-        <v>14500</v>
+        <v>9008</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>4833</v>
+        <v>3003</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M265" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K266" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,20 +19581,20 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K267" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L267" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M267" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q267" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19656,13 +19656,13 @@
         <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L268" t="n">
         <v>12000</v>
       </c>
       <c r="M268" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19728,13 +19728,13 @@
         <v>160</v>
       </c>
       <c r="K269" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L269" t="n">
         <v>13000</v>
       </c>
-      <c r="L269" t="n">
-        <v>14000</v>
-      </c>
       <c r="M269" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q269" t="n">
         <v>3</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K270" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L270" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M270" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19869,20 +19869,20 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L271" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M271" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q271" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,7 +19941,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K272" t="n">
         <v>8000</v>
@@ -19950,7 +19950,7 @@
         <v>10000</v>
       </c>
       <c r="M272" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K273" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L273" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M273" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q273" t="n">
         <v>36</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K274" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L274" t="n">
         <v>10000</v>
       </c>
-      <c r="L274" t="n">
-        <v>10500</v>
-      </c>
       <c r="M274" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K275" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L275" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M275" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q275" t="n">
         <v>36</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K276" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L276" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M276" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q276" t="n">
         <v>3</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,20 +20301,20 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K277" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L277" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M277" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q277" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,20 +20373,20 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K278" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L278" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M278" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q278" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K279" t="n">
         <v>10000</v>
       </c>
       <c r="L279" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M279" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q279" t="n">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K280" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L280" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M280" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q280" t="n">
         <v>36</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K281" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M281" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20664,13 +20664,13 @@
         <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M282" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K283" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L283" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M283" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M284" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q284" t="n">
         <v>36</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20880,13 +20880,13 @@
         <v>70</v>
       </c>
       <c r="K285" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L285" t="n">
         <v>15000</v>
       </c>
-      <c r="L285" t="n">
-        <v>16000</v>
-      </c>
       <c r="M285" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K286" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L286" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M286" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q286" t="n">
         <v>36</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K287" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L287" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M287" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q287" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21096,17 +21096,17 @@
         <v>70</v>
       </c>
       <c r="K288" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L288" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M288" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q288" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K289" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L289" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M289" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q289" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K290" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L290" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M290" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21312,13 +21312,13 @@
         <v>50</v>
       </c>
       <c r="K291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M291" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q291" t="n">
         <v>36</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L292" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M292" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21453,7 +21453,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K293" t="n">
         <v>10000</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L294" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M294" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K295" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L295" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M295" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K296" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L296" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M296" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21744,13 +21744,13 @@
         <v>52</v>
       </c>
       <c r="K297" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L297" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M297" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q297" t="n">
         <v>36</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21816,13 +21816,13 @@
         <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L298" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M298" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K299" t="n">
         <v>8000</v>
       </c>
       <c r="L299" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M299" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q299" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L300" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M300" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q300" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K301" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
         <v>10000</v>
       </c>
       <c r="M301" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L302" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M302" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L303" t="n">
         <v>10000</v>
       </c>
-      <c r="L303" t="n">
-        <v>12000</v>
-      </c>
       <c r="M303" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K304" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M304" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22323,10 +22323,10 @@
         <v>10000</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M305" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22392,13 +22392,13 @@
         <v>70</v>
       </c>
       <c r="K306" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L306" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M306" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22467,11 +22467,11 @@
         <v>10000</v>
       </c>
       <c r="L307" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M307" t="n">
         <v>10500</v>
       </c>
-      <c r="M307" t="n">
-        <v>10250</v>
-      </c>
       <c r="N307" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K308" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L308" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M308" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22608,13 +22608,13 @@
         <v>160</v>
       </c>
       <c r="K309" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L309" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M309" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,20 +22677,20 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K310" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L310" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M310" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q310" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L311" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M311" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K312" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L312" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M312" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q312" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K313" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L313" t="n">
         <v>10000</v>
       </c>
       <c r="M313" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K315" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L315" t="n">
         <v>10000</v>
       </c>
       <c r="M315" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,20 +23109,20 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K316" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L316" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M316" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q316" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K317" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L317" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q317" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K318" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L318" t="n">
         <v>10000</v>
       </c>
-      <c r="L318" t="n">
-        <v>12000</v>
-      </c>
       <c r="M318" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K319" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L319" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M319" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K320" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L320" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M320" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,7 +23469,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K321" t="n">
         <v>10000</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23550,7 +23550,7 @@
         <v>22000</v>
       </c>
       <c r="M322" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,20 +23613,20 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K323" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L323" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M323" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q323" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K324" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L324" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M324" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K325" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L325" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M325" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K326" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L326" t="n">
         <v>13000</v>
       </c>
-      <c r="L326" t="n">
-        <v>14000</v>
-      </c>
       <c r="M326" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q326" t="n">
         <v>3</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,20 +23901,20 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K327" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L327" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M327" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q327" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K328" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L328" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M328" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q328" t="n">
         <v>3</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K329" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L329" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M329" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q329" t="n">
         <v>36</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24120,13 +24120,13 @@
         <v>160</v>
       </c>
       <c r="K330" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L330" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M330" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q330" t="n">
         <v>3</v>
@@ -24185,20 +24185,20 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M331" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q331" t="n">
         <v>36</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K332" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L332" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M332" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q332" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K333" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L333" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M333" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q333" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24408,13 +24408,13 @@
         <v>70</v>
       </c>
       <c r="K334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q334" t="n">
         <v>36</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K335" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L335" t="n">
         <v>10000</v>
       </c>
-      <c r="L335" t="n">
-        <v>11000</v>
-      </c>
       <c r="M335" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q335" t="n">
         <v>3</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K336" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L336" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M336" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q336" t="n">
         <v>36</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K337" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L337" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M337" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q337" t="n">
         <v>3</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K338" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L338" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M338" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q338" t="n">
         <v>36</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K339" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L339" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M339" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,12 +24787,156 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q339" t="n">
         <v>3</v>
       </c>
       <c r="R339" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E340" t="n">
+        <v>13</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>50</v>
+      </c>
+      <c r="K340" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L340" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M340" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>36</v>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>9</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E341" t="n">
+        <v>13</v>
+      </c>
+      <c r="F341" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J341" t="n">
+        <v>160</v>
+      </c>
+      <c r="K341" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L341" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M341" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>3</v>
+      </c>
+      <c r="R341" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K117" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L117" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M117" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q117" t="n">
         <v>36</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8856,13 +8856,13 @@
         <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L118" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M118" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4333</v>
+        <v>3000</v>
       </c>
       <c r="Q118" t="n">
         <v>3</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -9000,13 +9000,13 @@
         <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M120" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3333</v>
+        <v>4333</v>
       </c>
       <c r="Q120" t="n">
         <v>3</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
         <v>7000</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9144,13 +9144,13 @@
         <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L122" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M122" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4833</v>
+        <v>3333</v>
       </c>
       <c r="Q122" t="n">
         <v>3</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9216,13 +9216,13 @@
         <v>70</v>
       </c>
       <c r="K123" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L123" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M123" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q123" t="n">
         <v>36</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9288,13 +9288,13 @@
         <v>160</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M124" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>4500</v>
+        <v>4833</v>
       </c>
       <c r="Q124" t="n">
         <v>3</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K125" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L125" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M125" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="Q125" t="n">
         <v>36</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K126" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L126" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>22987</v>
+        <v>13500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>7662</v>
+        <v>4500</v>
       </c>
       <c r="Q126" t="n">
         <v>3</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K127" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L127" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M127" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="Q127" t="n">
         <v>36</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K128" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="L128" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M128" t="n">
-        <v>8889</v>
+        <v>22987</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2963</v>
+        <v>7662</v>
       </c>
       <c r="Q128" t="n">
         <v>3</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9648,13 +9648,13 @@
         <v>50</v>
       </c>
       <c r="K129" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L129" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M129" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q129" t="n">
         <v>36</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K130" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L130" t="n">
         <v>10000</v>
       </c>
-      <c r="L130" t="n">
-        <v>11000</v>
-      </c>
       <c r="M130" t="n">
-        <v>10500</v>
+        <v>8889</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3500</v>
+        <v>2963</v>
       </c>
       <c r="Q130" t="n">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L131" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M131" t="n">
-        <v>12824</v>
+        <v>6000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4275</v>
+        <v>167</v>
       </c>
       <c r="Q131" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44253</v>
+        <v>44340</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K132" t="n">
         <v>10000</v>
       </c>
       <c r="L132" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M132" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q132" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K133" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
         <v>14000</v>
       </c>
       <c r="M133" t="n">
-        <v>13500</v>
+        <v>12824</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4500</v>
+        <v>4275</v>
       </c>
       <c r="Q133" t="n">
         <v>3</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K134" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M134" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4500</v>
+        <v>278</v>
       </c>
       <c r="Q134" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44334</v>
+        <v>44253</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L135" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>167</v>
+        <v>4500</v>
       </c>
       <c r="Q135" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10152,13 +10152,13 @@
         <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K137" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M137" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q137" t="n">
         <v>36</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L138" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>21013</v>
+        <v>10500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>7004</v>
+        <v>3500</v>
       </c>
       <c r="Q138" t="n">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,20 +10365,20 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K139" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L139" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q139" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K140" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L140" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M140" t="n">
-        <v>10000</v>
+        <v>21013</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>278</v>
+        <v>7004</v>
       </c>
       <c r="Q140" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M141" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q141" t="n">
         <v>3</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K142" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L142" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M142" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="Q142" t="n">
         <v>36</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="K143" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>8992</v>
+        <v>14500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2997</v>
+        <v>4833</v>
       </c>
       <c r="Q143" t="n">
         <v>3</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q144" t="n">
         <v>36</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K145" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L145" t="n">
         <v>10000</v>
       </c>
-      <c r="L145" t="n">
-        <v>11000</v>
-      </c>
       <c r="M145" t="n">
-        <v>10500</v>
+        <v>8992</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3500</v>
+        <v>2997</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,20 +10869,20 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K146" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L146" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M146" t="n">
-        <v>9091</v>
+        <v>6000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3030</v>
+        <v>167</v>
       </c>
       <c r="Q146" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K147" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>236</v>
+        <v>3500</v>
       </c>
       <c r="Q147" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="K148" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L148" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M148" t="n">
-        <v>15500</v>
+        <v>9091</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>5167</v>
+        <v>3030</v>
       </c>
       <c r="Q148" t="n">
         <v>3</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K149" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L149" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M149" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="Q149" t="n">
         <v>36</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K150" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L150" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M150" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3667</v>
+        <v>5167</v>
       </c>
       <c r="Q150" t="n">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K152" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L152" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M152" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="Q152" t="n">
         <v>3</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K153" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L153" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M153" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q153" t="n">
         <v>36</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M154" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>4333</v>
+        <v>3333</v>
       </c>
       <c r="Q154" t="n">
         <v>3</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11592,13 +11592,13 @@
         <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M156" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4833</v>
+        <v>4333</v>
       </c>
       <c r="Q156" t="n">
         <v>3</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,20 +11661,20 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K157" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M157" t="n">
-        <v>13010</v>
+        <v>7000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>4337</v>
+        <v>194</v>
       </c>
       <c r="Q157" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>9158</v>
+        <v>14500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3053</v>
+        <v>4833</v>
       </c>
       <c r="Q158" t="n">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,20 +11805,20 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K159" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L159" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>5000</v>
+        <v>13010</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11827,10 +11827,10 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>139</v>
+        <v>4337</v>
       </c>
       <c r="Q159" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K160" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L160" t="n">
         <v>10000</v>
       </c>
-      <c r="L160" t="n">
-        <v>10500</v>
-      </c>
       <c r="M160" t="n">
-        <v>10250</v>
+        <v>9158</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3417</v>
+        <v>3053</v>
       </c>
       <c r="Q160" t="n">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K161" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L161" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M161" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="Q161" t="n">
         <v>36</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L162" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="M162" t="n">
-        <v>9263</v>
+        <v>10250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3088</v>
+        <v>3417</v>
       </c>
       <c r="Q162" t="n">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K163" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L163" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M163" t="n">
-        <v>5508</v>
+        <v>8000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="Q163" t="n">
         <v>36</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K164" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L164" t="n">
         <v>10000</v>
       </c>
-      <c r="L164" t="n">
-        <v>12000</v>
-      </c>
       <c r="M164" t="n">
-        <v>10992</v>
+        <v>9263</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3664</v>
+        <v>3088</v>
       </c>
       <c r="Q164" t="n">
         <v>3</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K165" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L165" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M165" t="n">
-        <v>9000</v>
+        <v>5508</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="Q165" t="n">
         <v>36</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="K166" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L166" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>17508</v>
+        <v>10992</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>5836</v>
+        <v>3664</v>
       </c>
       <c r="Q166" t="n">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,20 +12381,20 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K167" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L167" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M167" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4167</v>
+        <v>250</v>
       </c>
       <c r="Q167" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K168" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L168" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M168" t="n">
-        <v>10800</v>
+        <v>17508</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3600</v>
+        <v>5836</v>
       </c>
       <c r="Q168" t="n">
         <v>3</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44407</v>
+        <v>44246</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,20 +12525,20 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>278</v>
+        <v>4167</v>
       </c>
       <c r="Q169" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K170" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L170" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>20759</v>
+        <v>10800</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>6920</v>
+        <v>3600</v>
       </c>
       <c r="Q170" t="n">
         <v>3</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q171" t="n">
         <v>36</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K172" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L172" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M172" t="n">
-        <v>13000</v>
+        <v>20759</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4333</v>
+        <v>6920</v>
       </c>
       <c r="Q172" t="n">
         <v>3</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K173" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L173" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M173" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q173" t="n">
         <v>36</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L174" t="n">
         <v>14000</v>
       </c>
-      <c r="L174" t="n">
-        <v>15000</v>
-      </c>
       <c r="M174" t="n">
-        <v>14625</v>
+        <v>13000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4875</v>
+        <v>4333</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K175" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L175" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M175" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K176" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M176" t="n">
-        <v>10500</v>
+        <v>14625</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3500</v>
+        <v>4875</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,7 +13101,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K177" t="n">
         <v>6000</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K178" t="n">
         <v>10000</v>
@@ -13182,7 +13182,7 @@
         <v>11000</v>
       </c>
       <c r="M178" t="n">
-        <v>10486</v>
+        <v>10500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3495</v>
+        <v>3500</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13248,13 +13248,13 @@
         <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M179" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q179" t="n">
         <v>36</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K180" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L180" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M180" t="n">
-        <v>14500</v>
+        <v>10486</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4833</v>
+        <v>3495</v>
       </c>
       <c r="Q180" t="n">
         <v>3</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q181" t="n">
         <v>36</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L182" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M182" t="n">
-        <v>17495</v>
+        <v>14500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>5832</v>
+        <v>4833</v>
       </c>
       <c r="Q182" t="n">
         <v>3</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K183" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L183" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M183" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q183" t="n">
         <v>36</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K184" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L184" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M184" t="n">
-        <v>11000</v>
+        <v>17495</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3667</v>
+        <v>5832</v>
       </c>
       <c r="Q184" t="n">
         <v>3</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K185" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L185" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M185" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q185" t="n">
         <v>36</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K186" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L186" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M186" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4500</v>
+        <v>3667</v>
       </c>
       <c r="Q186" t="n">
         <v>3</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L187" t="n">
         <v>7000</v>
       </c>
       <c r="M187" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q187" t="n">
         <v>36</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13896,13 +13896,13 @@
         <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L188" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M188" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q188" t="n">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K189" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L189" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M189" t="n">
-        <v>5492</v>
+        <v>7000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q189" t="n">
         <v>36</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M190" t="n">
-        <v>10992</v>
+        <v>12500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3664</v>
+        <v>4167</v>
       </c>
       <c r="Q190" t="n">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K191" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L191" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M191" t="n">
-        <v>4756</v>
+        <v>5492</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="Q191" t="n">
         <v>36</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>133</v>
       </c>
       <c r="K192" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M192" t="n">
-        <v>9504</v>
+        <v>10992</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3168</v>
+        <v>3664</v>
       </c>
       <c r="Q192" t="n">
         <v>3</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K193" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L193" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M193" t="n">
-        <v>7000</v>
+        <v>4756</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="Q193" t="n">
         <v>36</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K194" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L194" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M194" t="n">
-        <v>12000</v>
+        <v>9504</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>4000</v>
+        <v>3168</v>
       </c>
       <c r="Q194" t="n">
         <v>3</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,20 +14397,20 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K195" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L195" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M195" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>5167</v>
+        <v>194</v>
       </c>
       <c r="Q195" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R195" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L196" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M196" t="n">
-        <v>9091</v>
+        <v>12000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3030</v>
+        <v>4000</v>
       </c>
       <c r="Q196" t="n">
         <v>3</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44448</v>
+        <v>44200</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K197" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L197" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M197" t="n">
-        <v>6000</v>
+        <v>15500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>167</v>
+        <v>5167</v>
       </c>
       <c r="Q197" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="K198" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L198" t="n">
         <v>10000</v>
       </c>
-      <c r="L198" t="n">
-        <v>12000</v>
-      </c>
       <c r="M198" t="n">
-        <v>11008</v>
+        <v>9091</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3669</v>
+        <v>3030</v>
       </c>
       <c r="Q198" t="n">
         <v>3</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,20 +14685,20 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K199" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L199" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M199" t="n">
-        <v>10857</v>
+        <v>6000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -14707,10 +14707,10 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3619</v>
+        <v>167</v>
       </c>
       <c r="Q199" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44354</v>
+        <v>44448</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K200" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L200" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M200" t="n">
-        <v>9500</v>
+        <v>11008</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3167</v>
+        <v>3669</v>
       </c>
       <c r="Q200" t="n">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
         <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M201" t="n">
-        <v>10000</v>
+        <v>10857</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>278</v>
+        <v>3619</v>
       </c>
       <c r="Q201" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="K202" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L202" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M202" t="n">
-        <v>21013</v>
+        <v>9500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>7004</v>
+        <v>3167</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K203" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L203" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M203" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q203" t="n">
         <v>36</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K204" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L204" t="n">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="M204" t="n">
-        <v>10250</v>
+        <v>21013</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3417</v>
+        <v>7004</v>
       </c>
       <c r="Q204" t="n">
         <v>3</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K205" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L205" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M205" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q205" t="n">
         <v>36</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
         <v>10000</v>
       </c>
       <c r="L206" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="M206" t="n">
-        <v>11111</v>
+        <v>10250</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3704</v>
+        <v>3417</v>
       </c>
       <c r="Q206" t="n">
         <v>3</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K207" t="n">
         <v>8000</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K208" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L208" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M208" t="n">
-        <v>13500</v>
+        <v>11111</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4500</v>
+        <v>3704</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L209" t="n">
         <v>8000</v>
       </c>
       <c r="M209" t="n">
-        <v>7333</v>
+        <v>8000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q209" t="n">
         <v>36</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L210" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M210" t="n">
-        <v>9571</v>
+        <v>13500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3190</v>
+        <v>4500</v>
       </c>
       <c r="Q210" t="n">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K211" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L211" t="n">
         <v>8000</v>
       </c>
       <c r="M211" t="n">
-        <v>8000</v>
+        <v>7333</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q211" t="n">
         <v>36</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="K212" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L212" t="n">
         <v>10000</v>
       </c>
       <c r="M212" t="n">
-        <v>9200</v>
+        <v>9571</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3067</v>
+        <v>3190</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K213" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L213" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M213" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q213" t="n">
         <v>36</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K214" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L214" t="n">
         <v>10000</v>
       </c>
-      <c r="L214" t="n">
-        <v>11000</v>
-      </c>
       <c r="M214" t="n">
-        <v>10500</v>
+        <v>9200</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3500</v>
+        <v>3067</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,20 +15837,20 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="K215" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L215" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M215" t="n">
-        <v>9130</v>
+        <v>5000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -15859,10 +15859,10 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3043</v>
+        <v>139</v>
       </c>
       <c r="Q215" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44266</v>
+        <v>44344</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,20 +15909,20 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K216" t="n">
         <v>10000</v>
       </c>
       <c r="L216" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M216" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -15931,10 +15931,10 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q216" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K217" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L217" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M217" t="n">
-        <v>12500</v>
+        <v>9130</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>4167</v>
+        <v>3043</v>
       </c>
       <c r="Q217" t="n">
         <v>3</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K218" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L218" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M218" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q218" t="n">
         <v>36</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K219" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L219" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M219" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q219" t="n">
         <v>3</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K220" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L220" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M220" t="n">
-        <v>4250</v>
+        <v>5000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="Q220" t="n">
         <v>36</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K221" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L221" t="n">
         <v>10000</v>
       </c>
       <c r="M221" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q221" t="n">
         <v>3</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K222" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L222" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M222" t="n">
-        <v>10000</v>
+        <v>4250</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="Q222" t="n">
         <v>36</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K223" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L223" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M223" t="n">
-        <v>20990</v>
+        <v>9008</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>6997</v>
+        <v>3003</v>
       </c>
       <c r="Q223" t="n">
         <v>3</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K224" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L224" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M224" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="Q224" t="n">
         <v>36</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K225" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L225" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M225" t="n">
-        <v>9000</v>
+        <v>20990</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>3000</v>
+        <v>6997</v>
       </c>
       <c r="Q225" t="n">
         <v>3</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K226" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L226" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M226" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="Q226" t="n">
         <v>36</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K227" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L227" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M227" t="n">
-        <v>20984</v>
+        <v>9000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>6995</v>
+        <v>3000</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,20 +16773,20 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K228" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L228" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M228" t="n">
-        <v>8556</v>
+        <v>10000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>2852</v>
+        <v>278</v>
       </c>
       <c r="Q228" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,20 +16845,20 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K229" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L229" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M229" t="n">
-        <v>9512</v>
+        <v>20984</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>264</v>
+        <v>6995</v>
       </c>
       <c r="Q229" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K230" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L230" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M230" t="n">
-        <v>18987</v>
+        <v>8556</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>6329</v>
+        <v>2852</v>
       </c>
       <c r="Q230" t="n">
         <v>3</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,20 +16989,20 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L231" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M231" t="n">
-        <v>8500</v>
+        <v>9512</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -17011,10 +17011,10 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2833</v>
+        <v>264</v>
       </c>
       <c r="Q231" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K232" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L232" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M232" t="n">
-        <v>8000</v>
+        <v>18987</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>222</v>
+        <v>6329</v>
       </c>
       <c r="Q232" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L233" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M233" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3667</v>
+        <v>2833</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17208,13 +17208,13 @@
         <v>52</v>
       </c>
       <c r="K234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M234" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q234" t="n">
         <v>36</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K235" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L235" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M235" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>5500</v>
+        <v>3667</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,20 +17349,20 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K236" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L236" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M236" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>5000</v>
+        <v>194</v>
       </c>
       <c r="Q236" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44265</v>
+        <v>44389</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,20 +17421,20 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K237" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L237" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M237" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -17443,10 +17443,10 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>278</v>
+        <v>5500</v>
       </c>
       <c r="Q237" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R237" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17496,13 +17496,13 @@
         <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L238" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M238" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q238" t="n">
         <v>3</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K239" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L239" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q239" t="n">
         <v>36</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L240" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M240" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q240" t="n">
         <v>3</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,20 +17709,20 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L241" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M241" t="n">
-        <v>12947</v>
+        <v>6000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>4316</v>
+        <v>167</v>
       </c>
       <c r="Q241" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,20 +17781,20 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
         <v>10000</v>
       </c>
       <c r="L242" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M242" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q242" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K243" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L243" t="n">
         <v>14000</v>
       </c>
-      <c r="L243" t="n">
-        <v>15000</v>
-      </c>
       <c r="M243" t="n">
-        <v>14500</v>
+        <v>12947</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>4833</v>
+        <v>4316</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M244" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q244" t="n">
         <v>36</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L245" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M245" t="n">
-        <v>12992</v>
+        <v>14500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>4331</v>
+        <v>4833</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,20 +18069,20 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K246" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L246" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M246" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -18091,10 +18091,10 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>4667</v>
+        <v>167</v>
       </c>
       <c r="Q246" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R246" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,20 +18141,20 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K247" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L247" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M247" t="n">
-        <v>10000</v>
+        <v>12992</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>278</v>
+        <v>4331</v>
       </c>
       <c r="Q247" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18360,13 +18360,13 @@
         <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L250" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M250" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>4167</v>
+        <v>4667</v>
       </c>
       <c r="Q250" t="n">
         <v>3</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K251" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L251" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M251" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="Q251" t="n">
         <v>36</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18504,13 +18504,13 @@
         <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M252" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3000</v>
+        <v>4167</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K253" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L253" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M253" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q253" t="n">
         <v>36</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L254" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M254" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>3833</v>
+        <v>3000</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L255" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M255" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q255" t="n">
         <v>36</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K256" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L256" t="n">
         <v>12000</v>
       </c>
       <c r="M256" t="n">
-        <v>11167</v>
+        <v>11500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>3722</v>
+        <v>3833</v>
       </c>
       <c r="Q256" t="n">
         <v>3</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K257" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L257" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M257" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q257" t="n">
         <v>36</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K258" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L258" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M258" t="n">
-        <v>13500</v>
+        <v>11167</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>4500</v>
+        <v>3722</v>
       </c>
       <c r="Q258" t="n">
         <v>3</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19080,13 +19080,13 @@
         <v>160</v>
       </c>
       <c r="K260" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L260" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M260" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>4167</v>
+        <v>4500</v>
       </c>
       <c r="Q260" t="n">
         <v>3</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K263" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L263" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M263" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q263" t="n">
         <v>36</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L264" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M264" t="n">
-        <v>9008</v>
+        <v>12500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>3003</v>
+        <v>4167</v>
       </c>
       <c r="Q264" t="n">
         <v>3</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K265" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L265" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M265" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="Q265" t="n">
         <v>36</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K266" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L266" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>14500</v>
+        <v>9008</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>4833</v>
+        <v>3003</v>
       </c>
       <c r="Q266" t="n">
         <v>3</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M267" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q267" t="n">
         <v>36</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K268" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L268" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M268" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="Q268" t="n">
         <v>3</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K269" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L269" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M269" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>4167</v>
+        <v>194</v>
       </c>
       <c r="Q269" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -19800,13 +19800,13 @@
         <v>160</v>
       </c>
       <c r="K270" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L270" t="n">
         <v>12000</v>
       </c>
       <c r="M270" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q270" t="n">
         <v>3</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -19872,13 +19872,13 @@
         <v>160</v>
       </c>
       <c r="K271" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L271" t="n">
         <v>13000</v>
       </c>
-      <c r="L271" t="n">
-        <v>14000</v>
-      </c>
       <c r="M271" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>4500</v>
+        <v>4167</v>
       </c>
       <c r="Q271" t="n">
         <v>3</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44243</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K272" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L272" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M272" t="n">
-        <v>9167</v>
+        <v>11000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>3056</v>
+        <v>3667</v>
       </c>
       <c r="Q272" t="n">
         <v>3</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -20013,20 +20013,20 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K273" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L273" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M273" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>194</v>
+        <v>4500</v>
       </c>
       <c r="Q273" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K274" t="n">
         <v>8000</v>
@@ -20094,7 +20094,7 @@
         <v>10000</v>
       </c>
       <c r="M274" t="n">
-        <v>9043</v>
+        <v>9167</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>3014</v>
+        <v>3056</v>
       </c>
       <c r="Q274" t="n">
         <v>3</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q275" t="n">
         <v>36</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E276" t="n">
         <v>13</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K276" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L276" t="n">
         <v>10000</v>
       </c>
-      <c r="L276" t="n">
-        <v>10500</v>
-      </c>
       <c r="M276" t="n">
-        <v>10250</v>
+        <v>9043</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3417</v>
+        <v>3014</v>
       </c>
       <c r="Q276" t="n">
         <v>3</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E277" t="n">
         <v>13</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K277" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L277" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M277" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="Q277" t="n">
         <v>36</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E278" t="n">
         <v>13</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K278" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L278" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="M278" t="n">
-        <v>19000</v>
+        <v>10250</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>6333</v>
+        <v>3417</v>
       </c>
       <c r="Q278" t="n">
         <v>3</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -20445,20 +20445,20 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K279" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L279" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M279" t="n">
-        <v>11250</v>
+        <v>8500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3750</v>
+        <v>236</v>
       </c>
       <c r="Q279" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K280" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L280" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M280" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>139</v>
+        <v>6333</v>
       </c>
       <c r="Q280" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K281" t="n">
         <v>10000</v>
       </c>
       <c r="L281" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="M281" t="n">
-        <v>10250</v>
+        <v>11250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>3417</v>
+        <v>3750</v>
       </c>
       <c r="Q281" t="n">
         <v>3</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L282" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M282" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q282" t="n">
         <v>36</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L283" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="M283" t="n">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>3667</v>
+        <v>3417</v>
       </c>
       <c r="Q283" t="n">
         <v>3</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -20808,13 +20808,13 @@
         <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L284" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M284" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q284" t="n">
         <v>36</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K285" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L285" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M285" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>4833</v>
+        <v>3667</v>
       </c>
       <c r="Q285" t="n">
         <v>3</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K286" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L286" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M286" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q286" t="n">
         <v>36</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21024,13 +21024,13 @@
         <v>70</v>
       </c>
       <c r="K287" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L287" t="n">
         <v>15000</v>
       </c>
-      <c r="L287" t="n">
-        <v>16000</v>
-      </c>
       <c r="M287" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>5167</v>
+        <v>4833</v>
       </c>
       <c r="Q287" t="n">
         <v>3</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q288" t="n">
         <v>36</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K289" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L289" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="M289" t="n">
-        <v>10250</v>
+        <v>15500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3417</v>
+        <v>5167</v>
       </c>
       <c r="Q289" t="n">
         <v>3</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21240,17 +21240,17 @@
         <v>70</v>
       </c>
       <c r="K290" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L290" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M290" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>5000</v>
+        <v>139</v>
       </c>
       <c r="Q290" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L291" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M291" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q291" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K292" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L292" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M292" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>4333</v>
+        <v>5000</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>50</v>
       </c>
       <c r="K293" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L293" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M293" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21528,13 +21528,13 @@
         <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M294" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>5000</v>
+        <v>4333</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K295" t="n">
         <v>10000</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L296" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M296" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>6333</v>
+        <v>5000</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K297" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L297" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M297" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q297" t="n">
         <v>36</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K298" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L298" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M298" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21888,13 +21888,13 @@
         <v>52</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L299" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M299" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q299" t="n">
         <v>36</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21960,13 +21960,13 @@
         <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M300" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q300" t="n">
         <v>3</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K301" t="n">
         <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M301" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q301" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L302" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M302" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q302" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K303" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L303" t="n">
         <v>10000</v>
       </c>
       <c r="M303" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M304" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K305" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L305" t="n">
         <v>10000</v>
       </c>
-      <c r="L305" t="n">
-        <v>12000</v>
-      </c>
       <c r="M305" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K306" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L306" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M306" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q306" t="n">
         <v>36</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22467,10 +22467,10 @@
         <v>10000</v>
       </c>
       <c r="L307" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M307" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22536,13 +22536,13 @@
         <v>70</v>
       </c>
       <c r="K308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22611,11 +22611,11 @@
         <v>10000</v>
       </c>
       <c r="L309" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M309" t="n">
         <v>10500</v>
       </c>
-      <c r="M309" t="n">
-        <v>10250</v>
-      </c>
       <c r="N309" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q310" t="n">
         <v>36</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22752,13 +22752,13 @@
         <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L311" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M311" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,20 +22821,20 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K312" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L312" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M312" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q312" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L313" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M313" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22965,20 +22965,20 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K314" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L314" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M314" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q314" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K315" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L315" t="n">
         <v>10000</v>
       </c>
       <c r="M315" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K316" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L316" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M316" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q316" t="n">
         <v>36</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K317" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L317" t="n">
         <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q317" t="n">
         <v>3</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,20 +23253,20 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L318" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M318" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q318" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,20 +23325,20 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K319" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L319" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M319" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q319" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K320" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L320" t="n">
         <v>10000</v>
       </c>
-      <c r="L320" t="n">
-        <v>12000</v>
-      </c>
       <c r="M320" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M321" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q321" t="n">
         <v>36</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K322" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L322" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M322" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q322" t="n">
         <v>3</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,7 +23613,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K323" t="n">
         <v>10000</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23694,7 +23694,7 @@
         <v>22000</v>
       </c>
       <c r="M324" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q324" t="n">
         <v>3</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,20 +23757,20 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K325" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q325" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K326" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L326" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M326" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q326" t="n">
         <v>3</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K327" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L327" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M327" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K328" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L328" t="n">
         <v>13000</v>
       </c>
-      <c r="L328" t="n">
-        <v>14000</v>
-      </c>
       <c r="M328" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q328" t="n">
         <v>3</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,20 +24045,20 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K329" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L329" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M329" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q329" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K330" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L330" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M330" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q330" t="n">
         <v>3</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K331" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L331" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M331" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q331" t="n">
         <v>36</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24264,13 +24264,13 @@
         <v>160</v>
       </c>
       <c r="K332" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L332" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M332" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q332" t="n">
         <v>3</v>
@@ -24329,20 +24329,20 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K333" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L333" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M333" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q333" t="n">
         <v>36</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,20 +24405,20 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K334" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L334" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M334" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q334" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K335" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L335" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M335" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q335" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24552,13 +24552,13 @@
         <v>70</v>
       </c>
       <c r="K336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q336" t="n">
         <v>36</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K337" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L337" t="n">
         <v>10000</v>
       </c>
-      <c r="L337" t="n">
-        <v>11000</v>
-      </c>
       <c r="M337" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q337" t="n">
         <v>3</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K338" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L338" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M338" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q338" t="n">
         <v>36</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K339" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L339" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M339" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q339" t="n">
         <v>3</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K340" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L340" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M340" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q340" t="n">
         <v>36</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K341" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L341" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M341" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,12 +24931,156 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q341" t="n">
         <v>3</v>
       </c>
       <c r="R341" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>9</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E342" t="n">
+        <v>13</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J342" t="n">
+        <v>50</v>
+      </c>
+      <c r="K342" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L342" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M342" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>36</v>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>9</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E343" t="n">
+        <v>13</v>
+      </c>
+      <c r="F343" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>160</v>
+      </c>
+      <c r="K343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M343" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>3</v>
+      </c>
+      <c r="R343" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K298" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L298" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M298" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="Q298" t="n">
         <v>36</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L299" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M299" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>6333</v>
+        <v>3000</v>
       </c>
       <c r="Q299" t="n">
         <v>3</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K300" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="M300" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="Q300" t="n">
         <v>36</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K301" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L301" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="M301" t="n">
-        <v>10250</v>
+        <v>19000</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>3417</v>
+        <v>6333</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22104,13 +22104,13 @@
         <v>52</v>
       </c>
       <c r="K302" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L302" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M302" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22176,13 +22176,13 @@
         <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L303" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M303" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,20 +22245,20 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="K304" t="n">
         <v>8000</v>
       </c>
       <c r="L304" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M304" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q304" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,20 +22317,20 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L305" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M305" t="n">
-        <v>5250</v>
+        <v>12500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>146</v>
+        <v>4167</v>
       </c>
       <c r="Q305" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K306" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L306" t="n">
         <v>10000</v>
       </c>
       <c r="M306" t="n">
-        <v>9750</v>
+        <v>8941</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="Q306" t="n">
         <v>3</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K307" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L307" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M307" t="n">
-        <v>8000</v>
+        <v>5250</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="Q307" t="n">
         <v>36</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L308" t="n">
         <v>10000</v>
       </c>
-      <c r="L308" t="n">
-        <v>12000</v>
-      </c>
       <c r="M308" t="n">
-        <v>10625</v>
+        <v>9750</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3542</v>
+        <v>3250</v>
       </c>
       <c r="Q308" t="n">
         <v>3</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K309" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L309" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M309" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="Q309" t="n">
         <v>36</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22683,10 +22683,10 @@
         <v>10000</v>
       </c>
       <c r="L310" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M310" t="n">
-        <v>10500</v>
+        <v>10625</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>3500</v>
+        <v>3542</v>
       </c>
       <c r="Q310" t="n">
         <v>3</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22752,13 +22752,13 @@
         <v>70</v>
       </c>
       <c r="K311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q311" t="n">
         <v>36</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22827,11 +22827,11 @@
         <v>10000</v>
       </c>
       <c r="L312" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M312" t="n">
         <v>10500</v>
       </c>
-      <c r="M312" t="n">
-        <v>10250</v>
-      </c>
       <c r="N312" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>3417</v>
+        <v>3500</v>
       </c>
       <c r="Q312" t="n">
         <v>3</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q313" t="n">
         <v>36</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22968,13 +22968,13 @@
         <v>160</v>
       </c>
       <c r="K314" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L314" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M314" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q314" t="n">
         <v>3</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,20 +23037,20 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K315" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L315" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M315" t="n">
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>2987</v>
+        <v>194</v>
       </c>
       <c r="Q315" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K316" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L316" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M316" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3167</v>
+        <v>4333</v>
       </c>
       <c r="Q316" t="n">
         <v>3</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K317" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L317" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M317" t="n">
-        <v>4000</v>
+        <v>8960</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>111</v>
+        <v>2987</v>
       </c>
       <c r="Q317" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L318" t="n">
         <v>10000</v>
       </c>
       <c r="M318" t="n">
-        <v>9008</v>
+        <v>9500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="Q318" t="n">
         <v>3</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K319" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L319" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M319" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q319" t="n">
         <v>36</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K320" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L320" t="n">
         <v>10000</v>
       </c>
       <c r="M320" t="n">
-        <v>9750</v>
+        <v>9008</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>3250</v>
+        <v>3003</v>
       </c>
       <c r="Q320" t="n">
         <v>3</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K321" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L321" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M321" t="n">
-        <v>9091</v>
+        <v>5000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3030</v>
+        <v>139</v>
       </c>
       <c r="Q321" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,20 +23541,20 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K322" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L322" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M322" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>222</v>
+        <v>3250</v>
       </c>
       <c r="Q322" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K323" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L323" t="n">
         <v>10000</v>
       </c>
-      <c r="L323" t="n">
-        <v>12000</v>
-      </c>
       <c r="M323" t="n">
-        <v>10833</v>
+        <v>9091</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>3611</v>
+        <v>3030</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K324" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L324" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M324" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="K325" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L325" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M325" t="n">
-        <v>20990</v>
+        <v>10833</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>6997</v>
+        <v>3611</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,7 +23829,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K326" t="n">
         <v>10000</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23910,7 +23910,7 @@
         <v>22000</v>
       </c>
       <c r="M327" t="n">
-        <v>21010</v>
+        <v>20990</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>7003</v>
+        <v>6997</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,20 +23973,20 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K328" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L328" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M328" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>4167</v>
+        <v>278</v>
       </c>
       <c r="Q328" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K329" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L329" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M329" t="n">
-        <v>12000</v>
+        <v>21010</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>4000</v>
+        <v>7003</v>
       </c>
       <c r="Q329" t="n">
         <v>3</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,16 +24117,16 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K330" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L330" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M330" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3167</v>
+        <v>4167</v>
       </c>
       <c r="Q330" t="n">
         <v>3</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K331" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L331" t="n">
         <v>13000</v>
       </c>
-      <c r="L331" t="n">
-        <v>14000</v>
-      </c>
       <c r="M331" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="Q331" t="n">
         <v>3</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K332" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L332" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M332" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q332" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K333" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L333" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="M333" t="n">
-        <v>10250</v>
+        <v>13500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>3417</v>
+        <v>4500</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K334" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L334" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M334" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q334" t="n">
         <v>36</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24480,13 +24480,13 @@
         <v>160</v>
       </c>
       <c r="K335" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L335" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M335" t="n">
-        <v>12500</v>
+        <v>10250</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>4167</v>
+        <v>3417</v>
       </c>
       <c r="Q335" t="n">
         <v>3</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q336" t="n">
         <v>36</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,20 +24621,20 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K337" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L337" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M337" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>139</v>
+        <v>4167</v>
       </c>
       <c r="Q337" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K338" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L338" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M338" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3167</v>
+        <v>111</v>
       </c>
       <c r="Q338" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24768,13 +24768,13 @@
         <v>70</v>
       </c>
       <c r="K339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q339" t="n">
         <v>36</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K340" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L340" t="n">
         <v>10000</v>
       </c>
-      <c r="L340" t="n">
-        <v>11000</v>
-      </c>
       <c r="M340" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>3500</v>
+        <v>3167</v>
       </c>
       <c r="Q340" t="n">
         <v>3</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K341" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L341" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M341" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q341" t="n">
         <v>36</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K342" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L342" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M342" t="n">
-        <v>19010</v>
+        <v>10500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>6337</v>
+        <v>3500</v>
       </c>
       <c r="Q342" t="n">
         <v>3</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K343" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L343" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M343" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q343" t="n">
         <v>36</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K344" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L344" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M344" t="n">
-        <v>11000</v>
+        <v>19010</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,12 +25147,156 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>3667</v>
+        <v>6337</v>
       </c>
       <c r="Q344" t="n">
         <v>3</v>
       </c>
       <c r="R344" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>9</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E345" t="n">
+        <v>13</v>
+      </c>
+      <c r="F345" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>50</v>
+      </c>
+      <c r="K345" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L345" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M345" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>194</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>36</v>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>9</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E346" t="n">
+        <v>13</v>
+      </c>
+      <c r="F346" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>160</v>
+      </c>
+      <c r="K346" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L346" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M346" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
+        <v>3667</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>3</v>
+      </c>
+      <c r="R346" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K287" t="n">
         <v>4000</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K288" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L288" t="n">
         <v>8000</v>
       </c>
-      <c r="L288" t="n">
-        <v>10000</v>
-      </c>
       <c r="M288" t="n">
-        <v>9000</v>
+        <v>7496</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>3000</v>
+        <v>2499</v>
       </c>
       <c r="Q288" t="n">
         <v>3</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K289" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L289" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M289" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q289" t="n">
         <v>36</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -21240,13 +21240,13 @@
         <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L290" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M290" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>4167</v>
+        <v>3000</v>
       </c>
       <c r="Q290" t="n">
         <v>3</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -21384,13 +21384,13 @@
         <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L292" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M292" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>4833</v>
+        <v>4167</v>
       </c>
       <c r="Q292" t="n">
         <v>3</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -21456,13 +21456,13 @@
         <v>70</v>
       </c>
       <c r="K293" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L293" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M293" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="Q293" t="n">
         <v>36</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -21528,13 +21528,13 @@
         <v>160</v>
       </c>
       <c r="K294" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L294" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M294" t="n">
-        <v>10250</v>
+        <v>14500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>3417</v>
+        <v>4833</v>
       </c>
       <c r="Q294" t="n">
         <v>3</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L295" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M295" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="Q295" t="n">
         <v>36</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -21672,13 +21672,13 @@
         <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L296" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M296" t="n">
-        <v>13000</v>
+        <v>10250</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>4333</v>
+        <v>3417</v>
       </c>
       <c r="Q296" t="n">
         <v>3</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L297" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M297" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q297" t="n">
         <v>36</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -21816,13 +21816,13 @@
         <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L298" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="M298" t="n">
-        <v>10250</v>
+        <v>13000</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3417</v>
+        <v>4333</v>
       </c>
       <c r="Q298" t="n">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K299" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L299" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M299" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>2833</v>
+        <v>167</v>
       </c>
       <c r="Q299" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -21957,20 +21957,20 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K300" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L300" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="M300" t="n">
-        <v>7000</v>
+        <v>10250</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>194</v>
+        <v>3417</v>
       </c>
       <c r="Q300" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L301" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M301" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>4000</v>
+        <v>2833</v>
       </c>
       <c r="Q301" t="n">
         <v>3</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -22104,13 +22104,13 @@
         <v>70</v>
       </c>
       <c r="K302" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L302" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M302" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="Q302" t="n">
         <v>36</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -22176,13 +22176,13 @@
         <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L303" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M303" t="n">
-        <v>9750</v>
+        <v>12000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q303" t="n">
         <v>3</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M304" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q304" t="n">
         <v>36</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="L305" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M305" t="n">
-        <v>11000</v>
+        <v>9750</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3667</v>
+        <v>3250</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -22464,13 +22464,13 @@
         <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="Q307" t="n">
         <v>3</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -22536,13 +22536,13 @@
         <v>50</v>
       </c>
       <c r="K308" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L308" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M308" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q308" t="n">
         <v>36</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L309" t="n">
         <v>10000</v>
       </c>
       <c r="M309" t="n">
-        <v>9263</v>
+        <v>10000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>3088</v>
+        <v>3333</v>
       </c>
       <c r="Q309" t="n">
         <v>3</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K311" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L311" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M311" t="n">
-        <v>14000</v>
+        <v>9263</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>4667</v>
+        <v>3088</v>
       </c>
       <c r="Q311" t="n">
         <v>3</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q312" t="n">
         <v>36</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K313" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L313" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M313" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>5167</v>
+        <v>4667</v>
       </c>
       <c r="Q313" t="n">
         <v>3</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -22968,13 +22968,13 @@
         <v>25</v>
       </c>
       <c r="K314" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L314" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M314" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="Q314" t="n">
         <v>36</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K315" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L315" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M315" t="n">
-        <v>20984</v>
+        <v>15500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>6995</v>
+        <v>5167</v>
       </c>
       <c r="Q315" t="n">
         <v>3</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K316" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L316" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M316" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q316" t="n">
         <v>36</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="K317" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L317" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M317" t="n">
-        <v>11500</v>
+        <v>20984</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3833</v>
+        <v>6995</v>
       </c>
       <c r="Q317" t="n">
         <v>3</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -23256,13 +23256,13 @@
         <v>50</v>
       </c>
       <c r="K318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q318" t="n">
         <v>36</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K319" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L319" t="n">
         <v>12000</v>
       </c>
       <c r="M319" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>4000</v>
+        <v>3833</v>
       </c>
       <c r="Q319" t="n">
         <v>3</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K320" t="n">
         <v>7000</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -23469,16 +23469,16 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K321" t="n">
         <v>12000</v>
       </c>
       <c r="L321" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M321" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>4167</v>
+        <v>4000</v>
       </c>
       <c r="Q321" t="n">
         <v>3</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K322" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L322" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M322" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q322" t="n">
         <v>36</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K323" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L323" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M323" t="n">
-        <v>19010</v>
+        <v>12500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>6337</v>
+        <v>4167</v>
       </c>
       <c r="Q323" t="n">
         <v>3</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q324" t="n">
         <v>36</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K325" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L325" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M325" t="n">
-        <v>13500</v>
+        <v>19010</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>4500</v>
+        <v>6337</v>
       </c>
       <c r="Q325" t="n">
         <v>3</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M326" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23847,11 +23847,11 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q326" t="n">
         <v>36</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K327" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L327" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M327" t="n">
-        <v>11167</v>
+        <v>13500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>3722</v>
+        <v>4500</v>
       </c>
       <c r="Q327" t="n">
         <v>3</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K328" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L328" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M328" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23991,11 +23991,11 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P328" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q328" t="n">
         <v>36</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="K329" t="n">
         <v>10000</v>
@@ -24054,7 +24054,7 @@
         <v>12000</v>
       </c>
       <c r="M329" t="n">
-        <v>11000</v>
+        <v>11167</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3667</v>
+        <v>3722</v>
       </c>
       <c r="Q329" t="n">
         <v>3</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -24117,20 +24117,20 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K330" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L330" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M330" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>4667</v>
+        <v>222</v>
       </c>
       <c r="Q330" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -24189,16 +24189,16 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K331" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L331" t="n">
         <v>12000</v>
       </c>
-      <c r="L331" t="n">
-        <v>13000</v>
-      </c>
       <c r="M331" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>4167</v>
+        <v>3667</v>
       </c>
       <c r="Q331" t="n">
         <v>3</v>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K332" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L332" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M332" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>278</v>
+        <v>4667</v>
       </c>
       <c r="Q332" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K333" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L333" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M333" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>6333</v>
+        <v>4167</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -24405,20 +24405,20 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="K334" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L334" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M334" t="n">
-        <v>12947</v>
+        <v>10000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4316</v>
+        <v>278</v>
       </c>
       <c r="Q334" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -24477,20 +24477,20 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K335" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L335" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M335" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>111</v>
+        <v>6333</v>
       </c>
       <c r="Q335" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K336" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L336" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M336" t="n">
-        <v>9008</v>
+        <v>12947</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>3003</v>
+        <v>4316</v>
       </c>
       <c r="Q336" t="n">
         <v>3</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K337" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L337" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M337" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="Q337" t="n">
         <v>36</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="K338" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L338" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M338" t="n">
-        <v>14625</v>
+        <v>9008</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>4875</v>
+        <v>3003</v>
       </c>
       <c r="Q338" t="n">
         <v>3</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K339" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L339" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M339" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="Q339" t="n">
         <v>36</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K340" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L340" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M340" t="n">
-        <v>12500</v>
+        <v>14625</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>4167</v>
+        <v>4875</v>
       </c>
       <c r="Q340" t="n">
         <v>3</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -24912,13 +24912,13 @@
         <v>52</v>
       </c>
       <c r="K341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q341" t="n">
         <v>36</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -24984,13 +24984,13 @@
         <v>160</v>
       </c>
       <c r="K342" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L342" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M342" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>5500</v>
+        <v>4167</v>
       </c>
       <c r="Q342" t="n">
         <v>3</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -25053,7 +25053,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K343" t="n">
         <v>7000</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K344" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L344" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M344" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>3833</v>
+        <v>5500</v>
       </c>
       <c r="Q344" t="n">
         <v>3</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K346" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L346" t="n">
         <v>12000</v>
       </c>
       <c r="M346" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>4000</v>
+        <v>3833</v>
       </c>
       <c r="Q346" t="n">
         <v>3</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K347" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L347" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M347" t="n">
-        <v>9494</v>
+        <v>7000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="Q347" t="n">
         <v>36</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K348" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L348" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M348" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,12 +25435,156 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>6333</v>
+        <v>4000</v>
       </c>
       <c r="Q348" t="n">
         <v>3</v>
       </c>
       <c r="R348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>9</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E349" t="n">
+        <v>13</v>
+      </c>
+      <c r="F349" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>79</v>
+      </c>
+      <c r="K349" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L349" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M349" t="n">
+        <v>9494</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>$/caja 36 atados</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>36</v>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>9</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E350" t="n">
+        <v>13</v>
+      </c>
+      <c r="F350" t="n">
+        <v>100112040</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Cilantro</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>124</v>
+      </c>
+      <c r="K350" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L350" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M350" t="n">
+        <v>19000</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>$/docena de atados</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>6333</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>3</v>
+      </c>
+      <c r="R350" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Cilantro.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K132" t="n">
-        <v>22000</v>
+        <v>4000</v>
       </c>
       <c r="L132" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="M132" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>7667</v>
+        <v>111</v>
       </c>
       <c r="Q132" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9936,13 +9936,13 @@
         <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L133" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M133" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q133" t="n">
         <v>3</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44230</v>
+        <v>44424</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="K134" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L134" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M134" t="n">
-        <v>16412</v>
+        <v>23000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>5471</v>
+        <v>7667</v>
       </c>
       <c r="Q134" t="n">
         <v>3</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44382</v>
+        <v>44245</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,20 +10077,20 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="L135" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>153</v>
+        <v>4500</v>
       </c>
       <c r="Q135" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K136" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L136" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M136" t="n">
-        <v>10750</v>
+        <v>16412</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3583</v>
+        <v>5471</v>
       </c>
       <c r="Q136" t="n">
         <v>3</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K137" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L137" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M137" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="Q137" t="n">
         <v>36</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L138" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>8889</v>
+        <v>10750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2963</v>
+        <v>3583</v>
       </c>
       <c r="Q138" t="n">
         <v>3</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K139" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L139" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M139" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="Q139" t="n">
         <v>36</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K140" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L140" t="n">
         <v>10000</v>
       </c>
-      <c r="L140" t="n">
-        <v>10500</v>
-      </c>
       <c r="M140" t="n">
-        <v>10250</v>
+        <v>8889</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3417</v>
+        <v>2963</v>
       </c>
       <c r="Q140" t="n">
         <v>3</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44174</v>
+        <v>44370</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,20 +10509,20 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K141" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L141" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M141" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3167</v>
+        <v>153</v>
       </c>
       <c r="Q141" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K142" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L142" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M142" t="n">
-        <v>12000</v>
+        <v>10250</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4000</v>
+        <v>3417</v>
       </c>
       <c r="Q142" t="n">
         <v>3</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44449</v>
+        <v>44174</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L143" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M143" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>167</v>
+        <v>3167</v>
       </c>
       <c r="Q143" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,17 +10725,17 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K144" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L144" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M144" t="n">
         <v>12000</v>
       </c>
-      <c r="M144" t="n">
-        <v>11000</v>
-      </c>
       <c r="N144" t="inlineStr">
         <is>
           <t>$/docena de atados</t>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3667</v>
+        <v>4000</v>
       </c>
       <c r="Q144" t="n">
         <v>3</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M145" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q145" t="n">
         <v>36</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K146" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L146" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M146" t="n">
-        <v>21241</v>
+        <v>11000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>7080</v>
+        <v>3667</v>
       </c>
       <c r="Q146" t="n">
         <v>3</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10944,13 +10944,13 @@
         <v>52</v>
       </c>
       <c r="K147" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M147" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q147" t="n">
         <v>36</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K148" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L148" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M148" t="n">
-        <v>10500</v>
+        <v>21241</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3500</v>
+        <v>7080</v>
       </c>
       <c r="Q148" t="n">
         <v>3</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K149" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L149" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M149" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q149" t="n">
         <v>36</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K150" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M150" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q150" t="n">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q151" t="n">
         <v>36</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11304,13 +11304,13 @@
         <v>160</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L152" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M152" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4167</v>
+        <v>5000</v>
       </c>
       <c r="Q152" t="n">
         <v>3</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K153" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L153" t="n">
         <v>6000</v>
       </c>
       <c r="M153" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q153" t="n">
         <v>36</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,13 +11448,13 @@
         <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>11250</v>
+        <v>12500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3750</v>
+        <v>4167</v>
       </c>
       <c r="Q154" t="n">
         <v>3</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K155" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L155" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M155" t="n">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="Q155" t="n">
         <v>36</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L156" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="M156" t="n">
-        <v>9008</v>
+        <v>11250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3003</v>
+        <v>3750</v>
       </c>
       <c r="Q156" t="n">
         <v>3</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K157" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L157" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M157" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Q157" t="n">
         <v>36</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K158" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L158" t="n">
         <v>10000</v>
       </c>
       <c r="M158" t="n">
-        <v>10000</v>
+        <v>9008</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3333</v>
+        <v>3003</v>
       </c>
       <c r="Q158" t="n">
         <v>3</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K159" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L159" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M159" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="Q159" t="n">
         <v>36</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11880,13 +11880,13 @@
         <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L160" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M160" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q160" t="n">
         <v>3</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M161" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q161" t="n">
         <v>36</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L162" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M162" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>5667</v>
+        <v>4000</v>
       </c>
       <c r="Q162" t="n">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,20 +12093,20 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="K163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M163" t="n">
-        <v>9091</v>
+        <v>9000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3030</v>
+        <v>250</v>
       </c>
       <c r="Q163" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44315</v>
+        <v>44428</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,20 +12165,20 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K164" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L164" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M164" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12187,10 +12187,10 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>222</v>
+        <v>5667</v>
       </c>
       <c r="Q164" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K165" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L165" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M165" t="n">
-        <v>12000</v>
+        <v>9091</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4000</v>
+        <v>3030</v>
       </c>
       <c r="Q165" t="n">
         <v>3</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K166" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L166" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M166" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="Q166" t="n">
         <v>36</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12384,13 +12384,13 @@
         <v>160</v>
       </c>
       <c r="K167" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L167" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M167" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4333</v>
+        <v>4000</v>
       </c>
       <c r="Q167" t="n">
         <v>3</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L168" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M168" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="Q168" t="n">
         <v>36</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L169" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3500</v>
+        <v>4333</v>
       </c>
       <c r="Q169" t="n">
         <v>3</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K170" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L170" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M170" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q170" t="n">
         <v>36</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M171" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>4833</v>
+        <v>3500</v>
       </c>
       <c r="Q171" t="n">
         <v>3</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,20 +12741,20 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="K172" t="n">
         <v>8000</v>
       </c>
       <c r="L172" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M172" t="n">
-        <v>8941</v>
+        <v>8000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2980</v>
+        <v>222</v>
       </c>
       <c r="Q172" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44447</v>
+        <v>44195</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K173" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>167</v>
+        <v>4833</v>
       </c>
       <c r="Q173" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="K174" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M174" t="n">
-        <v>12992</v>
+        <v>8941</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4331</v>
+        <v>2980</v>
       </c>
       <c r="Q174" t="n">
         <v>3</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K175" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M175" t="n">
-        <v>9488</v>
+        <v>6000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="Q175" t="n">
         <v>36</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="K176" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L176" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>21013</v>
+        <v>12992</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>7004</v>
+        <v>4331</v>
       </c>
       <c r="Q176" t="n">
         <v>3</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K177" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L177" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M177" t="n">
-        <v>7000</v>
+        <v>9488</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q177" t="n">
         <v>36</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K178" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L178" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M178" t="n">
-        <v>13000</v>
+        <v>21013</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4333</v>
+        <v>7004</v>
       </c>
       <c r="Q178" t="n">
         <v>3</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K179" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L179" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M179" t="n">
-        <v>13091</v>
+        <v>7000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4364</v>
+        <v>194</v>
       </c>
       <c r="Q179" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,20 +13317,20 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L180" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M180" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>194</v>
+        <v>4333</v>
       </c>
       <c r="Q180" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K181" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L181" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M181" t="n">
-        <v>11000</v>
+        <v>13091</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3667</v>
+        <v>4364</v>
       </c>
       <c r="Q181" t="n">
         <v>3</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L182" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M182" t="n">
-        <v>5250</v>
+        <v>7000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="Q182" t="n">
         <v>36</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K183" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="L183" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M183" t="n">
-        <v>9750</v>
+        <v>11000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3250</v>
+        <v>3667</v>
       </c>
       <c r="Q183" t="n">
         <v>3</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K184" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L184" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M184" t="n">
-        <v>7000</v>
+        <v>5250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="Q184" t="n">
         <v>36</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K185" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L185" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M185" t="n">
-        <v>8385</v>
+        <v>9750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2795</v>
+        <v>3250</v>
       </c>
       <c r="Q185" t="n">
         <v>3</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K186" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L186" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M186" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="Q186" t="n">
         <v>36</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="K187" t="n">
         <v>8000</v>
       </c>
       <c r="L187" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M187" t="n">
-        <v>9000</v>
+        <v>8385</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3000</v>
+        <v>2795</v>
       </c>
       <c r="Q187" t="n">
         <v>3</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K188" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L188" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M188" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="Q188" t="n">
         <v>36</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="K189" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L189" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M189" t="n">
-        <v>20990</v>
+        <v>9000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>6997</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>3</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K190" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L190" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M190" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="Q190" t="n">
         <v>36</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="K191" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L191" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M191" t="n">
-        <v>8992</v>
+        <v>20990</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2997</v>
+        <v>6997</v>
       </c>
       <c r="Q191" t="n">
         <v>3</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>43</v>
       </c>
       <c r="K192" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L192" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M192" t="n">
-        <v>9512</v>
+        <v>4000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="Q192" t="n">
         <v>36</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="K193" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L193" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M193" t="n">
-        <v>18987</v>
+        <v>8992</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>6329</v>
+        <v>2997</v>
       </c>
       <c r="Q193" t="n">
         <v>3</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K194" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L194" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M194" t="n">
-        <v>7000</v>
+        <v>9512</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q194" t="n">
         <v>36</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K195" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L195" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M195" t="n">
-        <v>12000</v>
+        <v>18987</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4000</v>
+        <v>6329</v>
       </c>
       <c r="Q195" t="n">
         <v>3</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,20 +14469,20 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L196" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M196" t="n">
-        <v>10991</v>
+        <v>7000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3664</v>
+        <v>194</v>
       </c>
       <c r="Q196" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,20 +14541,20 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M197" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -14563,10 +14563,10 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>278</v>
+        <v>4000</v>
       </c>
       <c r="Q197" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R197" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="K198" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L198" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M198" t="n">
-        <v>15000</v>
+        <v>10991</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>5000</v>
+        <v>3664</v>
       </c>
       <c r="Q198" t="n">
         <v>3</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K199" t="n">
         <v>10000</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L200" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M200" t="n">
-        <v>21010</v>
+        <v>15000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>7003</v>
+        <v>5000</v>
       </c>
       <c r="Q200" t="n">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K201" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L201" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M201" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,10 +14851,10 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4333</v>
+        <v>278</v>
       </c>
       <c r="Q201" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R201" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44215</v>
+        <v>44411</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K202" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L202" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M202" t="n">
-        <v>8960</v>
+        <v>21010</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2987</v>
+        <v>7003</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L203" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M203" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5500</v>
+        <v>4333</v>
       </c>
       <c r="Q203" t="n">
         <v>3</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44403</v>
+        <v>44215</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,20 +15045,20 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L204" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M204" t="n">
-        <v>7000</v>
+        <v>8960</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -15067,10 +15067,10 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>194</v>
+        <v>2987</v>
       </c>
       <c r="Q204" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K205" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L205" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M205" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="Q205" t="n">
         <v>3</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,20 +15189,20 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L206" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M206" t="n">
-        <v>9091</v>
+        <v>7000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3030</v>
+        <v>194</v>
       </c>
       <c r="Q206" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R206" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44413</v>
+        <v>44403</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,20 +15261,20 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L207" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M207" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -15283,10 +15283,10 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>278</v>
+        <v>4833</v>
       </c>
       <c r="Q207" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R207" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="K208" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L208" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M208" t="n">
-        <v>22759</v>
+        <v>9091</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>7586</v>
+        <v>3030</v>
       </c>
       <c r="Q208" t="n">
         <v>3</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K209" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L209" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M209" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="Q209" t="n">
         <v>36</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K210" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L210" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M210" t="n">
-        <v>13000</v>
+        <v>22759</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>4333</v>
+        <v>7586</v>
       </c>
       <c r="Q210" t="n">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K211" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L211" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M211" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q211" t="n">
         <v>36</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L212" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M212" t="n">
-        <v>17495</v>
+        <v>13000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>5832</v>
+        <v>4333</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K213" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L213" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M213" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="Q213" t="n">
         <v>36</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K214" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L214" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M214" t="n">
-        <v>9000</v>
+        <v>17495</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3000</v>
+        <v>5832</v>
       </c>
       <c r="Q214" t="n">
         <v>3</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K215" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L215" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M215" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="Q215" t="n">
         <v>36</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,7 +15909,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
         <v>8000</v>
@@ -15918,7 +15918,7 @@
         <v>10000</v>
       </c>
       <c r="M216" t="n">
-        <v>9043</v>
+        <v>9000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>3014</v>
+        <v>3000</v>
       </c>
       <c r="Q216" t="n">
         <v>3</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K217" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L217" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M217" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="Q217" t="n">
         <v>36</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="K218" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L218" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M218" t="n">
-        <v>15500</v>
+        <v>9043</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>5167</v>
+        <v>3014</v>
       </c>
       <c r="Q218" t="n">
         <v>3</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K219" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L219" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M219" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="Q219" t="n">
         <v>36</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K220" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L220" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M220" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>4167</v>
+        <v>5167</v>
       </c>
       <c r="Q220" t="n">
         <v>3</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="Q221" t="n">
         <v>36</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K222" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L222" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M222" t="n">
-        <v>10800</v>
+        <v>12500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>3600</v>
+        <v>4167</v>
       </c>
       <c r="Q222" t="n">
         <v>3</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44351</v>
+        <v>44292</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K223" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L223" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M223" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="Q223" t="n">
         <v>36</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K224" t="n">
         <v>10000</v>
       </c>
       <c r="L224" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M224" t="n">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Q224" t="n">
         <v>3</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16560,17 +16560,17 @@
         <v>70</v>
       </c>
       <c r="K225" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L225" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M225" t="n">
-        <v>10857</v>
+        <v>5000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>3619</v>
+        <v>139</v>
       </c>
       <c r="Q225" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,20 +16629,20 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K226" t="n">
         <v>10000</v>
       </c>
       <c r="L226" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M226" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>278</v>
+        <v>3500</v>
       </c>
       <c r="Q226" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L227" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M227" t="n">
-        <v>14500</v>
+        <v>10857</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>4833</v>
+        <v>3619</v>
       </c>
       <c r="Q227" t="n">
         <v>3</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="K230" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L230" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M230" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4833</v>
+        <v>278</v>
       </c>
       <c r="Q230" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M231" t="n">
-        <v>12824</v>
+        <v>14500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>4275</v>
+        <v>4833</v>
       </c>
       <c r="Q231" t="n">
         <v>3</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,20 +17061,20 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K232" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L232" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M232" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -17083,10 +17083,10 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>139</v>
+        <v>4833</v>
       </c>
       <c r="Q232" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K233" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L233" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M233" t="n">
-        <v>10500</v>
+        <v>12824</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3500</v>
+        <v>4275</v>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L234" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M234" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="Q234" t="n">
         <v>36</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="K235" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L235" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M235" t="n">
-        <v>20759</v>
+        <v>10500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>6920</v>
+        <v>3500</v>
       </c>
       <c r="Q235" t="n">
         <v>3</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K236" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L236" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M236" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="Q236" t="n">
         <v>36</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K237" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L237" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M237" t="n">
-        <v>9500</v>
+        <v>20759</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3167</v>
+        <v>6920</v>
       </c>
       <c r="Q237" t="n">
         <v>3</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17496,13 +17496,13 @@
         <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="Q238" t="n">
         <v>36</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17568,13 +17568,13 @@
         <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L239" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M239" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4500</v>
+        <v>3167</v>
       </c>
       <c r="Q239" t="n">
         <v>3</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,7 +17637,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K240" t="n">
         <v>6000</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L241" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M241" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q241" t="n">
         <v>3</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,20 +17781,20 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K242" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L242" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M242" t="n">
-        <v>8556</v>
+        <v>6000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/docena de atados</t>
+          <t>$/caja 36 atados</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>2852</v>
+        <v>167</v>
       </c>
       <c r="Q242" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="K243" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L243" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M243" t="n">
-        <v>16364</v>
+        <v>10500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>5455</v>
+        <v>3500</v>
       </c>
       <c r="Q243" t="n">
         <v>3</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44320</v>
+        <v>44165</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,20 +17925,20 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K244" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L244" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M244" t="n">
-        <v>7000</v>
+        <v>8556</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/caja 36 atados</t>
+          <t>$/docena de atados</t>
         </is